--- a/EconomicProject/Report/Results/Overview_E2.xlsx
+++ b/EconomicProject/Report/Results/Overview_E2.xlsx
@@ -1670,31 +1670,31 @@
               <strCache>
                 <ptCount val="10"/>
                 <pt idx="0">
-                  <v>91:171</v>
+                  <v>143:217</v>
                 </pt>
                 <pt idx="1">
-                  <v>171:251</v>
+                  <v>217:291</v>
                 </pt>
                 <pt idx="2">
-                  <v>251:330</v>
+                  <v>291:365</v>
                 </pt>
                 <pt idx="3">
-                  <v>330:410</v>
+                  <v>365:439</v>
                 </pt>
                 <pt idx="4">
-                  <v>410:490</v>
+                  <v>439:513</v>
                 </pt>
                 <pt idx="5">
-                  <v>490:569</v>
+                  <v>513:587</v>
                 </pt>
                 <pt idx="6">
-                  <v>569:649</v>
+                  <v>587:661</v>
                 </pt>
                 <pt idx="7">
-                  <v>649:729</v>
+                  <v>661:735</v>
                 </pt>
                 <pt idx="8">
-                  <v>729:809</v>
+                  <v>735:809</v>
                 </pt>
               </strCache>
             </strRef>
@@ -1706,31 +1706,31 @@
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
                 <pt idx="0">
-                  <v>8</v>
+                  <v>32</v>
                 </pt>
                 <pt idx="1">
-                  <v>73</v>
+                  <v>83</v>
                 </pt>
                 <pt idx="2">
-                  <v>136</v>
+                  <v>143</v>
                 </pt>
                 <pt idx="3">
-                  <v>163</v>
+                  <v>170</v>
                 </pt>
                 <pt idx="4">
-                  <v>173</v>
+                  <v>150</v>
                 </pt>
                 <pt idx="5">
-                  <v>171</v>
+                  <v>184</v>
                 </pt>
                 <pt idx="6">
-                  <v>167</v>
+                  <v>145</v>
                 </pt>
                 <pt idx="7">
-                  <v>94</v>
+                  <v>79</v>
                 </pt>
                 <pt idx="8">
-                  <v>15</v>
+                  <v>14</v>
                 </pt>
               </numCache>
             </numRef>
@@ -4661,31 +4661,31 @@
               <strCache>
                 <ptCount val="10"/>
                 <pt idx="0">
-                  <v>91:171</v>
+                  <v>143:217</v>
                 </pt>
                 <pt idx="1">
-                  <v>171:251</v>
+                  <v>217:291</v>
                 </pt>
                 <pt idx="2">
-                  <v>251:330</v>
+                  <v>291:365</v>
                 </pt>
                 <pt idx="3">
-                  <v>330:410</v>
+                  <v>365:439</v>
                 </pt>
                 <pt idx="4">
-                  <v>410:490</v>
+                  <v>439:513</v>
                 </pt>
                 <pt idx="5">
-                  <v>490:569</v>
+                  <v>513:587</v>
                 </pt>
                 <pt idx="6">
-                  <v>569:649</v>
+                  <v>587:661</v>
                 </pt>
                 <pt idx="7">
-                  <v>649:729</v>
+                  <v>661:735</v>
                 </pt>
                 <pt idx="8">
-                  <v>729:809</v>
+                  <v>735:809</v>
                 </pt>
               </strCache>
             </strRef>
@@ -4697,31 +4697,31 @@
                 <formatCode>General</formatCode>
                 <ptCount val="10"/>
                 <pt idx="0">
-                  <v>8</v>
+                  <v>32</v>
                 </pt>
                 <pt idx="1">
-                  <v>73</v>
+                  <v>83</v>
                 </pt>
                 <pt idx="2">
-                  <v>136</v>
+                  <v>143</v>
                 </pt>
                 <pt idx="3">
-                  <v>163</v>
+                  <v>170</v>
                 </pt>
                 <pt idx="4">
-                  <v>173</v>
+                  <v>150</v>
                 </pt>
                 <pt idx="5">
-                  <v>171</v>
+                  <v>184</v>
                 </pt>
                 <pt idx="6">
-                  <v>167</v>
+                  <v>145</v>
                 </pt>
                 <pt idx="7">
-                  <v>94</v>
+                  <v>79</v>
                 </pt>
                 <pt idx="8">
-                  <v>15</v>
+                  <v>14</v>
                 </pt>
               </numCache>
             </numRef>
@@ -36850,15 +36850,15 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="n">
-        <v>378.9973500613917</v>
+        <v>360.2211819585467</v>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>91:171</t>
+          <t>143:217</t>
         </is>
       </c>
       <c r="E2" s="8" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -36866,15 +36866,15 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="n">
-        <v>254.4407740083847</v>
+        <v>342.5577772855749</v>
       </c>
       <c r="D3" s="8" t="inlineStr">
         <is>
-          <t>171:251</t>
+          <t>217:291</t>
         </is>
       </c>
       <c r="E3" s="8" t="n">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4">
@@ -36882,15 +36882,15 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="n">
-        <v>532.232801631549</v>
+        <v>511.3670316420958</v>
       </c>
       <c r="D4" s="8" t="inlineStr">
         <is>
-          <t>251:330</t>
+          <t>291:365</t>
         </is>
       </c>
       <c r="E4" s="8" t="n">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5">
@@ -36898,15 +36898,15 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="n">
-        <v>717.3827122782983</v>
+        <v>636.6176378236612</v>
       </c>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>330:410</t>
+          <t>365:439</t>
         </is>
       </c>
       <c r="E5" s="8" t="n">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6">
@@ -36914,15 +36914,15 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="n">
-        <v>667.3690365905907</v>
+        <v>343.4915799413395</v>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>410:490</t>
+          <t>439:513</t>
         </is>
       </c>
       <c r="E6" s="8" t="n">
-        <v>173</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7">
@@ -36930,15 +36930,15 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="n">
-        <v>618.8550351952319</v>
+        <v>311.6246499919681</v>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>490:569</t>
+          <t>513:587</t>
         </is>
       </c>
       <c r="E7" s="8" t="n">
-        <v>171</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8">
@@ -36946,15 +36946,15 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="n">
-        <v>286.4237339766864</v>
+        <v>304.2313228176614</v>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>569:649</t>
+          <t>587:661</t>
         </is>
       </c>
       <c r="E8" s="8" t="n">
-        <v>167</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9">
@@ -36962,15 +36962,15 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="n">
-        <v>457.2694948959635</v>
+        <v>433.7748311767621</v>
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
-          <t>649:729</t>
+          <t>661:735</t>
         </is>
       </c>
       <c r="E9" s="8" t="n">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
@@ -36978,15 +36978,15 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="n">
-        <v>658.6567846951259</v>
+        <v>600.6503068581104</v>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>729:809</t>
+          <t>735:809</t>
         </is>
       </c>
       <c r="E10" s="8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
@@ -36994,7 +36994,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="n">
-        <v>330.6977227841369</v>
+        <v>313.0112293544399</v>
       </c>
     </row>
     <row r="12">
@@ -37002,7 +37002,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="n">
-        <v>542.8581767473877</v>
+        <v>420.0884352608981</v>
       </c>
     </row>
     <row r="13">
@@ -37010,7 +37010,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="8" t="n">
-        <v>251.140748116724</v>
+        <v>620.861939079</v>
       </c>
     </row>
     <row r="14">
@@ -37018,7 +37018,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="8" t="n">
-        <v>663.6718073212105</v>
+        <v>552.4366716905686</v>
       </c>
     </row>
     <row r="15">
@@ -37026,7 +37026,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="8" t="n">
-        <v>597.3919535742501</v>
+        <v>346.4360881775862</v>
       </c>
     </row>
     <row r="16">
@@ -37034,7 +37034,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="8" t="n">
-        <v>316.852251864145</v>
+        <v>575.5968527246998</v>
       </c>
     </row>
     <row r="17">
@@ -37042,7 +37042,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="8" t="n">
-        <v>448.3396003799902</v>
+        <v>544.1312537551613</v>
       </c>
     </row>
     <row r="18">
@@ -37050,7 +37050,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="8" t="n">
-        <v>315.5007275097234</v>
+        <v>230.8304492429332</v>
       </c>
     </row>
     <row r="19">
@@ -37058,7 +37058,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="8" t="n">
-        <v>343.8547816512095</v>
+        <v>696.5203173705401</v>
       </c>
     </row>
     <row r="20">
@@ -37066,7 +37066,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="8" t="n">
-        <v>459.0078302765958</v>
+        <v>533.2520641340839</v>
       </c>
     </row>
     <row r="21">
@@ -37074,7 +37074,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="8" t="n">
-        <v>508.5459481404818</v>
+        <v>528.3871827021998</v>
       </c>
     </row>
     <row r="22">
@@ -37082,7 +37082,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="8" t="n">
-        <v>457.4158194067362</v>
+        <v>707.4492842941382</v>
       </c>
     </row>
     <row r="23">
@@ -37090,7 +37090,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="8" t="n">
-        <v>316.5668844946941</v>
+        <v>276.6852656364907</v>
       </c>
     </row>
     <row r="24">
@@ -37098,7 +37098,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="8" t="n">
-        <v>534.8588445502876</v>
+        <v>696.8002142464574</v>
       </c>
     </row>
     <row r="25">
@@ -37106,7 +37106,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="8" t="n">
-        <v>279.2703170672667</v>
+        <v>292.0372755397246</v>
       </c>
     </row>
     <row r="26">
@@ -37114,7 +37114,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="8" t="n">
-        <v>356.9901066835622</v>
+        <v>284.6087869909196</v>
       </c>
     </row>
     <row r="27">
@@ -37122,7 +37122,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="8" t="n">
-        <v>340.1620425361356</v>
+        <v>506.8992222435236</v>
       </c>
     </row>
     <row r="28">
@@ -37130,7 +37130,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="8" t="n">
-        <v>613.1587067818508</v>
+        <v>414.0729162514374</v>
       </c>
     </row>
     <row r="29">
@@ -37138,7 +37138,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="8" t="n">
-        <v>548.3727207763898</v>
+        <v>321.0637508321789</v>
       </c>
     </row>
     <row r="30">
@@ -37146,7 +37146,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="8" t="n">
-        <v>231.8530571671039</v>
+        <v>231.6109996886906</v>
       </c>
     </row>
     <row r="31">
@@ -37154,7 +37154,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="8" t="n">
-        <v>212.9417857401651</v>
+        <v>217.1576299124931</v>
       </c>
     </row>
     <row r="32">
@@ -37162,7 +37162,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="8" t="n">
-        <v>490.2802039503831</v>
+        <v>232.9833217827126</v>
       </c>
     </row>
     <row r="33">
@@ -37170,7 +37170,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="8" t="n">
-        <v>181.2521956162259</v>
+        <v>660.0963260986342</v>
       </c>
     </row>
     <row r="34">
@@ -37178,7 +37178,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="8" t="n">
-        <v>380.1300131435655</v>
+        <v>401.9840028346239</v>
       </c>
     </row>
     <row r="35">
@@ -37186,7 +37186,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="8" t="n">
-        <v>386.2076577055341</v>
+        <v>408.5445365008997</v>
       </c>
     </row>
     <row r="36">
@@ -37194,7 +37194,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="8" t="n">
-        <v>655.6789160152429</v>
+        <v>663.8150416773695</v>
       </c>
     </row>
     <row r="37">
@@ -37202,7 +37202,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="8" t="n">
-        <v>591.4195711170619</v>
+        <v>587.9503178749113</v>
       </c>
     </row>
     <row r="38">
@@ -37210,7 +37210,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="8" t="n">
-        <v>452.7211366760728</v>
+        <v>560.5916147066337</v>
       </c>
     </row>
     <row r="39">
@@ -37218,7 +37218,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="8" t="n">
-        <v>471.8472007795484</v>
+        <v>544.8701447730831</v>
       </c>
     </row>
     <row r="40">
@@ -37226,7 +37226,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="8" t="n">
-        <v>330.3441827928656</v>
+        <v>390.5487963918256</v>
       </c>
     </row>
     <row r="41">
@@ -37234,7 +37234,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="8" t="n">
-        <v>410.9509498049399</v>
+        <v>779.8953008256046</v>
       </c>
     </row>
     <row r="42">
@@ -37242,7 +37242,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="8" t="n">
-        <v>433.5946791947673</v>
+        <v>541.1001901615551</v>
       </c>
     </row>
     <row r="43">
@@ -37250,7 +37250,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="8" t="n">
-        <v>356.6930797671412</v>
+        <v>605.7603116227266</v>
       </c>
     </row>
     <row r="44">
@@ -37258,7 +37258,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="8" t="n">
-        <v>396.4605302979093</v>
+        <v>471.2076261494465</v>
       </c>
     </row>
     <row r="45">
@@ -37266,7 +37266,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="8" t="n">
-        <v>241.2505949155845</v>
+        <v>325.8447739783225</v>
       </c>
     </row>
     <row r="46">
@@ -37274,7 +37274,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="8" t="n">
-        <v>502.4086335226697</v>
+        <v>331.2023825051753</v>
       </c>
     </row>
     <row r="47">
@@ -37282,7 +37282,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="8" t="n">
-        <v>505.0307103445094</v>
+        <v>346.9336434030924</v>
       </c>
     </row>
     <row r="48">
@@ -37290,7 +37290,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="8" t="n">
-        <v>470.8686694847858</v>
+        <v>620.6695946376177</v>
       </c>
     </row>
     <row r="49">
@@ -37298,7 +37298,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="8" t="n">
-        <v>583.7281330162481</v>
+        <v>469.8426535023914</v>
       </c>
     </row>
     <row r="50">
@@ -37306,7 +37306,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="8" t="n">
-        <v>411.7405953978842</v>
+        <v>612.9826413900525</v>
       </c>
     </row>
     <row r="51">
@@ -37314,7 +37314,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="8" t="n">
-        <v>319.575632541221</v>
+        <v>380.5129202059034</v>
       </c>
     </row>
     <row r="52">
@@ -37322,7 +37322,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="8" t="n">
-        <v>415.8622695044357</v>
+        <v>514.6376598938515</v>
       </c>
     </row>
     <row r="53">
@@ -37330,7 +37330,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="8" t="n">
-        <v>577.1333738257252</v>
+        <v>588.1262790344753</v>
       </c>
     </row>
     <row r="54">
@@ -37338,7 +37338,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="8" t="n">
-        <v>345.4598472633501</v>
+        <v>434.0081179807508</v>
       </c>
     </row>
     <row r="55">
@@ -37346,7 +37346,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="8" t="n">
-        <v>618.5318785320818</v>
+        <v>668.2693695275318</v>
       </c>
     </row>
     <row r="56">
@@ -37354,7 +37354,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="8" t="n">
-        <v>535.764987812139</v>
+        <v>405.5377844830869</v>
       </c>
     </row>
     <row r="57">
@@ -37362,7 +37362,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="8" t="n">
-        <v>360.7806282461186</v>
+        <v>550.2927761460024</v>
       </c>
     </row>
     <row r="58">
@@ -37370,7 +37370,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="8" t="n">
-        <v>429.3732717293743</v>
+        <v>427.9201185569537</v>
       </c>
     </row>
     <row r="59">
@@ -37378,7 +37378,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="8" t="n">
-        <v>700.240613513887</v>
+        <v>500.5279330318053</v>
       </c>
     </row>
     <row r="60">
@@ -37386,7 +37386,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="8" t="n">
-        <v>562.0287126990003</v>
+        <v>446.0908919082346</v>
       </c>
     </row>
     <row r="61">
@@ -37394,7 +37394,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="8" t="n">
-        <v>506.9433244292727</v>
+        <v>564.5228713065005</v>
       </c>
     </row>
     <row r="62">
@@ -37402,7 +37402,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="8" t="n">
-        <v>678.6809540752423</v>
+        <v>666.6915951433982</v>
       </c>
     </row>
     <row r="63">
@@ -37410,7 +37410,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="8" t="n">
-        <v>368.988346238497</v>
+        <v>591.5155292697925</v>
       </c>
     </row>
     <row r="64">
@@ -37418,7 +37418,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="8" t="n">
-        <v>639.7283582332021</v>
+        <v>553.2263624822044</v>
       </c>
     </row>
     <row r="65">
@@ -37426,7 +37426,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="8" t="n">
-        <v>521.3408119225862</v>
+        <v>247.2850506320984</v>
       </c>
     </row>
     <row r="66">
@@ -37434,7 +37434,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="8" t="n">
-        <v>453.5940085066351</v>
+        <v>585.6866093275896</v>
       </c>
     </row>
     <row r="67">
@@ -37442,7 +37442,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="8" t="n">
-        <v>721.5983472687464</v>
+        <v>546.7054867883718</v>
       </c>
     </row>
     <row r="68">
@@ -37450,7 +37450,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="8" t="n">
-        <v>255.7458429088096</v>
+        <v>624.0712738040447</v>
       </c>
     </row>
     <row r="69">
@@ -37458,7 +37458,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="8" t="n">
-        <v>448.4642060464043</v>
+        <v>553.1233610038269</v>
       </c>
     </row>
     <row r="70">
@@ -37466,7 +37466,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="8" t="n">
-        <v>550.0126868338082</v>
+        <v>323.4315510928515</v>
       </c>
     </row>
     <row r="71">
@@ -37474,7 +37474,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="8" t="n">
-        <v>368.5602781113652</v>
+        <v>459.592391743598</v>
       </c>
     </row>
     <row r="72">
@@ -37482,7 +37482,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="8" t="n">
-        <v>491.2176161227914</v>
+        <v>426.8823870004326</v>
       </c>
     </row>
     <row r="73">
@@ -37490,7 +37490,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="8" t="n">
-        <v>469.8846231460125</v>
+        <v>594.809444372583</v>
       </c>
     </row>
     <row r="74">
@@ -37498,7 +37498,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="8" t="n">
-        <v>632.1055777448795</v>
+        <v>524.5667640158314</v>
       </c>
     </row>
     <row r="75">
@@ -37506,7 +37506,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="8" t="n">
-        <v>357.5803559422596</v>
+        <v>475.0841188889831</v>
       </c>
     </row>
     <row r="76">
@@ -37514,7 +37514,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="8" t="n">
-        <v>593.0988706401877</v>
+        <v>634.2569601748249</v>
       </c>
     </row>
     <row r="77">
@@ -37522,7 +37522,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="8" t="n">
-        <v>246.6908518274203</v>
+        <v>530.9117370455318</v>
       </c>
     </row>
     <row r="78">
@@ -37530,7 +37530,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="8" t="n">
-        <v>667.4590143342265</v>
+        <v>346.1837087479296</v>
       </c>
     </row>
     <row r="79">
@@ -37538,7 +37538,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="8" t="n">
-        <v>319.7040162563947</v>
+        <v>485.1994688242231</v>
       </c>
     </row>
     <row r="80">
@@ -37546,7 +37546,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="8" t="n">
-        <v>216.322517704079</v>
+        <v>279.1390669062071</v>
       </c>
     </row>
     <row r="81">
@@ -37554,7 +37554,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="8" t="n">
-        <v>171.432819461453</v>
+        <v>353.4908451961136</v>
       </c>
     </row>
     <row r="82">
@@ -37562,7 +37562,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="8" t="n">
-        <v>413.7015530570748</v>
+        <v>157.6786285624399</v>
       </c>
     </row>
     <row r="83">
@@ -37570,7 +37570,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="8" t="n">
-        <v>739.2256747644169</v>
+        <v>304.3401221122279</v>
       </c>
     </row>
     <row r="84">
@@ -37578,7 +37578,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="8" t="n">
-        <v>490.232904641294</v>
+        <v>440.5147928480837</v>
       </c>
     </row>
     <row r="85">
@@ -37586,7 +37586,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="8" t="n">
-        <v>203.1395154410655</v>
+        <v>292.6811741049434</v>
       </c>
     </row>
     <row r="86">
@@ -37594,7 +37594,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="8" t="n">
-        <v>547.3238966444449</v>
+        <v>544.728120917839</v>
       </c>
     </row>
     <row r="87">
@@ -37602,7 +37602,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="8" t="n">
-        <v>637.7238712513196</v>
+        <v>341.8915884777999</v>
       </c>
     </row>
     <row r="88">
@@ -37610,7 +37610,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="8" t="n">
-        <v>533.9392896652819</v>
+        <v>435.6543519693559</v>
       </c>
     </row>
     <row r="89">
@@ -37618,7 +37618,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="8" t="n">
-        <v>236.1211085750658</v>
+        <v>669.3664763144295</v>
       </c>
     </row>
     <row r="90">
@@ -37626,7 +37626,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="8" t="n">
-        <v>253.4191006529072</v>
+        <v>334.0499504987319</v>
       </c>
     </row>
     <row r="91">
@@ -37634,7 +37634,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="8" t="n">
-        <v>214.129146718234</v>
+        <v>558.8299209915403</v>
       </c>
     </row>
     <row r="92">
@@ -37642,7 +37642,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="8" t="n">
-        <v>648.1706592803816</v>
+        <v>651.3977234660746</v>
       </c>
     </row>
     <row r="93">
@@ -37650,7 +37650,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="8" t="n">
-        <v>594.0475416480645</v>
+        <v>418.1417869392682</v>
       </c>
     </row>
     <row r="94">
@@ -37658,7 +37658,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="8" t="n">
-        <v>731.358913573126</v>
+        <v>628.8763219390087</v>
       </c>
     </row>
     <row r="95">
@@ -37666,7 +37666,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="8" t="n">
-        <v>749.075014153706</v>
+        <v>461.6482680844931</v>
       </c>
     </row>
     <row r="96">
@@ -37674,7 +37674,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="8" t="n">
-        <v>656.0187077406872</v>
+        <v>256.5275135637779</v>
       </c>
     </row>
     <row r="97">
@@ -37682,7 +37682,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="8" t="n">
-        <v>406.9915746680174</v>
+        <v>588.5590978632262</v>
       </c>
     </row>
     <row r="98">
@@ -37690,7 +37690,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="8" t="n">
-        <v>412.5484739982081</v>
+        <v>347.9234527400982</v>
       </c>
     </row>
     <row r="99">
@@ -37698,7 +37698,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="8" t="n">
-        <v>720.4419091148809</v>
+        <v>278.1146354542167</v>
       </c>
     </row>
     <row r="100">
@@ -37706,7 +37706,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="8" t="n">
-        <v>566.3966878045981</v>
+        <v>181.8392379869183</v>
       </c>
     </row>
     <row r="101">
@@ -37714,7 +37714,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="8" t="n">
-        <v>551.1520003336813</v>
+        <v>510.9497686968505</v>
       </c>
     </row>
     <row r="102">
@@ -37722,7 +37722,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="8" t="n">
-        <v>425.7957186387208</v>
+        <v>572.7680763172573</v>
       </c>
     </row>
     <row r="103">
@@ -37730,7 +37730,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="8" t="n">
-        <v>366.5675069194259</v>
+        <v>405.1888550635285</v>
       </c>
     </row>
     <row r="104">
@@ -37738,7 +37738,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="8" t="n">
-        <v>721.6547244587467</v>
+        <v>529.3444338170063</v>
       </c>
     </row>
     <row r="105">
@@ -37746,7 +37746,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="8" t="n">
-        <v>478.0434383826398</v>
+        <v>477.5515008438209</v>
       </c>
     </row>
     <row r="106">
@@ -37754,7 +37754,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="8" t="n">
-        <v>350.5163379190885</v>
+        <v>459.0869218498626</v>
       </c>
     </row>
     <row r="107">
@@ -37762,7 +37762,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="8" t="n">
-        <v>305.2113064981331</v>
+        <v>271.3643828847267</v>
       </c>
     </row>
     <row r="108">
@@ -37770,7 +37770,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="8" t="n">
-        <v>226.6531937181835</v>
+        <v>582.468361855801</v>
       </c>
     </row>
     <row r="109">
@@ -37778,7 +37778,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="8" t="n">
-        <v>390.8492294303206</v>
+        <v>314.0673459247123</v>
       </c>
     </row>
     <row r="110">
@@ -37786,7 +37786,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="8" t="n">
-        <v>699.1715743520574</v>
+        <v>388.4646749342434</v>
       </c>
     </row>
     <row r="111">
@@ -37794,7 +37794,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="8" t="n">
-        <v>195.3827067645202</v>
+        <v>398.4546574176414</v>
       </c>
     </row>
     <row r="112">
@@ -37802,7 +37802,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="8" t="n">
-        <v>412.6227083778659</v>
+        <v>752.3639262362207</v>
       </c>
     </row>
     <row r="113">
@@ -37810,7 +37810,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="8" t="n">
-        <v>359.0179450386046</v>
+        <v>628.5044806864894</v>
       </c>
     </row>
     <row r="114">
@@ -37818,7 +37818,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="8" t="n">
-        <v>410.6055362571344</v>
+        <v>398.9767395943774</v>
       </c>
     </row>
     <row r="115">
@@ -37826,7 +37826,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="8" t="n">
-        <v>282.0890141204452</v>
+        <v>381.4170514987198</v>
       </c>
     </row>
     <row r="116">
@@ -37834,7 +37834,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="8" t="n">
-        <v>474.6115348738459</v>
+        <v>508.8236205952225</v>
       </c>
     </row>
     <row r="117">
@@ -37842,7 +37842,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="8" t="n">
-        <v>420.1309642304747</v>
+        <v>690.2379277794838</v>
       </c>
     </row>
     <row r="118">
@@ -37850,7 +37850,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="8" t="n">
-        <v>607.1834012064419</v>
+        <v>680.0025647675125</v>
       </c>
     </row>
     <row r="119">
@@ -37858,7 +37858,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="8" t="n">
-        <v>423.2039231839816</v>
+        <v>580.8519172686086</v>
       </c>
     </row>
     <row r="120">
@@ -37866,7 +37866,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="8" t="n">
-        <v>432.0395153806965</v>
+        <v>577.7324576690329</v>
       </c>
     </row>
     <row r="121">
@@ -37874,7 +37874,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="8" t="n">
-        <v>331.2793220713116</v>
+        <v>191.962177554056</v>
       </c>
     </row>
     <row r="122">
@@ -37882,7 +37882,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="8" t="n">
-        <v>524.4693155309285</v>
+        <v>512.8245269049862</v>
       </c>
     </row>
     <row r="123">
@@ -37890,7 +37890,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="8" t="n">
-        <v>444.9858759061723</v>
+        <v>369.3210468923887</v>
       </c>
     </row>
     <row r="124">
@@ -37898,7 +37898,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="8" t="n">
-        <v>689.9530542768463</v>
+        <v>393.259559340041</v>
       </c>
     </row>
     <row r="125">
@@ -37906,7 +37906,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="8" t="n">
-        <v>354.8672452290776</v>
+        <v>409.1881974854342</v>
       </c>
     </row>
     <row r="126">
@@ -37914,7 +37914,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="8" t="n">
-        <v>418.0526829457559</v>
+        <v>611.2773198560848</v>
       </c>
     </row>
     <row r="127">
@@ -37922,7 +37922,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="8" t="n">
-        <v>511.3974967749562</v>
+        <v>345.5388653138307</v>
       </c>
     </row>
     <row r="128">
@@ -37930,7 +37930,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="8" t="n">
-        <v>411.222788142471</v>
+        <v>324.257964242715</v>
       </c>
     </row>
     <row r="129">
@@ -37938,7 +37938,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="8" t="n">
-        <v>685.4001911578974</v>
+        <v>704.4242088988964</v>
       </c>
     </row>
     <row r="130">
@@ -37946,7 +37946,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="8" t="n">
-        <v>496.1385908445749</v>
+        <v>529.0236083247543</v>
       </c>
     </row>
     <row r="131">
@@ -37954,7 +37954,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="8" t="n">
-        <v>328.4321349311535</v>
+        <v>241.1213715922666</v>
       </c>
     </row>
     <row r="132">
@@ -37962,7 +37962,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="8" t="n">
-        <v>291.9015241041748</v>
+        <v>514.1908249495659</v>
       </c>
     </row>
     <row r="133">
@@ -37970,7 +37970,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="8" t="n">
-        <v>373.5177243682385</v>
+        <v>208.5770687988662</v>
       </c>
     </row>
     <row r="134">
@@ -37978,7 +37978,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="8" t="n">
-        <v>246.1742575880459</v>
+        <v>551.4851425706546</v>
       </c>
     </row>
     <row r="135">
@@ -37986,7 +37986,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="8" t="n">
-        <v>329.7225349208546</v>
+        <v>434.2961640431778</v>
       </c>
     </row>
     <row r="136">
@@ -37994,7 +37994,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="8" t="n">
-        <v>457.5136034291391</v>
+        <v>566.2377756276612</v>
       </c>
     </row>
     <row r="137">
@@ -38002,7 +38002,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="8" t="n">
-        <v>613.6541317009136</v>
+        <v>627.9916059269941</v>
       </c>
     </row>
     <row r="138">
@@ -38010,7 +38010,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="8" t="n">
-        <v>653.9909615064539</v>
+        <v>331.13050767091</v>
       </c>
     </row>
     <row r="139">
@@ -38018,7 +38018,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="8" t="n">
-        <v>367.0191571217295</v>
+        <v>161.2297572199156</v>
       </c>
     </row>
     <row r="140">
@@ -38026,7 +38026,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="8" t="n">
-        <v>374.2936666417124</v>
+        <v>402.257716420876</v>
       </c>
     </row>
     <row r="141">
@@ -38034,7 +38034,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="8" t="n">
-        <v>559.9670983263532</v>
+        <v>266.3545158183683</v>
       </c>
     </row>
     <row r="142">
@@ -38042,7 +38042,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="8" t="n">
-        <v>569.4265613376349</v>
+        <v>627.328819420696</v>
       </c>
     </row>
     <row r="143">
@@ -38050,7 +38050,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="8" t="n">
-        <v>652.1310567649393</v>
+        <v>337.676888662048</v>
       </c>
     </row>
     <row r="144">
@@ -38058,7 +38058,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="8" t="n">
-        <v>492.9478858833979</v>
+        <v>590.0442304006165</v>
       </c>
     </row>
     <row r="145">
@@ -38066,7 +38066,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="8" t="n">
-        <v>362.4190516429748</v>
+        <v>372.5046024960955</v>
       </c>
     </row>
     <row r="146">
@@ -38074,7 +38074,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="8" t="n">
-        <v>622.5203172277644</v>
+        <v>301.4512849499214</v>
       </c>
     </row>
     <row r="147">
@@ -38082,7 +38082,7 @@
         <v>145</v>
       </c>
       <c r="B147" s="8" t="n">
-        <v>713.557460217468</v>
+        <v>657.9441326101473</v>
       </c>
     </row>
     <row r="148">
@@ -38090,7 +38090,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="8" t="n">
-        <v>364.442840519863</v>
+        <v>273.1097847946294</v>
       </c>
     </row>
     <row r="149">
@@ -38098,7 +38098,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="8" t="n">
-        <v>683.4304389145798</v>
+        <v>615.872552225094</v>
       </c>
     </row>
     <row r="150">
@@ -38106,7 +38106,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="8" t="n">
-        <v>474.6990240424386</v>
+        <v>620.1823967773225</v>
       </c>
     </row>
     <row r="151">
@@ -38114,7 +38114,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="8" t="n">
-        <v>257.7326466398808</v>
+        <v>731.271479458889</v>
       </c>
     </row>
     <row r="152">
@@ -38122,7 +38122,7 @@
         <v>150</v>
       </c>
       <c r="B152" s="8" t="n">
-        <v>608.252403027437</v>
+        <v>511.3976186012744</v>
       </c>
     </row>
     <row r="153">
@@ -38130,7 +38130,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="8" t="n">
-        <v>466.2536466557528</v>
+        <v>419.3195358473951</v>
       </c>
     </row>
     <row r="154">
@@ -38138,7 +38138,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="8" t="n">
-        <v>645.4609381102291</v>
+        <v>564.169413081166</v>
       </c>
     </row>
     <row r="155">
@@ -38146,7 +38146,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="8" t="n">
-        <v>358.7535006145789</v>
+        <v>668.18017190454</v>
       </c>
     </row>
     <row r="156">
@@ -38154,7 +38154,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="8" t="n">
-        <v>226.4996212070694</v>
+        <v>418.6518386814421</v>
       </c>
     </row>
     <row r="157">
@@ -38162,7 +38162,7 @@
         <v>155</v>
       </c>
       <c r="B157" s="8" t="n">
-        <v>535.0633962176538</v>
+        <v>277.327871134924</v>
       </c>
     </row>
     <row r="158">
@@ -38170,7 +38170,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="8" t="n">
-        <v>334.0553395489754</v>
+        <v>511.862294396375</v>
       </c>
     </row>
     <row r="159">
@@ -38178,7 +38178,7 @@
         <v>157</v>
       </c>
       <c r="B159" s="8" t="n">
-        <v>345.8039402477599</v>
+        <v>427.760071374455</v>
       </c>
     </row>
     <row r="160">
@@ -38186,7 +38186,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="8" t="n">
-        <v>414.8190986285599</v>
+        <v>371.8730284726289</v>
       </c>
     </row>
     <row r="161">
@@ -38194,7 +38194,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="8" t="n">
-        <v>423.4960172564502</v>
+        <v>482.851312804719</v>
       </c>
     </row>
     <row r="162">
@@ -38202,7 +38202,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="8" t="n">
-        <v>537.0325992239135</v>
+        <v>594.8459679487269</v>
       </c>
     </row>
     <row r="163">
@@ -38210,7 +38210,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="8" t="n">
-        <v>557.3373067716399</v>
+        <v>519.8274784399126</v>
       </c>
     </row>
     <row r="164">
@@ -38218,7 +38218,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="8" t="n">
-        <v>639.2435873421949</v>
+        <v>463.8086865942558</v>
       </c>
     </row>
     <row r="165">
@@ -38226,7 +38226,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="8" t="n">
-        <v>602.4330213352422</v>
+        <v>389.9673873147169</v>
       </c>
     </row>
     <row r="166">
@@ -38234,7 +38234,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="8" t="n">
-        <v>640.2604881866005</v>
+        <v>463.1450560534216</v>
       </c>
     </row>
     <row r="167">
@@ -38242,7 +38242,7 @@
         <v>165</v>
       </c>
       <c r="B167" s="8" t="n">
-        <v>240.5760702925128</v>
+        <v>419.3868520073839</v>
       </c>
     </row>
     <row r="168">
@@ -38250,7 +38250,7 @@
         <v>166</v>
       </c>
       <c r="B168" s="8" t="n">
-        <v>664.113452833092</v>
+        <v>373.4689287605056</v>
       </c>
     </row>
     <row r="169">
@@ -38258,7 +38258,7 @@
         <v>167</v>
       </c>
       <c r="B169" s="8" t="n">
-        <v>339.9454247982331</v>
+        <v>318.2955486524384</v>
       </c>
     </row>
     <row r="170">
@@ -38266,7 +38266,7 @@
         <v>168</v>
       </c>
       <c r="B170" s="8" t="n">
-        <v>759.7112860759569</v>
+        <v>542.2768239474783</v>
       </c>
     </row>
     <row r="171">
@@ -38274,7 +38274,7 @@
         <v>169</v>
       </c>
       <c r="B171" s="8" t="n">
-        <v>249.1516118215862</v>
+        <v>245.9954577860465</v>
       </c>
     </row>
     <row r="172">
@@ -38282,7 +38282,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="8" t="n">
-        <v>664.9967562433725</v>
+        <v>318.592385280157</v>
       </c>
     </row>
     <row r="173">
@@ -38290,7 +38290,7 @@
         <v>171</v>
       </c>
       <c r="B173" s="8" t="n">
-        <v>666.4601840110673</v>
+        <v>258.092955920591</v>
       </c>
     </row>
     <row r="174">
@@ -38298,7 +38298,7 @@
         <v>172</v>
       </c>
       <c r="B174" s="8" t="n">
-        <v>715.3353925225965</v>
+        <v>331.3381424730248</v>
       </c>
     </row>
     <row r="175">
@@ -38306,7 +38306,7 @@
         <v>173</v>
       </c>
       <c r="B175" s="8" t="n">
-        <v>607.438209504195</v>
+        <v>526.8480135923738</v>
       </c>
     </row>
     <row r="176">
@@ -38314,7 +38314,7 @@
         <v>174</v>
       </c>
       <c r="B176" s="8" t="n">
-        <v>679.9438799434395</v>
+        <v>608.6429007877896</v>
       </c>
     </row>
     <row r="177">
@@ -38322,7 +38322,7 @@
         <v>175</v>
       </c>
       <c r="B177" s="8" t="n">
-        <v>254.0539343529169</v>
+        <v>525.858485556737</v>
       </c>
     </row>
     <row r="178">
@@ -38330,7 +38330,7 @@
         <v>176</v>
       </c>
       <c r="B178" s="8" t="n">
-        <v>429.0824966768812</v>
+        <v>369.5517699773839</v>
       </c>
     </row>
     <row r="179">
@@ -38338,7 +38338,7 @@
         <v>177</v>
       </c>
       <c r="B179" s="8" t="n">
-        <v>563.5119782085507</v>
+        <v>685.1796709072593</v>
       </c>
     </row>
     <row r="180">
@@ -38346,7 +38346,7 @@
         <v>178</v>
       </c>
       <c r="B180" s="8" t="n">
-        <v>289.0649113373067</v>
+        <v>183.3046378867015</v>
       </c>
     </row>
     <row r="181">
@@ -38354,7 +38354,7 @@
         <v>179</v>
       </c>
       <c r="B181" s="8" t="n">
-        <v>421.2066167469135</v>
+        <v>342.7796296863782</v>
       </c>
     </row>
     <row r="182">
@@ -38362,7 +38362,7 @@
         <v>180</v>
       </c>
       <c r="B182" s="8" t="n">
-        <v>457.1402138946446</v>
+        <v>336.1695948119819</v>
       </c>
     </row>
     <row r="183">
@@ -38370,7 +38370,7 @@
         <v>181</v>
       </c>
       <c r="B183" s="8" t="n">
-        <v>242.112016763219</v>
+        <v>537.9830580508627</v>
       </c>
     </row>
     <row r="184">
@@ -38378,7 +38378,7 @@
         <v>182</v>
       </c>
       <c r="B184" s="8" t="n">
-        <v>664.2266488395844</v>
+        <v>292.9885231328292</v>
       </c>
     </row>
     <row r="185">
@@ -38386,7 +38386,7 @@
         <v>183</v>
       </c>
       <c r="B185" s="8" t="n">
-        <v>219.7736691712331</v>
+        <v>402.697337517872</v>
       </c>
     </row>
     <row r="186">
@@ -38394,7 +38394,7 @@
         <v>184</v>
       </c>
       <c r="B186" s="8" t="n">
-        <v>491.4806237412208</v>
+        <v>316.3223579994555</v>
       </c>
     </row>
     <row r="187">
@@ -38402,7 +38402,7 @@
         <v>185</v>
       </c>
       <c r="B187" s="8" t="n">
-        <v>593.7438397698623</v>
+        <v>546.7357164903523</v>
       </c>
     </row>
     <row r="188">
@@ -38410,7 +38410,7 @@
         <v>186</v>
       </c>
       <c r="B188" s="8" t="n">
-        <v>334.7409539496321</v>
+        <v>343.6775168578009</v>
       </c>
     </row>
     <row r="189">
@@ -38418,7 +38418,7 @@
         <v>187</v>
       </c>
       <c r="B189" s="8" t="n">
-        <v>423.93367150161</v>
+        <v>299.1719449035031</v>
       </c>
     </row>
     <row r="190">
@@ -38426,7 +38426,7 @@
         <v>188</v>
       </c>
       <c r="B190" s="8" t="n">
-        <v>648.8113253446971</v>
+        <v>541.9011887120693</v>
       </c>
     </row>
     <row r="191">
@@ -38434,7 +38434,7 @@
         <v>189</v>
       </c>
       <c r="B191" s="8" t="n">
-        <v>491.2580597265594</v>
+        <v>644.8256605118958</v>
       </c>
     </row>
     <row r="192">
@@ -38442,7 +38442,7 @@
         <v>190</v>
       </c>
       <c r="B192" s="8" t="n">
-        <v>484.5450005871898</v>
+        <v>449.2790584127026</v>
       </c>
     </row>
     <row r="193">
@@ -38450,7 +38450,7 @@
         <v>191</v>
       </c>
       <c r="B193" s="8" t="n">
-        <v>391.310434466001</v>
+        <v>526.8939043303371</v>
       </c>
     </row>
     <row r="194">
@@ -38458,7 +38458,7 @@
         <v>192</v>
       </c>
       <c r="B194" s="8" t="n">
-        <v>516.0990844150914</v>
+        <v>364.6443487720269</v>
       </c>
     </row>
     <row r="195">
@@ -38466,7 +38466,7 @@
         <v>193</v>
       </c>
       <c r="B195" s="8" t="n">
-        <v>337.9704783133295</v>
+        <v>639.0220876263456</v>
       </c>
     </row>
     <row r="196">
@@ -38474,7 +38474,7 @@
         <v>194</v>
       </c>
       <c r="B196" s="8" t="n">
-        <v>287.0238451683653</v>
+        <v>479.7184477028875</v>
       </c>
     </row>
     <row r="197">
@@ -38482,7 +38482,7 @@
         <v>195</v>
       </c>
       <c r="B197" s="8" t="n">
-        <v>411.7642445338453</v>
+        <v>332.7878905647129</v>
       </c>
     </row>
     <row r="198">
@@ -38490,7 +38490,7 @@
         <v>196</v>
       </c>
       <c r="B198" s="8" t="n">
-        <v>437.2774274736548</v>
+        <v>676.2655371523076</v>
       </c>
     </row>
     <row r="199">
@@ -38498,7 +38498,7 @@
         <v>197</v>
       </c>
       <c r="B199" s="8" t="n">
-        <v>331.5297044321053</v>
+        <v>723.3325607696256</v>
       </c>
     </row>
     <row r="200">
@@ -38506,7 +38506,7 @@
         <v>198</v>
       </c>
       <c r="B200" s="8" t="n">
-        <v>512.2305291024315</v>
+        <v>232.3550857545672</v>
       </c>
     </row>
     <row r="201">
@@ -38514,7 +38514,7 @@
         <v>199</v>
       </c>
       <c r="B201" s="8" t="n">
-        <v>252.661154562633</v>
+        <v>391.1948302884066</v>
       </c>
     </row>
     <row r="202">
@@ -38522,7 +38522,7 @@
         <v>200</v>
       </c>
       <c r="B202" s="8" t="n">
-        <v>371.9814004210196</v>
+        <v>517.9387463597593</v>
       </c>
     </row>
     <row r="203">
@@ -38530,7 +38530,7 @@
         <v>201</v>
       </c>
       <c r="B203" s="8" t="n">
-        <v>506.1465765824974</v>
+        <v>210.7135811291983</v>
       </c>
     </row>
     <row r="204">
@@ -38538,7 +38538,7 @@
         <v>202</v>
       </c>
       <c r="B204" s="8" t="n">
-        <v>570.1914695322635</v>
+        <v>478.9072336929692</v>
       </c>
     </row>
     <row r="205">
@@ -38546,7 +38546,7 @@
         <v>203</v>
       </c>
       <c r="B205" s="8" t="n">
-        <v>316.2129815117618</v>
+        <v>659.0000684967069</v>
       </c>
     </row>
     <row r="206">
@@ -38554,7 +38554,7 @@
         <v>204</v>
       </c>
       <c r="B206" s="8" t="n">
-        <v>505.0311244904416</v>
+        <v>643.0256505918813</v>
       </c>
     </row>
     <row r="207">
@@ -38562,7 +38562,7 @@
         <v>205</v>
       </c>
       <c r="B207" s="8" t="n">
-        <v>436.3354518992961</v>
+        <v>665.2414934972479</v>
       </c>
     </row>
     <row r="208">
@@ -38570,7 +38570,7 @@
         <v>206</v>
       </c>
       <c r="B208" s="8" t="n">
-        <v>219.5145431249886</v>
+        <v>337.3700488278156</v>
       </c>
     </row>
     <row r="209">
@@ -38578,7 +38578,7 @@
         <v>207</v>
       </c>
       <c r="B209" s="8" t="n">
-        <v>373.0082169845076</v>
+        <v>706.8299448616699</v>
       </c>
     </row>
     <row r="210">
@@ -38586,7 +38586,7 @@
         <v>208</v>
       </c>
       <c r="B210" s="8" t="n">
-        <v>703.1915256624653</v>
+        <v>384.2849500310505</v>
       </c>
     </row>
     <row r="211">
@@ -38594,7 +38594,7 @@
         <v>209</v>
       </c>
       <c r="B211" s="8" t="n">
-        <v>650.8925555969846</v>
+        <v>595.3439574075013</v>
       </c>
     </row>
     <row r="212">
@@ -38602,7 +38602,7 @@
         <v>210</v>
       </c>
       <c r="B212" s="8" t="n">
-        <v>444.6638400643737</v>
+        <v>446.1010832147042</v>
       </c>
     </row>
     <row r="213">
@@ -38610,7 +38610,7 @@
         <v>211</v>
       </c>
       <c r="B213" s="8" t="n">
-        <v>673.2838488885984</v>
+        <v>351.0315370094698</v>
       </c>
     </row>
     <row r="214">
@@ -38618,7 +38618,7 @@
         <v>212</v>
       </c>
       <c r="B214" s="8" t="n">
-        <v>257.9820674561906</v>
+        <v>401.3830389902317</v>
       </c>
     </row>
     <row r="215">
@@ -38626,7 +38626,7 @@
         <v>213</v>
       </c>
       <c r="B215" s="8" t="n">
-        <v>251.21151359878</v>
+        <v>293.3846528060349</v>
       </c>
     </row>
     <row r="216">
@@ -38634,7 +38634,7 @@
         <v>214</v>
       </c>
       <c r="B216" s="8" t="n">
-        <v>366.7648425430942</v>
+        <v>434.6371849313154</v>
       </c>
     </row>
     <row r="217">
@@ -38642,7 +38642,7 @@
         <v>215</v>
       </c>
       <c r="B217" s="8" t="n">
-        <v>490.1798281071381</v>
+        <v>627.500617330924</v>
       </c>
     </row>
     <row r="218">
@@ -38650,7 +38650,7 @@
         <v>216</v>
       </c>
       <c r="B218" s="8" t="n">
-        <v>506.0346400608815</v>
+        <v>426.8140697523591</v>
       </c>
     </row>
     <row r="219">
@@ -38658,7 +38658,7 @@
         <v>217</v>
       </c>
       <c r="B219" s="8" t="n">
-        <v>209.6526002475107</v>
+        <v>487.1576431682834</v>
       </c>
     </row>
     <row r="220">
@@ -38666,7 +38666,7 @@
         <v>218</v>
       </c>
       <c r="B220" s="8" t="n">
-        <v>487.8367316746812</v>
+        <v>216.1745969871963</v>
       </c>
     </row>
     <row r="221">
@@ -38674,7 +38674,7 @@
         <v>219</v>
       </c>
       <c r="B221" s="8" t="n">
-        <v>714.6113032165365</v>
+        <v>392.7939805174815</v>
       </c>
     </row>
     <row r="222">
@@ -38682,7 +38682,7 @@
         <v>220</v>
       </c>
       <c r="B222" s="8" t="n">
-        <v>227.6886046801981</v>
+        <v>585.4986328010959</v>
       </c>
     </row>
     <row r="223">
@@ -38690,7 +38690,7 @@
         <v>221</v>
       </c>
       <c r="B223" s="8" t="n">
-        <v>465.2354892895078</v>
+        <v>425.3457123909324</v>
       </c>
     </row>
     <row r="224">
@@ -38698,7 +38698,7 @@
         <v>222</v>
       </c>
       <c r="B224" s="8" t="n">
-        <v>383.4521464903369</v>
+        <v>282.8247770956469</v>
       </c>
     </row>
     <row r="225">
@@ -38706,7 +38706,7 @@
         <v>223</v>
       </c>
       <c r="B225" s="8" t="n">
-        <v>588.899124261384</v>
+        <v>401.6383032848908</v>
       </c>
     </row>
     <row r="226">
@@ -38714,7 +38714,7 @@
         <v>224</v>
       </c>
       <c r="B226" s="8" t="n">
-        <v>500.3615192362797</v>
+        <v>538.8253797176972</v>
       </c>
     </row>
     <row r="227">
@@ -38722,7 +38722,7 @@
         <v>225</v>
       </c>
       <c r="B227" s="8" t="n">
-        <v>439.9707982731135</v>
+        <v>593.4770811126266</v>
       </c>
     </row>
     <row r="228">
@@ -38730,7 +38730,7 @@
         <v>226</v>
       </c>
       <c r="B228" s="8" t="n">
-        <v>454.1621786078997</v>
+        <v>651.6512568300292</v>
       </c>
     </row>
     <row r="229">
@@ -38738,7 +38738,7 @@
         <v>227</v>
       </c>
       <c r="B229" s="8" t="n">
-        <v>195.0891779834747</v>
+        <v>533.9423166885283</v>
       </c>
     </row>
     <row r="230">
@@ -38746,7 +38746,7 @@
         <v>228</v>
       </c>
       <c r="B230" s="8" t="n">
-        <v>330.5118257321412</v>
+        <v>294.2126754203607</v>
       </c>
     </row>
     <row r="231">
@@ -38754,7 +38754,7 @@
         <v>229</v>
       </c>
       <c r="B231" s="8" t="n">
-        <v>211.0296800131783</v>
+        <v>579.720241267369</v>
       </c>
     </row>
     <row r="232">
@@ -38762,7 +38762,7 @@
         <v>230</v>
       </c>
       <c r="B232" s="8" t="n">
-        <v>182.8933335711608</v>
+        <v>220.7321560626847</v>
       </c>
     </row>
     <row r="233">
@@ -38770,7 +38770,7 @@
         <v>231</v>
       </c>
       <c r="B233" s="8" t="n">
-        <v>593.4270276733489</v>
+        <v>403.7874755759285</v>
       </c>
     </row>
     <row r="234">
@@ -38778,7 +38778,7 @@
         <v>232</v>
       </c>
       <c r="B234" s="8" t="n">
-        <v>301.5480365382076</v>
+        <v>560.52342434181</v>
       </c>
     </row>
     <row r="235">
@@ -38786,7 +38786,7 @@
         <v>233</v>
       </c>
       <c r="B235" s="8" t="n">
-        <v>654.0526474325848</v>
+        <v>569.3980829274019</v>
       </c>
     </row>
     <row r="236">
@@ -38794,7 +38794,7 @@
         <v>234</v>
       </c>
       <c r="B236" s="8" t="n">
-        <v>481.5940368077494</v>
+        <v>614.5687336563685</v>
       </c>
     </row>
     <row r="237">
@@ -38802,7 +38802,7 @@
         <v>235</v>
       </c>
       <c r="B237" s="8" t="n">
-        <v>696.0607812792798</v>
+        <v>625.7322759364296</v>
       </c>
     </row>
     <row r="238">
@@ -38810,7 +38810,7 @@
         <v>236</v>
       </c>
       <c r="B238" s="8" t="n">
-        <v>234.5912391496229</v>
+        <v>763.8688854918272</v>
       </c>
     </row>
     <row r="239">
@@ -38818,7 +38818,7 @@
         <v>237</v>
       </c>
       <c r="B239" s="8" t="n">
-        <v>409.5842725201726</v>
+        <v>614.3568633733613</v>
       </c>
     </row>
     <row r="240">
@@ -38826,7 +38826,7 @@
         <v>238</v>
       </c>
       <c r="B240" s="8" t="n">
-        <v>293.6352959766713</v>
+        <v>378.5103859525045</v>
       </c>
     </row>
     <row r="241">
@@ -38834,7 +38834,7 @@
         <v>239</v>
       </c>
       <c r="B241" s="8" t="n">
-        <v>322.2131278980632</v>
+        <v>473.7666457103028</v>
       </c>
     </row>
     <row r="242">
@@ -38842,7 +38842,7 @@
         <v>240</v>
       </c>
       <c r="B242" s="8" t="n">
-        <v>272.6421894074924</v>
+        <v>239.9856922613282</v>
       </c>
     </row>
     <row r="243">
@@ -38850,7 +38850,7 @@
         <v>241</v>
       </c>
       <c r="B243" s="8" t="n">
-        <v>464.3561587368014</v>
+        <v>637.2881399967946</v>
       </c>
     </row>
     <row r="244">
@@ -38858,7 +38858,7 @@
         <v>242</v>
       </c>
       <c r="B244" s="8" t="n">
-        <v>241.5236843564186</v>
+        <v>505.5089721482811</v>
       </c>
     </row>
     <row r="245">
@@ -38866,7 +38866,7 @@
         <v>243</v>
       </c>
       <c r="B245" s="8" t="n">
-        <v>708.9075008178095</v>
+        <v>498.1635732438806</v>
       </c>
     </row>
     <row r="246">
@@ -38874,7 +38874,7 @@
         <v>244</v>
       </c>
       <c r="B246" s="8" t="n">
-        <v>680.5769288376732</v>
+        <v>328.7721680644356</v>
       </c>
     </row>
     <row r="247">
@@ -38882,7 +38882,7 @@
         <v>245</v>
       </c>
       <c r="B247" s="8" t="n">
-        <v>213.6956374423661</v>
+        <v>492.8033771429547</v>
       </c>
     </row>
     <row r="248">
@@ -38890,7 +38890,7 @@
         <v>246</v>
       </c>
       <c r="B248" s="8" t="n">
-        <v>515.3991493966257</v>
+        <v>669.1847350581568</v>
       </c>
     </row>
     <row r="249">
@@ -38898,7 +38898,7 @@
         <v>247</v>
       </c>
       <c r="B249" s="8" t="n">
-        <v>413.4044946725251</v>
+        <v>554.5590219901353</v>
       </c>
     </row>
     <row r="250">
@@ -38906,7 +38906,7 @@
         <v>248</v>
       </c>
       <c r="B250" s="8" t="n">
-        <v>684.6788602465334</v>
+        <v>467.4866163788399</v>
       </c>
     </row>
     <row r="251">
@@ -38914,7 +38914,7 @@
         <v>249</v>
       </c>
       <c r="B251" s="8" t="n">
-        <v>649.1745040995741</v>
+        <v>415.4691686656043</v>
       </c>
     </row>
     <row r="252">
@@ -38922,7 +38922,7 @@
         <v>250</v>
       </c>
       <c r="B252" s="8" t="n">
-        <v>483.7468156220617</v>
+        <v>351.2276392302934</v>
       </c>
     </row>
     <row r="253">
@@ -38930,7 +38930,7 @@
         <v>251</v>
       </c>
       <c r="B253" s="8" t="n">
-        <v>513.4985683235321</v>
+        <v>414.2325881401873</v>
       </c>
     </row>
     <row r="254">
@@ -38938,7 +38938,7 @@
         <v>252</v>
       </c>
       <c r="B254" s="8" t="n">
-        <v>652.3688488149314</v>
+        <v>639.6982679410097</v>
       </c>
     </row>
     <row r="255">
@@ -38946,7 +38946,7 @@
         <v>253</v>
       </c>
       <c r="B255" s="8" t="n">
-        <v>745.9390158149638</v>
+        <v>380.1381989914966</v>
       </c>
     </row>
     <row r="256">
@@ -38954,7 +38954,7 @@
         <v>254</v>
       </c>
       <c r="B256" s="8" t="n">
-        <v>230.4318857865753</v>
+        <v>277.9783784269187</v>
       </c>
     </row>
     <row r="257">
@@ -38962,7 +38962,7 @@
         <v>255</v>
       </c>
       <c r="B257" s="8" t="n">
-        <v>635.8068362028171</v>
+        <v>235.3985531631552</v>
       </c>
     </row>
     <row r="258">
@@ -38970,7 +38970,7 @@
         <v>256</v>
       </c>
       <c r="B258" s="8" t="n">
-        <v>247.195167174111</v>
+        <v>467.5912678323355</v>
       </c>
     </row>
     <row r="259">
@@ -38978,7 +38978,7 @@
         <v>257</v>
       </c>
       <c r="B259" s="8" t="n">
-        <v>523.7786389411049</v>
+        <v>665.3317929469985</v>
       </c>
     </row>
     <row r="260">
@@ -38986,7 +38986,7 @@
         <v>258</v>
       </c>
       <c r="B260" s="8" t="n">
-        <v>619.0463797578749</v>
+        <v>311.2499718772044</v>
       </c>
     </row>
     <row r="261">
@@ -38994,7 +38994,7 @@
         <v>259</v>
       </c>
       <c r="B261" s="8" t="n">
-        <v>351.6727934173653</v>
+        <v>564.5356269376028</v>
       </c>
     </row>
     <row r="262">
@@ -39002,7 +39002,7 @@
         <v>260</v>
       </c>
       <c r="B262" s="8" t="n">
-        <v>597.6600308853029</v>
+        <v>402.683617922446</v>
       </c>
     </row>
     <row r="263">
@@ -39010,7 +39010,7 @@
         <v>261</v>
       </c>
       <c r="B263" s="8" t="n">
-        <v>408.1561708620003</v>
+        <v>204.1394044550667</v>
       </c>
     </row>
     <row r="264">
@@ -39018,7 +39018,7 @@
         <v>262</v>
       </c>
       <c r="B264" s="8" t="n">
-        <v>465.0172743396661</v>
+        <v>434.8024398672985</v>
       </c>
     </row>
     <row r="265">
@@ -39026,7 +39026,7 @@
         <v>263</v>
       </c>
       <c r="B265" s="8" t="n">
-        <v>452.7467025213975</v>
+        <v>515.0155141009483</v>
       </c>
     </row>
     <row r="266">
@@ -39034,7 +39034,7 @@
         <v>264</v>
       </c>
       <c r="B266" s="8" t="n">
-        <v>514.432985065309</v>
+        <v>312.2331085522977</v>
       </c>
     </row>
     <row r="267">
@@ -39042,7 +39042,7 @@
         <v>265</v>
       </c>
       <c r="B267" s="8" t="n">
-        <v>227.4511353349179</v>
+        <v>648.1503704175644</v>
       </c>
     </row>
     <row r="268">
@@ -39050,7 +39050,7 @@
         <v>266</v>
       </c>
       <c r="B268" s="8" t="n">
-        <v>338.3266233568616</v>
+        <v>597.0606766605772</v>
       </c>
     </row>
     <row r="269">
@@ -39058,7 +39058,7 @@
         <v>267</v>
       </c>
       <c r="B269" s="8" t="n">
-        <v>484.3265945354688</v>
+        <v>553.2098016123136</v>
       </c>
     </row>
     <row r="270">
@@ -39066,7 +39066,7 @@
         <v>268</v>
       </c>
       <c r="B270" s="8" t="n">
-        <v>212.5110702613302</v>
+        <v>624.6962449000506</v>
       </c>
     </row>
     <row r="271">
@@ -39074,7 +39074,7 @@
         <v>269</v>
       </c>
       <c r="B271" s="8" t="n">
-        <v>535.1335029310549</v>
+        <v>388.3558134718117</v>
       </c>
     </row>
     <row r="272">
@@ -39082,7 +39082,7 @@
         <v>270</v>
       </c>
       <c r="B272" s="8" t="n">
-        <v>414.3466315812811</v>
+        <v>637.8099745074608</v>
       </c>
     </row>
     <row r="273">
@@ -39090,7 +39090,7 @@
         <v>271</v>
       </c>
       <c r="B273" s="8" t="n">
-        <v>468.4166938261785</v>
+        <v>442.2157505913547</v>
       </c>
     </row>
     <row r="274">
@@ -39098,7 +39098,7 @@
         <v>272</v>
       </c>
       <c r="B274" s="8" t="n">
-        <v>507.6830074335471</v>
+        <v>704.8400484958538</v>
       </c>
     </row>
     <row r="275">
@@ -39106,7 +39106,7 @@
         <v>273</v>
       </c>
       <c r="B275" s="8" t="n">
-        <v>692.951032042149</v>
+        <v>389.7310393296456</v>
       </c>
     </row>
     <row r="276">
@@ -39114,7 +39114,7 @@
         <v>274</v>
       </c>
       <c r="B276" s="8" t="n">
-        <v>335.9003963923932</v>
+        <v>633.7026341672192</v>
       </c>
     </row>
     <row r="277">
@@ -39122,7 +39122,7 @@
         <v>275</v>
       </c>
       <c r="B277" s="8" t="n">
-        <v>467.7091533445937</v>
+        <v>765.7106090022133</v>
       </c>
     </row>
     <row r="278">
@@ -39130,7 +39130,7 @@
         <v>276</v>
       </c>
       <c r="B278" s="8" t="n">
-        <v>434.8586212718859</v>
+        <v>603.2423964402868</v>
       </c>
     </row>
     <row r="279">
@@ -39138,7 +39138,7 @@
         <v>277</v>
       </c>
       <c r="B279" s="8" t="n">
-        <v>240.0367204941202</v>
+        <v>261.9032768718194</v>
       </c>
     </row>
     <row r="280">
@@ -39146,7 +39146,7 @@
         <v>278</v>
       </c>
       <c r="B280" s="8" t="n">
-        <v>442.9301264789015</v>
+        <v>376.2369583981437</v>
       </c>
     </row>
     <row r="281">
@@ -39154,7 +39154,7 @@
         <v>279</v>
       </c>
       <c r="B281" s="8" t="n">
-        <v>254.8426744321174</v>
+        <v>360.3418027828383</v>
       </c>
     </row>
     <row r="282">
@@ -39162,7 +39162,7 @@
         <v>280</v>
       </c>
       <c r="B282" s="8" t="n">
-        <v>265.9075760341231</v>
+        <v>592.7744511807688</v>
       </c>
     </row>
     <row r="283">
@@ -39170,7 +39170,7 @@
         <v>281</v>
       </c>
       <c r="B283" s="8" t="n">
-        <v>259.7728656063372</v>
+        <v>323.7757699943709</v>
       </c>
     </row>
     <row r="284">
@@ -39178,7 +39178,7 @@
         <v>282</v>
       </c>
       <c r="B284" s="8" t="n">
-        <v>327.7429360317489</v>
+        <v>747.3200184964094</v>
       </c>
     </row>
     <row r="285">
@@ -39186,7 +39186,7 @@
         <v>283</v>
       </c>
       <c r="B285" s="8" t="n">
-        <v>518.1934027223327</v>
+        <v>420.8425892808528</v>
       </c>
     </row>
     <row r="286">
@@ -39194,7 +39194,7 @@
         <v>284</v>
       </c>
       <c r="B286" s="8" t="n">
-        <v>571.3120520738902</v>
+        <v>536.9797591184789</v>
       </c>
     </row>
     <row r="287">
@@ -39202,7 +39202,7 @@
         <v>285</v>
       </c>
       <c r="B287" s="8" t="n">
-        <v>289.3249601820573</v>
+        <v>471.7297246726068</v>
       </c>
     </row>
     <row r="288">
@@ -39210,7 +39210,7 @@
         <v>286</v>
       </c>
       <c r="B288" s="8" t="n">
-        <v>258.1404757174119</v>
+        <v>601.5965676684292</v>
       </c>
     </row>
     <row r="289">
@@ -39218,7 +39218,7 @@
         <v>287</v>
       </c>
       <c r="B289" s="8" t="n">
-        <v>657.6442184554669</v>
+        <v>368.9879777917579</v>
       </c>
     </row>
     <row r="290">
@@ -39226,7 +39226,7 @@
         <v>288</v>
       </c>
       <c r="B290" s="8" t="n">
-        <v>599.5561437829988</v>
+        <v>252.9787343663876</v>
       </c>
     </row>
     <row r="291">
@@ -39234,7 +39234,7 @@
         <v>289</v>
       </c>
       <c r="B291" s="8" t="n">
-        <v>234.0393194126671</v>
+        <v>485.005879984124</v>
       </c>
     </row>
     <row r="292">
@@ -39242,7 +39242,7 @@
         <v>290</v>
       </c>
       <c r="B292" s="8" t="n">
-        <v>459.1757854814777</v>
+        <v>500.9900224774112</v>
       </c>
     </row>
     <row r="293">
@@ -39250,7 +39250,7 @@
         <v>291</v>
       </c>
       <c r="B293" s="8" t="n">
-        <v>525.0496832356238</v>
+        <v>187.2522094807764</v>
       </c>
     </row>
     <row r="294">
@@ -39258,7 +39258,7 @@
         <v>292</v>
       </c>
       <c r="B294" s="8" t="n">
-        <v>283.3797738660082</v>
+        <v>327.4496336002582</v>
       </c>
     </row>
     <row r="295">
@@ -39266,7 +39266,7 @@
         <v>293</v>
       </c>
       <c r="B295" s="8" t="n">
-        <v>290.1716056179358</v>
+        <v>172.4819669420999</v>
       </c>
     </row>
     <row r="296">
@@ -39274,7 +39274,7 @@
         <v>294</v>
       </c>
       <c r="B296" s="8" t="n">
-        <v>227.1123016646374</v>
+        <v>330.2173378519485</v>
       </c>
     </row>
     <row r="297">
@@ -39282,7 +39282,7 @@
         <v>295</v>
       </c>
       <c r="B297" s="8" t="n">
-        <v>517.4738075452774</v>
+        <v>604.4044189947836</v>
       </c>
     </row>
     <row r="298">
@@ -39290,7 +39290,7 @@
         <v>296</v>
       </c>
       <c r="B298" s="8" t="n">
-        <v>300.844201086453</v>
+        <v>604.2659344793242</v>
       </c>
     </row>
     <row r="299">
@@ -39298,7 +39298,7 @@
         <v>297</v>
       </c>
       <c r="B299" s="8" t="n">
-        <v>606.970139843374</v>
+        <v>419.652807419111</v>
       </c>
     </row>
     <row r="300">
@@ -39306,7 +39306,7 @@
         <v>298</v>
       </c>
       <c r="B300" s="8" t="n">
-        <v>341.6046712712659</v>
+        <v>617.9572007127216</v>
       </c>
     </row>
     <row r="301">
@@ -39314,7 +39314,7 @@
         <v>299</v>
       </c>
       <c r="B301" s="8" t="n">
-        <v>586.0830687004732</v>
+        <v>584.2260734834128</v>
       </c>
     </row>
     <row r="302">
@@ -39322,7 +39322,7 @@
         <v>300</v>
       </c>
       <c r="B302" s="8" t="n">
-        <v>629.9099914465958</v>
+        <v>487.9945273677262</v>
       </c>
     </row>
     <row r="303">
@@ -39330,7 +39330,7 @@
         <v>301</v>
       </c>
       <c r="B303" s="8" t="n">
-        <v>633.1105665632444</v>
+        <v>529.8376786972872</v>
       </c>
     </row>
     <row r="304">
@@ -39338,7 +39338,7 @@
         <v>302</v>
       </c>
       <c r="B304" s="8" t="n">
-        <v>357.8522363153598</v>
+        <v>605.3482091994397</v>
       </c>
     </row>
     <row r="305">
@@ -39346,7 +39346,7 @@
         <v>303</v>
       </c>
       <c r="B305" s="8" t="n">
-        <v>572.0144696138988</v>
+        <v>406.7155491542533</v>
       </c>
     </row>
     <row r="306">
@@ -39354,7 +39354,7 @@
         <v>304</v>
       </c>
       <c r="B306" s="8" t="n">
-        <v>401.8161737894922</v>
+        <v>673.9840116851008</v>
       </c>
     </row>
     <row r="307">
@@ -39362,7 +39362,7 @@
         <v>305</v>
       </c>
       <c r="B307" s="8" t="n">
-        <v>459.6482322804971</v>
+        <v>514.2833680477629</v>
       </c>
     </row>
     <row r="308">
@@ -39370,7 +39370,7 @@
         <v>306</v>
       </c>
       <c r="B308" s="8" t="n">
-        <v>331.3717619600706</v>
+        <v>711.8129374132905</v>
       </c>
     </row>
     <row r="309">
@@ -39378,7 +39378,7 @@
         <v>307</v>
       </c>
       <c r="B309" s="8" t="n">
-        <v>318.3028596014086</v>
+        <v>461.2460412149038</v>
       </c>
     </row>
     <row r="310">
@@ -39386,7 +39386,7 @@
         <v>308</v>
       </c>
       <c r="B310" s="8" t="n">
-        <v>419.8098946891487</v>
+        <v>566.734990651835</v>
       </c>
     </row>
     <row r="311">
@@ -39394,7 +39394,7 @@
         <v>309</v>
       </c>
       <c r="B311" s="8" t="n">
-        <v>455.5058082879416</v>
+        <v>200.4398842740561</v>
       </c>
     </row>
     <row r="312">
@@ -39402,7 +39402,7 @@
         <v>310</v>
       </c>
       <c r="B312" s="8" t="n">
-        <v>516.3220848499362</v>
+        <v>500.1160379741443</v>
       </c>
     </row>
     <row r="313">
@@ -39410,7 +39410,7 @@
         <v>311</v>
       </c>
       <c r="B313" s="8" t="n">
-        <v>603.4780822608529</v>
+        <v>517.4925422986321</v>
       </c>
     </row>
     <row r="314">
@@ -39418,7 +39418,7 @@
         <v>312</v>
       </c>
       <c r="B314" s="8" t="n">
-        <v>529.7128321602065</v>
+        <v>586.3788927554687</v>
       </c>
     </row>
     <row r="315">
@@ -39426,7 +39426,7 @@
         <v>313</v>
       </c>
       <c r="B315" s="8" t="n">
-        <v>311.0436211345898</v>
+        <v>511.9059832058261</v>
       </c>
     </row>
     <row r="316">
@@ -39434,7 +39434,7 @@
         <v>314</v>
       </c>
       <c r="B316" s="8" t="n">
-        <v>527.5503874563655</v>
+        <v>589.6070431019326</v>
       </c>
     </row>
     <row r="317">
@@ -39442,7 +39442,7 @@
         <v>315</v>
       </c>
       <c r="B317" s="8" t="n">
-        <v>628.1494655325499</v>
+        <v>304.357727413519</v>
       </c>
     </row>
     <row r="318">
@@ -39450,7 +39450,7 @@
         <v>316</v>
       </c>
       <c r="B318" s="8" t="n">
-        <v>636.4473203248347</v>
+        <v>606.224704299624</v>
       </c>
     </row>
     <row r="319">
@@ -39458,7 +39458,7 @@
         <v>317</v>
       </c>
       <c r="B319" s="8" t="n">
-        <v>398.960082040151</v>
+        <v>517.3846771085706</v>
       </c>
     </row>
     <row r="320">
@@ -39466,7 +39466,7 @@
         <v>318</v>
       </c>
       <c r="B320" s="8" t="n">
-        <v>361.230329332195</v>
+        <v>498.6713602789036</v>
       </c>
     </row>
     <row r="321">
@@ -39474,7 +39474,7 @@
         <v>319</v>
       </c>
       <c r="B321" s="8" t="n">
-        <v>464.6469013443293</v>
+        <v>259.5295610465178</v>
       </c>
     </row>
     <row r="322">
@@ -39482,7 +39482,7 @@
         <v>320</v>
       </c>
       <c r="B322" s="8" t="n">
-        <v>168.5143519384997</v>
+        <v>473.4727036374935</v>
       </c>
     </row>
     <row r="323">
@@ -39490,7 +39490,7 @@
         <v>321</v>
       </c>
       <c r="B323" s="8" t="n">
-        <v>271.550059052101</v>
+        <v>365.8185008171819</v>
       </c>
     </row>
     <row r="324">
@@ -39498,7 +39498,7 @@
         <v>322</v>
       </c>
       <c r="B324" s="8" t="n">
-        <v>677.6904635097707</v>
+        <v>269.3800167786936</v>
       </c>
     </row>
     <row r="325">
@@ -39506,7 +39506,7 @@
         <v>323</v>
       </c>
       <c r="B325" s="8" t="n">
-        <v>488.3796997585845</v>
+        <v>300.5646867517624</v>
       </c>
     </row>
     <row r="326">
@@ -39514,7 +39514,7 @@
         <v>324</v>
       </c>
       <c r="B326" s="8" t="n">
-        <v>530.534203916453</v>
+        <v>382.7398482938513</v>
       </c>
     </row>
     <row r="327">
@@ -39522,7 +39522,7 @@
         <v>325</v>
       </c>
       <c r="B327" s="8" t="n">
-        <v>274.0344271792291</v>
+        <v>580.6128805826753</v>
       </c>
     </row>
     <row r="328">
@@ -39530,7 +39530,7 @@
         <v>326</v>
       </c>
       <c r="B328" s="8" t="n">
-        <v>518.1145257898463</v>
+        <v>567.9938950578555</v>
       </c>
     </row>
     <row r="329">
@@ -39538,7 +39538,7 @@
         <v>327</v>
       </c>
       <c r="B329" s="8" t="n">
-        <v>345.3561713425116</v>
+        <v>757.6924269200433</v>
       </c>
     </row>
     <row r="330">
@@ -39546,7 +39546,7 @@
         <v>328</v>
       </c>
       <c r="B330" s="8" t="n">
-        <v>596.1720538814835</v>
+        <v>714.0190399121666</v>
       </c>
     </row>
     <row r="331">
@@ -39554,7 +39554,7 @@
         <v>329</v>
       </c>
       <c r="B331" s="8" t="n">
-        <v>261.349121587793</v>
+        <v>527.9741997012954</v>
       </c>
     </row>
     <row r="332">
@@ -39562,7 +39562,7 @@
         <v>330</v>
       </c>
       <c r="B332" s="8" t="n">
-        <v>424.3511669852894</v>
+        <v>564.3858380801646</v>
       </c>
     </row>
     <row r="333">
@@ -39570,7 +39570,7 @@
         <v>331</v>
       </c>
       <c r="B333" s="8" t="n">
-        <v>374.2644891950237</v>
+        <v>383.41642970908</v>
       </c>
     </row>
     <row r="334">
@@ -39578,7 +39578,7 @@
         <v>332</v>
       </c>
       <c r="B334" s="8" t="n">
-        <v>430.6203177748586</v>
+        <v>317.3085371154608</v>
       </c>
     </row>
     <row r="335">
@@ -39586,7 +39586,7 @@
         <v>333</v>
       </c>
       <c r="B335" s="8" t="n">
-        <v>657.645691347219</v>
+        <v>293.5505145269709</v>
       </c>
     </row>
     <row r="336">
@@ -39594,7 +39594,7 @@
         <v>334</v>
       </c>
       <c r="B336" s="8" t="n">
-        <v>543.2032698012545</v>
+        <v>623.2636824859406</v>
       </c>
     </row>
     <row r="337">
@@ -39602,7 +39602,7 @@
         <v>335</v>
       </c>
       <c r="B337" s="8" t="n">
-        <v>424.422391087904</v>
+        <v>341.7401091237449</v>
       </c>
     </row>
     <row r="338">
@@ -39610,7 +39610,7 @@
         <v>336</v>
       </c>
       <c r="B338" s="8" t="n">
-        <v>409.9498754416591</v>
+        <v>615.8756175687421</v>
       </c>
     </row>
     <row r="339">
@@ -39618,7 +39618,7 @@
         <v>337</v>
       </c>
       <c r="B339" s="8" t="n">
-        <v>515.7109118584099</v>
+        <v>414.9499374215552</v>
       </c>
     </row>
     <row r="340">
@@ -39626,7 +39626,7 @@
         <v>338</v>
       </c>
       <c r="B340" s="8" t="n">
-        <v>340.1963259048637</v>
+        <v>463.6160837373713</v>
       </c>
     </row>
     <row r="341">
@@ -39634,7 +39634,7 @@
         <v>339</v>
       </c>
       <c r="B341" s="8" t="n">
-        <v>563.3163307685504</v>
+        <v>475.0345837337614</v>
       </c>
     </row>
     <row r="342">
@@ -39642,7 +39642,7 @@
         <v>340</v>
       </c>
       <c r="B342" s="8" t="n">
-        <v>278.4245182385507</v>
+        <v>352.2519414360831</v>
       </c>
     </row>
     <row r="343">
@@ -39650,7 +39650,7 @@
         <v>341</v>
       </c>
       <c r="B343" s="8" t="n">
-        <v>467.9873463362924</v>
+        <v>412.4226028790783</v>
       </c>
     </row>
     <row r="344">
@@ -39658,7 +39658,7 @@
         <v>342</v>
       </c>
       <c r="B344" s="8" t="n">
-        <v>639.3543874814399</v>
+        <v>669.8087922300159</v>
       </c>
     </row>
     <row r="345">
@@ -39666,7 +39666,7 @@
         <v>343</v>
       </c>
       <c r="B345" s="8" t="n">
-        <v>550.6390443016412</v>
+        <v>236.3317543618812</v>
       </c>
     </row>
     <row r="346">
@@ -39674,7 +39674,7 @@
         <v>344</v>
       </c>
       <c r="B346" s="8" t="n">
-        <v>699.9133338614233</v>
+        <v>539.6430408506131</v>
       </c>
     </row>
     <row r="347">
@@ -39682,7 +39682,7 @@
         <v>345</v>
       </c>
       <c r="B347" s="8" t="n">
-        <v>242.7759653893704</v>
+        <v>247.0730694776119</v>
       </c>
     </row>
     <row r="348">
@@ -39690,7 +39690,7 @@
         <v>346</v>
       </c>
       <c r="B348" s="8" t="n">
-        <v>439.2874044063828</v>
+        <v>352.8166414878197</v>
       </c>
     </row>
     <row r="349">
@@ -39698,7 +39698,7 @@
         <v>347</v>
       </c>
       <c r="B349" s="8" t="n">
-        <v>328.6936496711733</v>
+        <v>348.8598845158717</v>
       </c>
     </row>
     <row r="350">
@@ -39706,7 +39706,7 @@
         <v>348</v>
       </c>
       <c r="B350" s="8" t="n">
-        <v>574.9335527262467</v>
+        <v>372.8487604931597</v>
       </c>
     </row>
     <row r="351">
@@ -39714,7 +39714,7 @@
         <v>349</v>
       </c>
       <c r="B351" s="8" t="n">
-        <v>184.7390738049262</v>
+        <v>232.4178308903382</v>
       </c>
     </row>
     <row r="352">
@@ -39722,7 +39722,7 @@
         <v>350</v>
       </c>
       <c r="B352" s="8" t="n">
-        <v>505.6386734485252</v>
+        <v>552.3051960623534</v>
       </c>
     </row>
     <row r="353">
@@ -39730,7 +39730,7 @@
         <v>351</v>
       </c>
       <c r="B353" s="8" t="n">
-        <v>130.5378959770309</v>
+        <v>365.8467679916053</v>
       </c>
     </row>
     <row r="354">
@@ -39738,7 +39738,7 @@
         <v>352</v>
       </c>
       <c r="B354" s="8" t="n">
-        <v>547.3119162808184</v>
+        <v>558.2930776794318</v>
       </c>
     </row>
     <row r="355">
@@ -39746,7 +39746,7 @@
         <v>353</v>
       </c>
       <c r="B355" s="8" t="n">
-        <v>510.6856380973757</v>
+        <v>410.7661665236574</v>
       </c>
     </row>
     <row r="356">
@@ -39754,7 +39754,7 @@
         <v>354</v>
       </c>
       <c r="B356" s="8" t="n">
-        <v>616.9849133633687</v>
+        <v>650.9978588081439</v>
       </c>
     </row>
     <row r="357">
@@ -39762,7 +39762,7 @@
         <v>355</v>
       </c>
       <c r="B357" s="8" t="n">
-        <v>507.1896978200907</v>
+        <v>572.2781872357245</v>
       </c>
     </row>
     <row r="358">
@@ -39770,7 +39770,7 @@
         <v>356</v>
       </c>
       <c r="B358" s="8" t="n">
-        <v>556.3202590207106</v>
+        <v>303.8931353011097</v>
       </c>
     </row>
     <row r="359">
@@ -39778,7 +39778,7 @@
         <v>357</v>
       </c>
       <c r="B359" s="8" t="n">
-        <v>723.1944960830693</v>
+        <v>569.7504126060741</v>
       </c>
     </row>
     <row r="360">
@@ -39786,7 +39786,7 @@
         <v>358</v>
       </c>
       <c r="B360" s="8" t="n">
-        <v>225.5585394246752</v>
+        <v>630.0817058359069</v>
       </c>
     </row>
     <row r="361">
@@ -39794,7 +39794,7 @@
         <v>359</v>
       </c>
       <c r="B361" s="8" t="n">
-        <v>323.7261005048515</v>
+        <v>606.1102652769179</v>
       </c>
     </row>
     <row r="362">
@@ -39802,7 +39802,7 @@
         <v>360</v>
       </c>
       <c r="B362" s="8" t="n">
-        <v>460.2163808792209</v>
+        <v>488.4482298687459</v>
       </c>
     </row>
     <row r="363">
@@ -39810,7 +39810,7 @@
         <v>361</v>
       </c>
       <c r="B363" s="8" t="n">
-        <v>459.6458030347596</v>
+        <v>552.3628520360227</v>
       </c>
     </row>
     <row r="364">
@@ -39818,7 +39818,7 @@
         <v>362</v>
       </c>
       <c r="B364" s="8" t="n">
-        <v>369.5889653903706</v>
+        <v>685.0405470738129</v>
       </c>
     </row>
     <row r="365">
@@ -39826,7 +39826,7 @@
         <v>363</v>
       </c>
       <c r="B365" s="8" t="n">
-        <v>488.886872475553</v>
+        <v>518.2871283281165</v>
       </c>
     </row>
     <row r="366">
@@ -39834,7 +39834,7 @@
         <v>364</v>
       </c>
       <c r="B366" s="8" t="n">
-        <v>501.5163524461043</v>
+        <v>579.3377069311859</v>
       </c>
     </row>
     <row r="367">
@@ -39842,7 +39842,7 @@
         <v>365</v>
       </c>
       <c r="B367" s="8" t="n">
-        <v>514.2013513237343</v>
+        <v>474.2082761640646</v>
       </c>
     </row>
     <row r="368">
@@ -39850,7 +39850,7 @@
         <v>366</v>
       </c>
       <c r="B368" s="8" t="n">
-        <v>562.8723763225908</v>
+        <v>691.7681372233674</v>
       </c>
     </row>
     <row r="369">
@@ -39858,7 +39858,7 @@
         <v>367</v>
       </c>
       <c r="B369" s="8" t="n">
-        <v>353.4242007965474</v>
+        <v>373.5093198417737</v>
       </c>
     </row>
     <row r="370">
@@ -39866,7 +39866,7 @@
         <v>368</v>
       </c>
       <c r="B370" s="8" t="n">
-        <v>427.1972354734851</v>
+        <v>335.9057935872429</v>
       </c>
     </row>
     <row r="371">
@@ -39874,7 +39874,7 @@
         <v>369</v>
       </c>
       <c r="B371" s="8" t="n">
-        <v>474.4988266818302</v>
+        <v>506.1251721214081</v>
       </c>
     </row>
     <row r="372">
@@ -39882,7 +39882,7 @@
         <v>370</v>
       </c>
       <c r="B372" s="8" t="n">
-        <v>405.9112666083915</v>
+        <v>369.3112940999135</v>
       </c>
     </row>
     <row r="373">
@@ -39890,7 +39890,7 @@
         <v>371</v>
       </c>
       <c r="B373" s="8" t="n">
-        <v>460.6593406583836</v>
+        <v>511.9098880027863</v>
       </c>
     </row>
     <row r="374">
@@ -39898,7 +39898,7 @@
         <v>372</v>
       </c>
       <c r="B374" s="8" t="n">
-        <v>565.5235941236389</v>
+        <v>479.5498133634179</v>
       </c>
     </row>
     <row r="375">
@@ -39906,7 +39906,7 @@
         <v>373</v>
       </c>
       <c r="B375" s="8" t="n">
-        <v>648.5443048918002</v>
+        <v>532.3839182116992</v>
       </c>
     </row>
     <row r="376">
@@ -39914,7 +39914,7 @@
         <v>374</v>
       </c>
       <c r="B376" s="8" t="n">
-        <v>189.5867571953642</v>
+        <v>603.0662667250623</v>
       </c>
     </row>
     <row r="377">
@@ -39922,7 +39922,7 @@
         <v>375</v>
       </c>
       <c r="B377" s="8" t="n">
-        <v>598.785700344081</v>
+        <v>354.8694206312118</v>
       </c>
     </row>
     <row r="378">
@@ -39930,7 +39930,7 @@
         <v>376</v>
       </c>
       <c r="B378" s="8" t="n">
-        <v>289.5499982813254</v>
+        <v>403.8722292012711</v>
       </c>
     </row>
     <row r="379">
@@ -39938,7 +39938,7 @@
         <v>377</v>
       </c>
       <c r="B379" s="8" t="n">
-        <v>372.0997836386521</v>
+        <v>427.468592469291</v>
       </c>
     </row>
     <row r="380">
@@ -39946,7 +39946,7 @@
         <v>378</v>
       </c>
       <c r="B380" s="8" t="n">
-        <v>502.3279490801427</v>
+        <v>502.3332839745842</v>
       </c>
     </row>
     <row r="381">
@@ -39954,7 +39954,7 @@
         <v>379</v>
       </c>
       <c r="B381" s="8" t="n">
-        <v>317.9044840100825</v>
+        <v>317.2920051669136</v>
       </c>
     </row>
     <row r="382">
@@ -39962,7 +39962,7 @@
         <v>380</v>
       </c>
       <c r="B382" s="8" t="n">
-        <v>548.2528700544881</v>
+        <v>411.9161945366662</v>
       </c>
     </row>
     <row r="383">
@@ -39970,7 +39970,7 @@
         <v>381</v>
       </c>
       <c r="B383" s="8" t="n">
-        <v>589.8698301727823</v>
+        <v>465.0760522894345</v>
       </c>
     </row>
     <row r="384">
@@ -39978,7 +39978,7 @@
         <v>382</v>
       </c>
       <c r="B384" s="8" t="n">
-        <v>568.0609603017863</v>
+        <v>223.1968542543808</v>
       </c>
     </row>
     <row r="385">
@@ -39986,7 +39986,7 @@
         <v>383</v>
       </c>
       <c r="B385" s="8" t="n">
-        <v>615.5477323547128</v>
+        <v>648.3918758929192</v>
       </c>
     </row>
     <row r="386">
@@ -39994,7 +39994,7 @@
         <v>384</v>
       </c>
       <c r="B386" s="8" t="n">
-        <v>324.447296819705</v>
+        <v>631.0841038865728</v>
       </c>
     </row>
     <row r="387">
@@ -40002,7 +40002,7 @@
         <v>385</v>
       </c>
       <c r="B387" s="8" t="n">
-        <v>535.3664907227778</v>
+        <v>478.4700960526732</v>
       </c>
     </row>
     <row r="388">
@@ -40010,7 +40010,7 @@
         <v>386</v>
       </c>
       <c r="B388" s="8" t="n">
-        <v>272.7999186924064</v>
+        <v>546.4782133528195</v>
       </c>
     </row>
     <row r="389">
@@ -40018,7 +40018,7 @@
         <v>387</v>
       </c>
       <c r="B389" s="8" t="n">
-        <v>687.6591966289113</v>
+        <v>575.7711651822076</v>
       </c>
     </row>
     <row r="390">
@@ -40026,7 +40026,7 @@
         <v>388</v>
       </c>
       <c r="B390" s="8" t="n">
-        <v>381.9508463937483</v>
+        <v>729.3624054749183</v>
       </c>
     </row>
     <row r="391">
@@ -40034,7 +40034,7 @@
         <v>389</v>
       </c>
       <c r="B391" s="8" t="n">
-        <v>682.0202329201769</v>
+        <v>538.5491906038662</v>
       </c>
     </row>
     <row r="392">
@@ -40042,7 +40042,7 @@
         <v>390</v>
       </c>
       <c r="B392" s="8" t="n">
-        <v>583.1683657694986</v>
+        <v>686.6017821076175</v>
       </c>
     </row>
     <row r="393">
@@ -40050,7 +40050,7 @@
         <v>391</v>
       </c>
       <c r="B393" s="8" t="n">
-        <v>457.0979588158081</v>
+        <v>520.442688055886</v>
       </c>
     </row>
     <row r="394">
@@ -40058,7 +40058,7 @@
         <v>392</v>
       </c>
       <c r="B394" s="8" t="n">
-        <v>397.334340333275</v>
+        <v>689.9130859493121</v>
       </c>
     </row>
     <row r="395">
@@ -40066,7 +40066,7 @@
         <v>393</v>
       </c>
       <c r="B395" s="8" t="n">
-        <v>610.6851705975838</v>
+        <v>520.1786423799288</v>
       </c>
     </row>
     <row r="396">
@@ -40074,7 +40074,7 @@
         <v>394</v>
       </c>
       <c r="B396" s="8" t="n">
-        <v>281.7477008166466</v>
+        <v>672.9236987803705</v>
       </c>
     </row>
     <row r="397">
@@ -40082,7 +40082,7 @@
         <v>395</v>
       </c>
       <c r="B397" s="8" t="n">
-        <v>252.6233831781063</v>
+        <v>417.5950216850385</v>
       </c>
     </row>
     <row r="398">
@@ -40090,7 +40090,7 @@
         <v>396</v>
       </c>
       <c r="B398" s="8" t="n">
-        <v>471.772965704214</v>
+        <v>488.2323892600588</v>
       </c>
     </row>
     <row r="399">
@@ -40098,7 +40098,7 @@
         <v>397</v>
       </c>
       <c r="B399" s="8" t="n">
-        <v>476.6640317593246</v>
+        <v>445.9159170848827</v>
       </c>
     </row>
     <row r="400">
@@ -40106,7 +40106,7 @@
         <v>398</v>
       </c>
       <c r="B400" s="8" t="n">
-        <v>470.2556305496979</v>
+        <v>531.7459204578137</v>
       </c>
     </row>
     <row r="401">
@@ -40114,7 +40114,7 @@
         <v>399</v>
       </c>
       <c r="B401" s="8" t="n">
-        <v>388.1140375876609</v>
+        <v>276.0685359536617</v>
       </c>
     </row>
     <row r="402">
@@ -40122,7 +40122,7 @@
         <v>400</v>
       </c>
       <c r="B402" s="8" t="n">
-        <v>281.0057114571656</v>
+        <v>358.1082942508307</v>
       </c>
     </row>
     <row r="403">
@@ -40130,7 +40130,7 @@
         <v>401</v>
       </c>
       <c r="B403" s="8" t="n">
-        <v>474.0607411265259</v>
+        <v>557.9733288242167</v>
       </c>
     </row>
     <row r="404">
@@ -40138,7 +40138,7 @@
         <v>402</v>
       </c>
       <c r="B404" s="8" t="n">
-        <v>509.7297700932299</v>
+        <v>470.6771620200218</v>
       </c>
     </row>
     <row r="405">
@@ -40146,7 +40146,7 @@
         <v>403</v>
       </c>
       <c r="B405" s="8" t="n">
-        <v>608.1570776451524</v>
+        <v>613.1432422590184</v>
       </c>
     </row>
     <row r="406">
@@ -40154,7 +40154,7 @@
         <v>404</v>
       </c>
       <c r="B406" s="8" t="n">
-        <v>310.4705272554212</v>
+        <v>532.1634380230379</v>
       </c>
     </row>
     <row r="407">
@@ -40162,7 +40162,7 @@
         <v>405</v>
       </c>
       <c r="B407" s="8" t="n">
-        <v>712.105355867711</v>
+        <v>203.9530352450148</v>
       </c>
     </row>
     <row r="408">
@@ -40170,7 +40170,7 @@
         <v>406</v>
       </c>
       <c r="B408" s="8" t="n">
-        <v>442.0708761105994</v>
+        <v>449.923956294109</v>
       </c>
     </row>
     <row r="409">
@@ -40178,7 +40178,7 @@
         <v>407</v>
       </c>
       <c r="B409" s="8" t="n">
-        <v>520.4623845254364</v>
+        <v>446.3172956014622</v>
       </c>
     </row>
     <row r="410">
@@ -40186,7 +40186,7 @@
         <v>408</v>
       </c>
       <c r="B410" s="8" t="n">
-        <v>320.0013799576756</v>
+        <v>215.4942373542885</v>
       </c>
     </row>
     <row r="411">
@@ -40194,7 +40194,7 @@
         <v>409</v>
       </c>
       <c r="B411" s="8" t="n">
-        <v>377.1346464449024</v>
+        <v>671.3167355007845</v>
       </c>
     </row>
     <row r="412">
@@ -40202,7 +40202,7 @@
         <v>410</v>
       </c>
       <c r="B412" s="8" t="n">
-        <v>630.2440293420847</v>
+        <v>437.9682133379101</v>
       </c>
     </row>
     <row r="413">
@@ -40210,7 +40210,7 @@
         <v>411</v>
       </c>
       <c r="B413" s="8" t="n">
-        <v>549.063008986422</v>
+        <v>662.4366005910537</v>
       </c>
     </row>
     <row r="414">
@@ -40218,7 +40218,7 @@
         <v>412</v>
       </c>
       <c r="B414" s="8" t="n">
-        <v>607.0920227906878</v>
+        <v>542.2628287133354</v>
       </c>
     </row>
     <row r="415">
@@ -40226,7 +40226,7 @@
         <v>413</v>
       </c>
       <c r="B415" s="8" t="n">
-        <v>380.0588514578748</v>
+        <v>674.6935013472909</v>
       </c>
     </row>
     <row r="416">
@@ -40234,7 +40234,7 @@
         <v>414</v>
       </c>
       <c r="B416" s="8" t="n">
-        <v>674.9555889806459</v>
+        <v>436.2192573210876</v>
       </c>
     </row>
     <row r="417">
@@ -40242,7 +40242,7 @@
         <v>415</v>
       </c>
       <c r="B417" s="8" t="n">
-        <v>627.792768866863</v>
+        <v>608.1267918182622</v>
       </c>
     </row>
     <row r="418">
@@ -40250,7 +40250,7 @@
         <v>416</v>
       </c>
       <c r="B418" s="8" t="n">
-        <v>506.9897631495281</v>
+        <v>389.0162857499367</v>
       </c>
     </row>
     <row r="419">
@@ -40258,7 +40258,7 @@
         <v>417</v>
       </c>
       <c r="B419" s="8" t="n">
-        <v>348.1995713049415</v>
+        <v>359.2062744940774</v>
       </c>
     </row>
     <row r="420">
@@ -40266,7 +40266,7 @@
         <v>418</v>
       </c>
       <c r="B420" s="8" t="n">
-        <v>280.2729859910461</v>
+        <v>435.0160507037684</v>
       </c>
     </row>
     <row r="421">
@@ -40274,7 +40274,7 @@
         <v>419</v>
       </c>
       <c r="B421" s="8" t="n">
-        <v>525.5177172077262</v>
+        <v>432.2507733228239</v>
       </c>
     </row>
     <row r="422">
@@ -40282,7 +40282,7 @@
         <v>420</v>
       </c>
       <c r="B422" s="8" t="n">
-        <v>514.9546883585269</v>
+        <v>396.833087916689</v>
       </c>
     </row>
     <row r="423">
@@ -40290,7 +40290,7 @@
         <v>421</v>
       </c>
       <c r="B423" s="8" t="n">
-        <v>396.9109844828784</v>
+        <v>341.2182264518401</v>
       </c>
     </row>
     <row r="424">
@@ -40298,7 +40298,7 @@
         <v>422</v>
       </c>
       <c r="B424" s="8" t="n">
-        <v>606.6733379438574</v>
+        <v>635.3369416220314</v>
       </c>
     </row>
     <row r="425">
@@ -40306,7 +40306,7 @@
         <v>423</v>
       </c>
       <c r="B425" s="8" t="n">
-        <v>563.9671177264911</v>
+        <v>258.2225083044548</v>
       </c>
     </row>
     <row r="426">
@@ -40314,7 +40314,7 @@
         <v>424</v>
       </c>
       <c r="B426" s="8" t="n">
-        <v>503.4285174875193</v>
+        <v>259.8634365741603</v>
       </c>
     </row>
     <row r="427">
@@ -40322,7 +40322,7 @@
         <v>425</v>
       </c>
       <c r="B427" s="8" t="n">
-        <v>654.1095528352503</v>
+        <v>342.5666132510599</v>
       </c>
     </row>
     <row r="428">
@@ -40330,7 +40330,7 @@
         <v>426</v>
       </c>
       <c r="B428" s="8" t="n">
-        <v>567.7302855485822</v>
+        <v>687.8428340102671</v>
       </c>
     </row>
     <row r="429">
@@ -40338,7 +40338,7 @@
         <v>427</v>
       </c>
       <c r="B429" s="8" t="n">
-        <v>301.4459719315901</v>
+        <v>435.0469512042551</v>
       </c>
     </row>
     <row r="430">
@@ -40346,7 +40346,7 @@
         <v>428</v>
       </c>
       <c r="B430" s="8" t="n">
-        <v>318.1658580686776</v>
+        <v>530.3854203048742</v>
       </c>
     </row>
     <row r="431">
@@ -40354,7 +40354,7 @@
         <v>429</v>
       </c>
       <c r="B431" s="8" t="n">
-        <v>167.6752561536753</v>
+        <v>571.7706755409777</v>
       </c>
     </row>
     <row r="432">
@@ -40362,7 +40362,7 @@
         <v>430</v>
       </c>
       <c r="B432" s="8" t="n">
-        <v>121.8505361662895</v>
+        <v>718.2263855241764</v>
       </c>
     </row>
     <row r="433">
@@ -40370,7 +40370,7 @@
         <v>431</v>
       </c>
       <c r="B433" s="8" t="n">
-        <v>485.1301962168509</v>
+        <v>616.1877691716014</v>
       </c>
     </row>
     <row r="434">
@@ -40378,7 +40378,7 @@
         <v>432</v>
       </c>
       <c r="B434" s="8" t="n">
-        <v>407.2605446130691</v>
+        <v>679.2241544045399</v>
       </c>
     </row>
     <row r="435">
@@ -40386,7 +40386,7 @@
         <v>433</v>
       </c>
       <c r="B435" s="8" t="n">
-        <v>322.1714883788928</v>
+        <v>298.4542583237002</v>
       </c>
     </row>
     <row r="436">
@@ -40394,7 +40394,7 @@
         <v>434</v>
       </c>
       <c r="B436" s="8" t="n">
-        <v>349.5202711167364</v>
+        <v>411.2809669633504</v>
       </c>
     </row>
     <row r="437">
@@ -40402,7 +40402,7 @@
         <v>435</v>
       </c>
       <c r="B437" s="8" t="n">
-        <v>304.3575069681809</v>
+        <v>567.4235279581713</v>
       </c>
     </row>
     <row r="438">
@@ -40410,7 +40410,7 @@
         <v>436</v>
       </c>
       <c r="B438" s="8" t="n">
-        <v>589.7309213653925</v>
+        <v>531.9204557905113</v>
       </c>
     </row>
     <row r="439">
@@ -40418,7 +40418,7 @@
         <v>437</v>
       </c>
       <c r="B439" s="8" t="n">
-        <v>511.6898055841666</v>
+        <v>541.857128984291</v>
       </c>
     </row>
     <row r="440">
@@ -40426,7 +40426,7 @@
         <v>438</v>
       </c>
       <c r="B440" s="8" t="n">
-        <v>399.9002504207044</v>
+        <v>650.0648805270852</v>
       </c>
     </row>
     <row r="441">
@@ -40434,7 +40434,7 @@
         <v>439</v>
       </c>
       <c r="B441" s="8" t="n">
-        <v>542.4647736011545</v>
+        <v>679.5063803548708</v>
       </c>
     </row>
     <row r="442">
@@ -40442,7 +40442,7 @@
         <v>440</v>
       </c>
       <c r="B442" s="8" t="n">
-        <v>686.4371892757504</v>
+        <v>328.4479907540129</v>
       </c>
     </row>
     <row r="443">
@@ -40450,7 +40450,7 @@
         <v>441</v>
       </c>
       <c r="B443" s="8" t="n">
-        <v>597.9121662664725</v>
+        <v>454.3702525782262</v>
       </c>
     </row>
     <row r="444">
@@ -40458,7 +40458,7 @@
         <v>442</v>
       </c>
       <c r="B444" s="8" t="n">
-        <v>694.6031433075864</v>
+        <v>497.3496578925511</v>
       </c>
     </row>
     <row r="445">
@@ -40466,7 +40466,7 @@
         <v>443</v>
       </c>
       <c r="B445" s="8" t="n">
-        <v>327.751837827349</v>
+        <v>433.8944632467854</v>
       </c>
     </row>
     <row r="446">
@@ -40474,7 +40474,7 @@
         <v>444</v>
       </c>
       <c r="B446" s="8" t="n">
-        <v>387.5373921831912</v>
+        <v>578.5831715137624</v>
       </c>
     </row>
     <row r="447">
@@ -40482,7 +40482,7 @@
         <v>445</v>
       </c>
       <c r="B447" s="8" t="n">
-        <v>678.0134384637483</v>
+        <v>411.1816255624312</v>
       </c>
     </row>
     <row r="448">
@@ -40490,7 +40490,7 @@
         <v>446</v>
       </c>
       <c r="B448" s="8" t="n">
-        <v>468.4690226517758</v>
+        <v>583.7928618877918</v>
       </c>
     </row>
     <row r="449">
@@ -40498,7 +40498,7 @@
         <v>447</v>
       </c>
       <c r="B449" s="8" t="n">
-        <v>559.8257371339737</v>
+        <v>624.4468783216552</v>
       </c>
     </row>
     <row r="450">
@@ -40506,7 +40506,7 @@
         <v>448</v>
       </c>
       <c r="B450" s="8" t="n">
-        <v>329.2274124817829</v>
+        <v>470.8626617929666</v>
       </c>
     </row>
     <row r="451">
@@ -40514,7 +40514,7 @@
         <v>449</v>
       </c>
       <c r="B451" s="8" t="n">
-        <v>698.7832152647737</v>
+        <v>377.9603743586422</v>
       </c>
     </row>
     <row r="452">
@@ -40522,7 +40522,7 @@
         <v>450</v>
       </c>
       <c r="B452" s="8" t="n">
-        <v>669.8538392956361</v>
+        <v>412.2539950613302</v>
       </c>
     </row>
     <row r="453">
@@ -40530,7 +40530,7 @@
         <v>451</v>
       </c>
       <c r="B453" s="8" t="n">
-        <v>413.7181490838591</v>
+        <v>308.7288781614541</v>
       </c>
     </row>
     <row r="454">
@@ -40538,7 +40538,7 @@
         <v>452</v>
       </c>
       <c r="B454" s="8" t="n">
-        <v>444.3761311374466</v>
+        <v>494.7411723659261</v>
       </c>
     </row>
     <row r="455">
@@ -40546,7 +40546,7 @@
         <v>453</v>
       </c>
       <c r="B455" s="8" t="n">
-        <v>304.5973806762959</v>
+        <v>694.1782093479629</v>
       </c>
     </row>
     <row r="456">
@@ -40554,7 +40554,7 @@
         <v>454</v>
       </c>
       <c r="B456" s="8" t="n">
-        <v>307.8165255801714</v>
+        <v>359.9205064536338</v>
       </c>
     </row>
     <row r="457">
@@ -40562,7 +40562,7 @@
         <v>455</v>
       </c>
       <c r="B457" s="8" t="n">
-        <v>531.7162563764916</v>
+        <v>569.6912307077537</v>
       </c>
     </row>
     <row r="458">
@@ -40570,7 +40570,7 @@
         <v>456</v>
       </c>
       <c r="B458" s="8" t="n">
-        <v>582.5425777835803</v>
+        <v>690.4990300801592</v>
       </c>
     </row>
     <row r="459">
@@ -40578,7 +40578,7 @@
         <v>457</v>
       </c>
       <c r="B459" s="8" t="n">
-        <v>665.2149981674369</v>
+        <v>549.343623192683</v>
       </c>
     </row>
     <row r="460">
@@ -40586,7 +40586,7 @@
         <v>458</v>
       </c>
       <c r="B460" s="8" t="n">
-        <v>342.8989785591212</v>
+        <v>178.9499424971297</v>
       </c>
     </row>
     <row r="461">
@@ -40594,7 +40594,7 @@
         <v>459</v>
       </c>
       <c r="B461" s="8" t="n">
-        <v>295.1063176915415</v>
+        <v>343.0225515842694</v>
       </c>
     </row>
     <row r="462">
@@ -40602,7 +40602,7 @@
         <v>460</v>
       </c>
       <c r="B462" s="8" t="n">
-        <v>493.7723435075308</v>
+        <v>286.9980385412148</v>
       </c>
     </row>
     <row r="463">
@@ -40610,7 +40610,7 @@
         <v>461</v>
       </c>
       <c r="B463" s="8" t="n">
-        <v>282.5181805850073</v>
+        <v>385.0293622356135</v>
       </c>
     </row>
     <row r="464">
@@ -40618,7 +40618,7 @@
         <v>462</v>
       </c>
       <c r="B464" s="8" t="n">
-        <v>709.765042201777</v>
+        <v>776.3612360529854</v>
       </c>
     </row>
     <row r="465">
@@ -40626,7 +40626,7 @@
         <v>463</v>
       </c>
       <c r="B465" s="8" t="n">
-        <v>581.6336602265749</v>
+        <v>735.2353055715121</v>
       </c>
     </row>
     <row r="466">
@@ -40634,7 +40634,7 @@
         <v>464</v>
       </c>
       <c r="B466" s="8" t="n">
-        <v>345.1716094209137</v>
+        <v>514.7368456354342</v>
       </c>
     </row>
     <row r="467">
@@ -40642,7 +40642,7 @@
         <v>465</v>
       </c>
       <c r="B467" s="8" t="n">
-        <v>289.9338828319903</v>
+        <v>638.2845164109533</v>
       </c>
     </row>
     <row r="468">
@@ -40650,7 +40650,7 @@
         <v>466</v>
       </c>
       <c r="B468" s="8" t="n">
-        <v>275.3158953142881</v>
+        <v>570.7877404849663</v>
       </c>
     </row>
     <row r="469">
@@ -40658,7 +40658,7 @@
         <v>467</v>
       </c>
       <c r="B469" s="8" t="n">
-        <v>386.3355026328052</v>
+        <v>676.0397384933515</v>
       </c>
     </row>
     <row r="470">
@@ -40666,7 +40666,7 @@
         <v>468</v>
       </c>
       <c r="B470" s="8" t="n">
-        <v>498.2190153616939</v>
+        <v>402.5294572859842</v>
       </c>
     </row>
     <row r="471">
@@ -40674,7 +40674,7 @@
         <v>469</v>
       </c>
       <c r="B471" s="8" t="n">
-        <v>248.9251146833406</v>
+        <v>501.6873962908917</v>
       </c>
     </row>
     <row r="472">
@@ -40682,7 +40682,7 @@
         <v>470</v>
       </c>
       <c r="B472" s="8" t="n">
-        <v>337.2008460507915</v>
+        <v>247.5601822070998</v>
       </c>
     </row>
     <row r="473">
@@ -40690,7 +40690,7 @@
         <v>471</v>
       </c>
       <c r="B473" s="8" t="n">
-        <v>297.9110032246851</v>
+        <v>663.334021205862</v>
       </c>
     </row>
     <row r="474">
@@ -40698,7 +40698,7 @@
         <v>472</v>
       </c>
       <c r="B474" s="8" t="n">
-        <v>278.8577916648494</v>
+        <v>335.448793616364</v>
       </c>
     </row>
     <row r="475">
@@ -40706,7 +40706,7 @@
         <v>473</v>
       </c>
       <c r="B475" s="8" t="n">
-        <v>400.6863782690764</v>
+        <v>479.1045083599066</v>
       </c>
     </row>
     <row r="476">
@@ -40714,7 +40714,7 @@
         <v>474</v>
       </c>
       <c r="B476" s="8" t="n">
-        <v>628.5193394960326</v>
+        <v>439.3527571373828</v>
       </c>
     </row>
     <row r="477">
@@ -40722,7 +40722,7 @@
         <v>475</v>
       </c>
       <c r="B477" s="8" t="n">
-        <v>716.8496049910739</v>
+        <v>498.7157100547471</v>
       </c>
     </row>
     <row r="478">
@@ -40730,7 +40730,7 @@
         <v>476</v>
       </c>
       <c r="B478" s="8" t="n">
-        <v>628.2333203069684</v>
+        <v>339.2220568155277</v>
       </c>
     </row>
     <row r="479">
@@ -40738,7 +40738,7 @@
         <v>477</v>
       </c>
       <c r="B479" s="8" t="n">
-        <v>433.190244641453</v>
+        <v>526.5837554010843</v>
       </c>
     </row>
     <row r="480">
@@ -40746,7 +40746,7 @@
         <v>478</v>
       </c>
       <c r="B480" s="8" t="n">
-        <v>598.5906729484717</v>
+        <v>658.8062717717967</v>
       </c>
     </row>
     <row r="481">
@@ -40754,7 +40754,7 @@
         <v>479</v>
       </c>
       <c r="B481" s="8" t="n">
-        <v>377.3221462058987</v>
+        <v>396.9879387076533</v>
       </c>
     </row>
     <row r="482">
@@ -40762,7 +40762,7 @@
         <v>480</v>
       </c>
       <c r="B482" s="8" t="n">
-        <v>523.1233753413698</v>
+        <v>470.2643740366023</v>
       </c>
     </row>
     <row r="483">
@@ -40770,7 +40770,7 @@
         <v>481</v>
       </c>
       <c r="B483" s="8" t="n">
-        <v>375.5192256267342</v>
+        <v>557.4623527590694</v>
       </c>
     </row>
     <row r="484">
@@ -40778,7 +40778,7 @@
         <v>482</v>
       </c>
       <c r="B484" s="8" t="n">
-        <v>532.0013807418397</v>
+        <v>569.9621081972782</v>
       </c>
     </row>
     <row r="485">
@@ -40786,7 +40786,7 @@
         <v>483</v>
       </c>
       <c r="B485" s="8" t="n">
-        <v>267.4611344208558</v>
+        <v>408.5073754422289</v>
       </c>
     </row>
     <row r="486">
@@ -40794,7 +40794,7 @@
         <v>484</v>
       </c>
       <c r="B486" s="8" t="n">
-        <v>645.3629273671924</v>
+        <v>272.2252940481605</v>
       </c>
     </row>
     <row r="487">
@@ -40802,7 +40802,7 @@
         <v>485</v>
       </c>
       <c r="B487" s="8" t="n">
-        <v>461.2872595563884</v>
+        <v>216.4521705083306</v>
       </c>
     </row>
     <row r="488">
@@ -40810,7 +40810,7 @@
         <v>486</v>
       </c>
       <c r="B488" s="8" t="n">
-        <v>611.5541304366724</v>
+        <v>540.2585708385155</v>
       </c>
     </row>
     <row r="489">
@@ -40818,7 +40818,7 @@
         <v>487</v>
       </c>
       <c r="B489" s="8" t="n">
-        <v>500.4263004167317</v>
+        <v>598.9243582815933</v>
       </c>
     </row>
     <row r="490">
@@ -40826,7 +40826,7 @@
         <v>488</v>
       </c>
       <c r="B490" s="8" t="n">
-        <v>336.307527504181</v>
+        <v>596.1996497477128</v>
       </c>
     </row>
     <row r="491">
@@ -40834,7 +40834,7 @@
         <v>489</v>
       </c>
       <c r="B491" s="8" t="n">
-        <v>739.4039435309916</v>
+        <v>429.8989478816595</v>
       </c>
     </row>
     <row r="492">
@@ -40842,7 +40842,7 @@
         <v>490</v>
       </c>
       <c r="B492" s="8" t="n">
-        <v>251.4589823132347</v>
+        <v>485.9760948010551</v>
       </c>
     </row>
     <row r="493">
@@ -40850,7 +40850,7 @@
         <v>491</v>
       </c>
       <c r="B493" s="8" t="n">
-        <v>574.6299527702178</v>
+        <v>586.0378952483845</v>
       </c>
     </row>
     <row r="494">
@@ -40858,7 +40858,7 @@
         <v>492</v>
       </c>
       <c r="B494" s="8" t="n">
-        <v>551.8646650181133</v>
+        <v>736.91552349086</v>
       </c>
     </row>
     <row r="495">
@@ -40866,7 +40866,7 @@
         <v>493</v>
       </c>
       <c r="B495" s="8" t="n">
-        <v>649.8905301880128</v>
+        <v>399.6235409816717</v>
       </c>
     </row>
     <row r="496">
@@ -40874,7 +40874,7 @@
         <v>494</v>
       </c>
       <c r="B496" s="8" t="n">
-        <v>561.0737273278352</v>
+        <v>572.6641099020945</v>
       </c>
     </row>
     <row r="497">
@@ -40882,7 +40882,7 @@
         <v>495</v>
       </c>
       <c r="B497" s="8" t="n">
-        <v>404.696935648638</v>
+        <v>481.4492546994124</v>
       </c>
     </row>
     <row r="498">
@@ -40890,7 +40890,7 @@
         <v>496</v>
       </c>
       <c r="B498" s="8" t="n">
-        <v>742.3653906074161</v>
+        <v>452.7472052461525</v>
       </c>
     </row>
     <row r="499">
@@ -40898,7 +40898,7 @@
         <v>497</v>
       </c>
       <c r="B499" s="8" t="n">
-        <v>361.592431757165</v>
+        <v>465.9271153577993</v>
       </c>
     </row>
     <row r="500">
@@ -40906,7 +40906,7 @@
         <v>498</v>
       </c>
       <c r="B500" s="8" t="n">
-        <v>367.6486758279265</v>
+        <v>705.4664559138241</v>
       </c>
     </row>
     <row r="501">
@@ -40914,7 +40914,7 @@
         <v>499</v>
       </c>
       <c r="B501" s="8" t="n">
-        <v>720.3991402483629</v>
+        <v>379.3295831550153</v>
       </c>
     </row>
     <row r="502">
@@ -40922,7 +40922,7 @@
         <v>500</v>
       </c>
       <c r="B502" s="8" t="n">
-        <v>544.2781137352899</v>
+        <v>555.9455619139087</v>
       </c>
     </row>
     <row r="503">
@@ -40930,7 +40930,7 @@
         <v>501</v>
       </c>
       <c r="B503" s="8" t="n">
-        <v>612.9602910064688</v>
+        <v>432.2166751214885</v>
       </c>
     </row>
     <row r="504">
@@ -40938,7 +40938,7 @@
         <v>502</v>
       </c>
       <c r="B504" s="8" t="n">
-        <v>515.2499875139722</v>
+        <v>310.966699414935</v>
       </c>
     </row>
     <row r="505">
@@ -40946,7 +40946,7 @@
         <v>503</v>
       </c>
       <c r="B505" s="8" t="n">
-        <v>423.1882486826834</v>
+        <v>501.1281158652867</v>
       </c>
     </row>
     <row r="506">
@@ -40954,7 +40954,7 @@
         <v>504</v>
       </c>
       <c r="B506" s="8" t="n">
-        <v>665.7581243916493</v>
+        <v>722.1168027010891</v>
       </c>
     </row>
     <row r="507">
@@ -40962,7 +40962,7 @@
         <v>505</v>
       </c>
       <c r="B507" s="8" t="n">
-        <v>462.298005271978</v>
+        <v>631.9784709607319</v>
       </c>
     </row>
     <row r="508">
@@ -40970,7 +40970,7 @@
         <v>506</v>
       </c>
       <c r="B508" s="8" t="n">
-        <v>423.4736622904184</v>
+        <v>453.1663648324609</v>
       </c>
     </row>
     <row r="509">
@@ -40978,7 +40978,7 @@
         <v>507</v>
       </c>
       <c r="B509" s="8" t="n">
-        <v>583.1290146654499</v>
+        <v>541.1322231692867</v>
       </c>
     </row>
     <row r="510">
@@ -40986,7 +40986,7 @@
         <v>508</v>
       </c>
       <c r="B510" s="8" t="n">
-        <v>380.0610969885203</v>
+        <v>265.1109296395427</v>
       </c>
     </row>
     <row r="511">
@@ -40994,7 +40994,7 @@
         <v>509</v>
       </c>
       <c r="B511" s="8" t="n">
-        <v>648.4828517142797</v>
+        <v>442.7652516673193</v>
       </c>
     </row>
     <row r="512">
@@ -41002,7 +41002,7 @@
         <v>510</v>
       </c>
       <c r="B512" s="8" t="n">
-        <v>217.5133584839477</v>
+        <v>549.7894832013558</v>
       </c>
     </row>
     <row r="513">
@@ -41010,7 +41010,7 @@
         <v>511</v>
       </c>
       <c r="B513" s="8" t="n">
-        <v>614.2521963244429</v>
+        <v>336.8372728131793</v>
       </c>
     </row>
     <row r="514">
@@ -41018,7 +41018,7 @@
         <v>512</v>
       </c>
       <c r="B514" s="8" t="n">
-        <v>517.4750315103853</v>
+        <v>532.9283668070457</v>
       </c>
     </row>
     <row r="515">
@@ -41026,7 +41026,7 @@
         <v>513</v>
       </c>
       <c r="B515" s="8" t="n">
-        <v>307.4161292545379</v>
+        <v>694.9476969150844</v>
       </c>
     </row>
     <row r="516">
@@ -41034,7 +41034,7 @@
         <v>514</v>
       </c>
       <c r="B516" s="8" t="n">
-        <v>553.0948776634124</v>
+        <v>318.1347879786038</v>
       </c>
     </row>
     <row r="517">
@@ -41042,7 +41042,7 @@
         <v>515</v>
       </c>
       <c r="B517" s="8" t="n">
-        <v>374.2697220375122</v>
+        <v>296.2992770263746</v>
       </c>
     </row>
     <row r="518">
@@ -41050,7 +41050,7 @@
         <v>516</v>
       </c>
       <c r="B518" s="8" t="n">
-        <v>292.9622656359767</v>
+        <v>617.1872450987802</v>
       </c>
     </row>
     <row r="519">
@@ -41058,7 +41058,7 @@
         <v>517</v>
       </c>
       <c r="B519" s="8" t="n">
-        <v>248.3181268137363</v>
+        <v>397.3981063425416</v>
       </c>
     </row>
     <row r="520">
@@ -41066,7 +41066,7 @@
         <v>518</v>
       </c>
       <c r="B520" s="8" t="n">
-        <v>581.7178118311375</v>
+        <v>437.6541281543329</v>
       </c>
     </row>
     <row r="521">
@@ -41074,7 +41074,7 @@
         <v>519</v>
       </c>
       <c r="B521" s="8" t="n">
-        <v>358.8989048448031</v>
+        <v>248.0226124947739</v>
       </c>
     </row>
     <row r="522">
@@ -41082,7 +41082,7 @@
         <v>520</v>
       </c>
       <c r="B522" s="8" t="n">
-        <v>352.6208272294334</v>
+        <v>612.8104074440615</v>
       </c>
     </row>
     <row r="523">
@@ -41090,7 +41090,7 @@
         <v>521</v>
       </c>
       <c r="B523" s="8" t="n">
-        <v>322.9558189004807</v>
+        <v>294.5822094496279</v>
       </c>
     </row>
     <row r="524">
@@ -41098,7 +41098,7 @@
         <v>522</v>
       </c>
       <c r="B524" s="8" t="n">
-        <v>212.441878921191</v>
+        <v>442.6420989960687</v>
       </c>
     </row>
     <row r="525">
@@ -41106,7 +41106,7 @@
         <v>523</v>
       </c>
       <c r="B525" s="8" t="n">
-        <v>467.2285040045765</v>
+        <v>379.9993432912104</v>
       </c>
     </row>
     <row r="526">
@@ -41114,7 +41114,7 @@
         <v>524</v>
       </c>
       <c r="B526" s="8" t="n">
-        <v>650.156904578847</v>
+        <v>292.1188202178298</v>
       </c>
     </row>
     <row r="527">
@@ -41122,7 +41122,7 @@
         <v>525</v>
       </c>
       <c r="B527" s="8" t="n">
-        <v>593.3258980291846</v>
+        <v>486.0044795234783</v>
       </c>
     </row>
     <row r="528">
@@ -41130,7 +41130,7 @@
         <v>526</v>
       </c>
       <c r="B528" s="8" t="n">
-        <v>518.5060184472497</v>
+        <v>296.0858942356641</v>
       </c>
     </row>
     <row r="529">
@@ -41138,7 +41138,7 @@
         <v>527</v>
       </c>
       <c r="B529" s="8" t="n">
-        <v>333.1849912848525</v>
+        <v>335.234007533715</v>
       </c>
     </row>
     <row r="530">
@@ -41146,7 +41146,7 @@
         <v>528</v>
       </c>
       <c r="B530" s="8" t="n">
-        <v>500.7981052808773</v>
+        <v>399.3947502934649</v>
       </c>
     </row>
     <row r="531">
@@ -41154,7 +41154,7 @@
         <v>529</v>
       </c>
       <c r="B531" s="8" t="n">
-        <v>598.552436071662</v>
+        <v>543.3544012502529</v>
       </c>
     </row>
     <row r="532">
@@ -41162,7 +41162,7 @@
         <v>530</v>
       </c>
       <c r="B532" s="8" t="n">
-        <v>442.7995707366485</v>
+        <v>548.5185659896864</v>
       </c>
     </row>
     <row r="533">
@@ -41170,7 +41170,7 @@
         <v>531</v>
       </c>
       <c r="B533" s="8" t="n">
-        <v>394.244304657654</v>
+        <v>545.9743131162494</v>
       </c>
     </row>
     <row r="534">
@@ -41178,7 +41178,7 @@
         <v>532</v>
       </c>
       <c r="B534" s="8" t="n">
-        <v>504.0623690500961</v>
+        <v>610.5453851696728</v>
       </c>
     </row>
     <row r="535">
@@ -41186,7 +41186,7 @@
         <v>533</v>
       </c>
       <c r="B535" s="8" t="n">
-        <v>342.9705209169541</v>
+        <v>497.0916398217731</v>
       </c>
     </row>
     <row r="536">
@@ -41194,7 +41194,7 @@
         <v>534</v>
       </c>
       <c r="B536" s="8" t="n">
-        <v>702.9406438781804</v>
+        <v>285.2119799202123</v>
       </c>
     </row>
     <row r="537">
@@ -41202,7 +41202,7 @@
         <v>535</v>
       </c>
       <c r="B537" s="8" t="n">
-        <v>658.4533759431197</v>
+        <v>215.007121166967</v>
       </c>
     </row>
     <row r="538">
@@ -41210,7 +41210,7 @@
         <v>536</v>
       </c>
       <c r="B538" s="8" t="n">
-        <v>578.4211919930538</v>
+        <v>493.0074040986374</v>
       </c>
     </row>
     <row r="539">
@@ -41218,7 +41218,7 @@
         <v>537</v>
       </c>
       <c r="B539" s="8" t="n">
-        <v>500.2909037981416</v>
+        <v>623.8860716493077</v>
       </c>
     </row>
     <row r="540">
@@ -41226,7 +41226,7 @@
         <v>538</v>
       </c>
       <c r="B540" s="8" t="n">
-        <v>703.2990706087911</v>
+        <v>635.2172165497991</v>
       </c>
     </row>
     <row r="541">
@@ -41234,7 +41234,7 @@
         <v>539</v>
       </c>
       <c r="B541" s="8" t="n">
-        <v>262.4770321283095</v>
+        <v>499.3221616012518</v>
       </c>
     </row>
     <row r="542">
@@ -41242,7 +41242,7 @@
         <v>540</v>
       </c>
       <c r="B542" s="8" t="n">
-        <v>371.955635126422</v>
+        <v>566.2402548174978</v>
       </c>
     </row>
     <row r="543">
@@ -41250,7 +41250,7 @@
         <v>541</v>
       </c>
       <c r="B543" s="8" t="n">
-        <v>305.1125051612751</v>
+        <v>340.2042504147448</v>
       </c>
     </row>
     <row r="544">
@@ -41258,7 +41258,7 @@
         <v>542</v>
       </c>
       <c r="B544" s="8" t="n">
-        <v>269.9490320539953</v>
+        <v>546.5970214351178</v>
       </c>
     </row>
     <row r="545">
@@ -41266,7 +41266,7 @@
         <v>543</v>
       </c>
       <c r="B545" s="8" t="n">
-        <v>231.2479944593933</v>
+        <v>414.1993007834468</v>
       </c>
     </row>
     <row r="546">
@@ -41274,7 +41274,7 @@
         <v>544</v>
       </c>
       <c r="B546" s="8" t="n">
-        <v>470.9778056921846</v>
+        <v>327.7818494857986</v>
       </c>
     </row>
     <row r="547">
@@ -41282,7 +41282,7 @@
         <v>545</v>
       </c>
       <c r="B547" s="8" t="n">
-        <v>554.3548736522152</v>
+        <v>173.6543203073558</v>
       </c>
     </row>
     <row r="548">
@@ -41290,7 +41290,7 @@
         <v>546</v>
       </c>
       <c r="B548" s="8" t="n">
-        <v>587.0933322924478</v>
+        <v>519.6331849017777</v>
       </c>
     </row>
     <row r="549">
@@ -41298,7 +41298,7 @@
         <v>547</v>
       </c>
       <c r="B549" s="8" t="n">
-        <v>233.5674723300953</v>
+        <v>228.4983436252126</v>
       </c>
     </row>
     <row r="550">
@@ -41306,7 +41306,7 @@
         <v>548</v>
       </c>
       <c r="B550" s="8" t="n">
-        <v>591.0570270123964</v>
+        <v>310.5256123447731</v>
       </c>
     </row>
     <row r="551">
@@ -41314,7 +41314,7 @@
         <v>549</v>
       </c>
       <c r="B551" s="8" t="n">
-        <v>634.0719654749724</v>
+        <v>450.9000122048165</v>
       </c>
     </row>
     <row r="552">
@@ -41322,7 +41322,7 @@
         <v>550</v>
       </c>
       <c r="B552" s="8" t="n">
-        <v>689.2423046263918</v>
+        <v>534.0159025656594</v>
       </c>
     </row>
     <row r="553">
@@ -41330,7 +41330,7 @@
         <v>551</v>
       </c>
       <c r="B553" s="8" t="n">
-        <v>568.1139238759118</v>
+        <v>553.0282573398739</v>
       </c>
     </row>
     <row r="554">
@@ -41338,7 +41338,7 @@
         <v>552</v>
       </c>
       <c r="B554" s="8" t="n">
-        <v>588.700718740721</v>
+        <v>587.553382011658</v>
       </c>
     </row>
     <row r="555">
@@ -41346,7 +41346,7 @@
         <v>553</v>
       </c>
       <c r="B555" s="8" t="n">
-        <v>567.156135681231</v>
+        <v>418.7121429825291</v>
       </c>
     </row>
     <row r="556">
@@ -41354,7 +41354,7 @@
         <v>554</v>
       </c>
       <c r="B556" s="8" t="n">
-        <v>532.7502265308259</v>
+        <v>313.6618686965975</v>
       </c>
     </row>
     <row r="557">
@@ -41362,7 +41362,7 @@
         <v>555</v>
       </c>
       <c r="B557" s="8" t="n">
-        <v>410.1394858989619</v>
+        <v>392.6316795904881</v>
       </c>
     </row>
     <row r="558">
@@ -41370,7 +41370,7 @@
         <v>556</v>
       </c>
       <c r="B558" s="8" t="n">
-        <v>297.9256415801485</v>
+        <v>435.1195964209361</v>
       </c>
     </row>
     <row r="559">
@@ -41378,7 +41378,7 @@
         <v>557</v>
       </c>
       <c r="B559" s="8" t="n">
-        <v>180.7271927888915</v>
+        <v>329.9999082053183</v>
       </c>
     </row>
     <row r="560">
@@ -41386,7 +41386,7 @@
         <v>558</v>
       </c>
       <c r="B560" s="8" t="n">
-        <v>566.1158330690216</v>
+        <v>499.5537840651252</v>
       </c>
     </row>
     <row r="561">
@@ -41394,7 +41394,7 @@
         <v>559</v>
       </c>
       <c r="B561" s="8" t="n">
-        <v>518.667655207989</v>
+        <v>768.0263900910213</v>
       </c>
     </row>
     <row r="562">
@@ -41402,7 +41402,7 @@
         <v>560</v>
       </c>
       <c r="B562" s="8" t="n">
-        <v>723.2919721876608</v>
+        <v>446.7584319405253</v>
       </c>
     </row>
     <row r="563">
@@ -41410,7 +41410,7 @@
         <v>561</v>
       </c>
       <c r="B563" s="8" t="n">
-        <v>610.8355328313986</v>
+        <v>224.1652541633599</v>
       </c>
     </row>
     <row r="564">
@@ -41418,7 +41418,7 @@
         <v>562</v>
       </c>
       <c r="B564" s="8" t="n">
-        <v>626.7299024496542</v>
+        <v>318.4152268142419</v>
       </c>
     </row>
     <row r="565">
@@ -41426,7 +41426,7 @@
         <v>563</v>
       </c>
       <c r="B565" s="8" t="n">
-        <v>564.1743034757703</v>
+        <v>284.2998684343543</v>
       </c>
     </row>
     <row r="566">
@@ -41434,7 +41434,7 @@
         <v>564</v>
       </c>
       <c r="B566" s="8" t="n">
-        <v>520.1497186983208</v>
+        <v>263.2586853614844</v>
       </c>
     </row>
     <row r="567">
@@ -41442,7 +41442,7 @@
         <v>565</v>
       </c>
       <c r="B567" s="8" t="n">
-        <v>551.1565770953348</v>
+        <v>223.5574883221869</v>
       </c>
     </row>
     <row r="568">
@@ -41450,7 +41450,7 @@
         <v>566</v>
       </c>
       <c r="B568" s="8" t="n">
-        <v>196.3052232869769</v>
+        <v>456.5384066057055</v>
       </c>
     </row>
     <row r="569">
@@ -41458,7 +41458,7 @@
         <v>567</v>
       </c>
       <c r="B569" s="8" t="n">
-        <v>339.392065462681</v>
+        <v>292.6337670578477</v>
       </c>
     </row>
     <row r="570">
@@ -41466,7 +41466,7 @@
         <v>568</v>
       </c>
       <c r="B570" s="8" t="n">
-        <v>414.9335953155747</v>
+        <v>523.7066341046165</v>
       </c>
     </row>
     <row r="571">
@@ -41474,7 +41474,7 @@
         <v>569</v>
       </c>
       <c r="B571" s="8" t="n">
-        <v>398.8933207366479</v>
+        <v>339.1420737733321</v>
       </c>
     </row>
     <row r="572">
@@ -41482,7 +41482,7 @@
         <v>570</v>
       </c>
       <c r="B572" s="8" t="n">
-        <v>349.6576639552604</v>
+        <v>366.4024416022381</v>
       </c>
     </row>
     <row r="573">
@@ -41490,7 +41490,7 @@
         <v>571</v>
       </c>
       <c r="B573" s="8" t="n">
-        <v>429.7657602392975</v>
+        <v>419.0235488862748</v>
       </c>
     </row>
     <row r="574">
@@ -41498,7 +41498,7 @@
         <v>572</v>
       </c>
       <c r="B574" s="8" t="n">
-        <v>673.1380462048692</v>
+        <v>619.0826265335673</v>
       </c>
     </row>
     <row r="575">
@@ -41506,7 +41506,7 @@
         <v>573</v>
       </c>
       <c r="B575" s="8" t="n">
-        <v>572.8019586408957</v>
+        <v>526.489147783057</v>
       </c>
     </row>
     <row r="576">
@@ -41514,7 +41514,7 @@
         <v>574</v>
       </c>
       <c r="B576" s="8" t="n">
-        <v>297.1653290723128</v>
+        <v>475.156597062588</v>
       </c>
     </row>
     <row r="577">
@@ -41522,7 +41522,7 @@
         <v>575</v>
       </c>
       <c r="B577" s="8" t="n">
-        <v>525.9608051428912</v>
+        <v>494.0997756401928</v>
       </c>
     </row>
     <row r="578">
@@ -41530,7 +41530,7 @@
         <v>576</v>
       </c>
       <c r="B578" s="8" t="n">
-        <v>637.8730885505565</v>
+        <v>420.3244903405725</v>
       </c>
     </row>
     <row r="579">
@@ -41538,7 +41538,7 @@
         <v>577</v>
       </c>
       <c r="B579" s="8" t="n">
-        <v>491.0537527493348</v>
+        <v>537.0227308470868</v>
       </c>
     </row>
     <row r="580">
@@ -41546,7 +41546,7 @@
         <v>578</v>
       </c>
       <c r="B580" s="8" t="n">
-        <v>401.3890544053261</v>
+        <v>726.1442329582027</v>
       </c>
     </row>
     <row r="581">
@@ -41554,7 +41554,7 @@
         <v>579</v>
       </c>
       <c r="B581" s="8" t="n">
-        <v>413.0832042269798</v>
+        <v>588.8840607441283</v>
       </c>
     </row>
     <row r="582">
@@ -41562,7 +41562,7 @@
         <v>580</v>
       </c>
       <c r="B582" s="8" t="n">
-        <v>480.7187393405294</v>
+        <v>253.946327130428</v>
       </c>
     </row>
     <row r="583">
@@ -41570,7 +41570,7 @@
         <v>581</v>
       </c>
       <c r="B583" s="8" t="n">
-        <v>494.5859610132342</v>
+        <v>423.8321910756724</v>
       </c>
     </row>
     <row r="584">
@@ -41578,7 +41578,7 @@
         <v>582</v>
       </c>
       <c r="B584" s="8" t="n">
-        <v>463.3647873607903</v>
+        <v>378.2421773912548</v>
       </c>
     </row>
     <row r="585">
@@ -41586,7 +41586,7 @@
         <v>583</v>
       </c>
       <c r="B585" s="8" t="n">
-        <v>347.6200775640524</v>
+        <v>662.9161538365495</v>
       </c>
     </row>
     <row r="586">
@@ -41594,7 +41594,7 @@
         <v>584</v>
       </c>
       <c r="B586" s="8" t="n">
-        <v>543.4776280379098</v>
+        <v>525.8274023027506</v>
       </c>
     </row>
     <row r="587">
@@ -41602,7 +41602,7 @@
         <v>585</v>
       </c>
       <c r="B587" s="8" t="n">
-        <v>601.5907598023231</v>
+        <v>449.7648099656381</v>
       </c>
     </row>
     <row r="588">
@@ -41610,7 +41610,7 @@
         <v>586</v>
       </c>
       <c r="B588" s="8" t="n">
-        <v>351.4471813750662</v>
+        <v>318.2546379750244</v>
       </c>
     </row>
     <row r="589">
@@ -41618,7 +41618,7 @@
         <v>587</v>
       </c>
       <c r="B589" s="8" t="n">
-        <v>230.8631008761099</v>
+        <v>576.4144741297993</v>
       </c>
     </row>
     <row r="590">
@@ -41626,7 +41626,7 @@
         <v>588</v>
       </c>
       <c r="B590" s="8" t="n">
-        <v>612.1011135003993</v>
+        <v>360.2352520971737</v>
       </c>
     </row>
     <row r="591">
@@ -41634,7 +41634,7 @@
         <v>589</v>
       </c>
       <c r="B591" s="8" t="n">
-        <v>473.3870321938066</v>
+        <v>606.1726258675758</v>
       </c>
     </row>
     <row r="592">
@@ -41642,7 +41642,7 @@
         <v>590</v>
       </c>
       <c r="B592" s="8" t="n">
-        <v>656.9594662515966</v>
+        <v>155.1052176103615</v>
       </c>
     </row>
     <row r="593">
@@ -41650,7 +41650,7 @@
         <v>591</v>
       </c>
       <c r="B593" s="8" t="n">
-        <v>500.8104198557673</v>
+        <v>499.6970271740086</v>
       </c>
     </row>
     <row r="594">
@@ -41658,7 +41658,7 @@
         <v>592</v>
       </c>
       <c r="B594" s="8" t="n">
-        <v>626.4719023713383</v>
+        <v>425.2159609092599</v>
       </c>
     </row>
     <row r="595">
@@ -41666,7 +41666,7 @@
         <v>593</v>
       </c>
       <c r="B595" s="8" t="n">
-        <v>451.2148338380745</v>
+        <v>708.0025812858411</v>
       </c>
     </row>
     <row r="596">
@@ -41674,7 +41674,7 @@
         <v>594</v>
       </c>
       <c r="B596" s="8" t="n">
-        <v>573.8241256083548</v>
+        <v>711.7450095669635</v>
       </c>
     </row>
     <row r="597">
@@ -41682,7 +41682,7 @@
         <v>595</v>
       </c>
       <c r="B597" s="8" t="n">
-        <v>250.040671472368</v>
+        <v>654.3123441655764</v>
       </c>
     </row>
     <row r="598">
@@ -41690,7 +41690,7 @@
         <v>596</v>
       </c>
       <c r="B598" s="8" t="n">
-        <v>531.8443241689113</v>
+        <v>624.4095292589471</v>
       </c>
     </row>
     <row r="599">
@@ -41698,7 +41698,7 @@
         <v>597</v>
       </c>
       <c r="B599" s="8" t="n">
-        <v>454.1251367787651</v>
+        <v>595.9651064840376</v>
       </c>
     </row>
     <row r="600">
@@ -41706,7 +41706,7 @@
         <v>598</v>
       </c>
       <c r="B600" s="8" t="n">
-        <v>294.4620708499994</v>
+        <v>308.4069498376473</v>
       </c>
     </row>
     <row r="601">
@@ -41714,7 +41714,7 @@
         <v>599</v>
       </c>
       <c r="B601" s="8" t="n">
-        <v>613.6472922325497</v>
+        <v>662.1602365607275</v>
       </c>
     </row>
     <row r="602">
@@ -41722,7 +41722,7 @@
         <v>600</v>
       </c>
       <c r="B602" s="8" t="n">
-        <v>414.2406699555369</v>
+        <v>626.140764309982</v>
       </c>
     </row>
     <row r="603">
@@ -41730,7 +41730,7 @@
         <v>601</v>
       </c>
       <c r="B603" s="8" t="n">
-        <v>260.8986265673151</v>
+        <v>476.8437485800652</v>
       </c>
     </row>
     <row r="604">
@@ -41738,7 +41738,7 @@
         <v>602</v>
       </c>
       <c r="B604" s="8" t="n">
-        <v>410.6304035851731</v>
+        <v>281.6145653587034</v>
       </c>
     </row>
     <row r="605">
@@ -41746,7 +41746,7 @@
         <v>603</v>
       </c>
       <c r="B605" s="8" t="n">
-        <v>519.5291089295176</v>
+        <v>571.6186404764818</v>
       </c>
     </row>
     <row r="606">
@@ -41754,7 +41754,7 @@
         <v>604</v>
       </c>
       <c r="B606" s="8" t="n">
-        <v>409.5976916104527</v>
+        <v>479.2393704249107</v>
       </c>
     </row>
     <row r="607">
@@ -41762,7 +41762,7 @@
         <v>605</v>
       </c>
       <c r="B607" s="8" t="n">
-        <v>635.3659361153424</v>
+        <v>650.8856085262393</v>
       </c>
     </row>
     <row r="608">
@@ -41770,7 +41770,7 @@
         <v>606</v>
       </c>
       <c r="B608" s="8" t="n">
-        <v>422.7251810754924</v>
+        <v>473.13468577812</v>
       </c>
     </row>
     <row r="609">
@@ -41778,7 +41778,7 @@
         <v>607</v>
       </c>
       <c r="B609" s="8" t="n">
-        <v>405.8590371116425</v>
+        <v>217.102557199761</v>
       </c>
     </row>
     <row r="610">
@@ -41786,7 +41786,7 @@
         <v>608</v>
       </c>
       <c r="B610" s="8" t="n">
-        <v>484.3097995346378</v>
+        <v>512.3994902467927</v>
       </c>
     </row>
     <row r="611">
@@ -41794,7 +41794,7 @@
         <v>609</v>
       </c>
       <c r="B611" s="8" t="n">
-        <v>508.5946695732303</v>
+        <v>554.2055911660744</v>
       </c>
     </row>
     <row r="612">
@@ -41802,7 +41802,7 @@
         <v>610</v>
       </c>
       <c r="B612" s="8" t="n">
-        <v>477.4347756566278</v>
+        <v>525.1213044929592</v>
       </c>
     </row>
     <row r="613">
@@ -41810,7 +41810,7 @@
         <v>611</v>
       </c>
       <c r="B613" s="8" t="n">
-        <v>162.1117272988789</v>
+        <v>721.2980194967638</v>
       </c>
     </row>
     <row r="614">
@@ -41818,7 +41818,7 @@
         <v>612</v>
       </c>
       <c r="B614" s="8" t="n">
-        <v>419.9350661588269</v>
+        <v>436.6882397379509</v>
       </c>
     </row>
     <row r="615">
@@ -41826,7 +41826,7 @@
         <v>613</v>
       </c>
       <c r="B615" s="8" t="n">
-        <v>560.856809372063</v>
+        <v>415.9391182730167</v>
       </c>
     </row>
     <row r="616">
@@ -41834,7 +41834,7 @@
         <v>614</v>
       </c>
       <c r="B616" s="8" t="n">
-        <v>408.8234251905789</v>
+        <v>309.7062249714286</v>
       </c>
     </row>
     <row r="617">
@@ -41842,7 +41842,7 @@
         <v>615</v>
       </c>
       <c r="B617" s="8" t="n">
-        <v>402.2001990856951</v>
+        <v>359.4399020651952</v>
       </c>
     </row>
     <row r="618">
@@ -41850,7 +41850,7 @@
         <v>616</v>
       </c>
       <c r="B618" s="8" t="n">
-        <v>357.7462388781236</v>
+        <v>625.4561229574746</v>
       </c>
     </row>
     <row r="619">
@@ -41858,7 +41858,7 @@
         <v>617</v>
       </c>
       <c r="B619" s="8" t="n">
-        <v>535.4592419925403</v>
+        <v>374.8460523831735</v>
       </c>
     </row>
     <row r="620">
@@ -41866,7 +41866,7 @@
         <v>618</v>
       </c>
       <c r="B620" s="8" t="n">
-        <v>646.1406668463601</v>
+        <v>576.8707891734805</v>
       </c>
     </row>
     <row r="621">
@@ -41874,7 +41874,7 @@
         <v>619</v>
       </c>
       <c r="B621" s="8" t="n">
-        <v>407.7772022938867</v>
+        <v>707.8606184551106</v>
       </c>
     </row>
     <row r="622">
@@ -41882,7 +41882,7 @@
         <v>620</v>
       </c>
       <c r="B622" s="8" t="n">
-        <v>326.2992151872179</v>
+        <v>377.8966668097564</v>
       </c>
     </row>
     <row r="623">
@@ -41890,7 +41890,7 @@
         <v>621</v>
       </c>
       <c r="B623" s="8" t="n">
-        <v>568.9527658544366</v>
+        <v>362.8927288893014</v>
       </c>
     </row>
     <row r="624">
@@ -41898,7 +41898,7 @@
         <v>622</v>
       </c>
       <c r="B624" s="8" t="n">
-        <v>602.3079440898942</v>
+        <v>429.2758333147424</v>
       </c>
     </row>
     <row r="625">
@@ -41906,7 +41906,7 @@
         <v>623</v>
       </c>
       <c r="B625" s="8" t="n">
-        <v>189.730183191542</v>
+        <v>546.2260364622134</v>
       </c>
     </row>
     <row r="626">
@@ -41914,7 +41914,7 @@
         <v>624</v>
       </c>
       <c r="B626" s="8" t="n">
-        <v>367.6392702674931</v>
+        <v>537.8006121814485</v>
       </c>
     </row>
     <row r="627">
@@ -41922,7 +41922,7 @@
         <v>625</v>
       </c>
       <c r="B627" s="8" t="n">
-        <v>539.1407877066808</v>
+        <v>274.332922451931</v>
       </c>
     </row>
     <row r="628">
@@ -41930,7 +41930,7 @@
         <v>626</v>
       </c>
       <c r="B628" s="8" t="n">
-        <v>637.3714159104904</v>
+        <v>334.3874078182002</v>
       </c>
     </row>
     <row r="629">
@@ -41938,7 +41938,7 @@
         <v>627</v>
       </c>
       <c r="B629" s="8" t="n">
-        <v>296.056596726383</v>
+        <v>372.787805127111</v>
       </c>
     </row>
     <row r="630">
@@ -41946,7 +41946,7 @@
         <v>628</v>
       </c>
       <c r="B630" s="8" t="n">
-        <v>592.691168963322</v>
+        <v>387.046509750402</v>
       </c>
     </row>
     <row r="631">
@@ -41954,7 +41954,7 @@
         <v>629</v>
       </c>
       <c r="B631" s="8" t="n">
-        <v>343.9374058518158</v>
+        <v>665.0653638536621</v>
       </c>
     </row>
     <row r="632">
@@ -41962,7 +41962,7 @@
         <v>630</v>
       </c>
       <c r="B632" s="8" t="n">
-        <v>703.0138315841914</v>
+        <v>336.5790751184234</v>
       </c>
     </row>
     <row r="633">
@@ -41970,7 +41970,7 @@
         <v>631</v>
       </c>
       <c r="B633" s="8" t="n">
-        <v>621.1867490242132</v>
+        <v>388.9325399540618</v>
       </c>
     </row>
     <row r="634">
@@ -41978,7 +41978,7 @@
         <v>632</v>
       </c>
       <c r="B634" s="8" t="n">
-        <v>686.200925982458</v>
+        <v>391.4878433846009</v>
       </c>
     </row>
     <row r="635">
@@ -41986,7 +41986,7 @@
         <v>633</v>
       </c>
       <c r="B635" s="8" t="n">
-        <v>638.9882175500373</v>
+        <v>578.4215537114126</v>
       </c>
     </row>
     <row r="636">
@@ -41994,7 +41994,7 @@
         <v>634</v>
       </c>
       <c r="B636" s="8" t="n">
-        <v>654.279165955685</v>
+        <v>437.6162620932365</v>
       </c>
     </row>
     <row r="637">
@@ -42002,7 +42002,7 @@
         <v>635</v>
       </c>
       <c r="B637" s="8" t="n">
-        <v>545.5683898697984</v>
+        <v>615.9492353012198</v>
       </c>
     </row>
     <row r="638">
@@ -42010,7 +42010,7 @@
         <v>636</v>
       </c>
       <c r="B638" s="8" t="n">
-        <v>366.447673285812</v>
+        <v>353.4444799114259</v>
       </c>
     </row>
     <row r="639">
@@ -42018,7 +42018,7 @@
         <v>637</v>
       </c>
       <c r="B639" s="8" t="n">
-        <v>357.298802783261</v>
+        <v>632.785300372666</v>
       </c>
     </row>
     <row r="640">
@@ -42026,7 +42026,7 @@
         <v>638</v>
       </c>
       <c r="B640" s="8" t="n">
-        <v>91.30951117500757</v>
+        <v>425.2855833638708</v>
       </c>
     </row>
     <row r="641">
@@ -42034,7 +42034,7 @@
         <v>639</v>
       </c>
       <c r="B641" s="8" t="n">
-        <v>493.1331895563164</v>
+        <v>709.0036987110108</v>
       </c>
     </row>
     <row r="642">
@@ -42042,7 +42042,7 @@
         <v>640</v>
       </c>
       <c r="B642" s="8" t="n">
-        <v>302.7023006746389</v>
+        <v>390.8212426053337</v>
       </c>
     </row>
     <row r="643">
@@ -42050,7 +42050,7 @@
         <v>641</v>
       </c>
       <c r="B643" s="8" t="n">
-        <v>291.5707933064181</v>
+        <v>377.8408415874368</v>
       </c>
     </row>
     <row r="644">
@@ -42058,7 +42058,7 @@
         <v>642</v>
       </c>
       <c r="B644" s="8" t="n">
-        <v>602.0364541846092</v>
+        <v>143.1760140129394</v>
       </c>
     </row>
     <row r="645">
@@ -42066,7 +42066,7 @@
         <v>643</v>
       </c>
       <c r="B645" s="8" t="n">
-        <v>280.3297013995181</v>
+        <v>663.8142794773577</v>
       </c>
     </row>
     <row r="646">
@@ -42074,7 +42074,7 @@
         <v>644</v>
       </c>
       <c r="B646" s="8" t="n">
-        <v>614.1427928577889</v>
+        <v>539.5588576560657</v>
       </c>
     </row>
     <row r="647">
@@ -42082,7 +42082,7 @@
         <v>645</v>
       </c>
       <c r="B647" s="8" t="n">
-        <v>351.061242637113</v>
+        <v>504.2863334268035</v>
       </c>
     </row>
     <row r="648">
@@ -42090,7 +42090,7 @@
         <v>646</v>
       </c>
       <c r="B648" s="8" t="n">
-        <v>693.0321735920219</v>
+        <v>378.7984078496776</v>
       </c>
     </row>
     <row r="649">
@@ -42098,7 +42098,7 @@
         <v>647</v>
       </c>
       <c r="B649" s="8" t="n">
-        <v>455.8392642469155</v>
+        <v>441.7340705629375</v>
       </c>
     </row>
     <row r="650">
@@ -42106,7 +42106,7 @@
         <v>648</v>
       </c>
       <c r="B650" s="8" t="n">
-        <v>677.4335673162396</v>
+        <v>625.1916558626409</v>
       </c>
     </row>
     <row r="651">
@@ -42114,7 +42114,7 @@
         <v>649</v>
       </c>
       <c r="B651" s="8" t="n">
-        <v>354.7947567685352</v>
+        <v>561.7027441670331</v>
       </c>
     </row>
     <row r="652">
@@ -42122,7 +42122,7 @@
         <v>650</v>
       </c>
       <c r="B652" s="8" t="n">
-        <v>525.5579117050648</v>
+        <v>517.43609642648</v>
       </c>
     </row>
     <row r="653">
@@ -42130,7 +42130,7 @@
         <v>651</v>
       </c>
       <c r="B653" s="8" t="n">
-        <v>626.4453172636332</v>
+        <v>464.9515028411935</v>
       </c>
     </row>
     <row r="654">
@@ -42138,7 +42138,7 @@
         <v>652</v>
       </c>
       <c r="B654" s="8" t="n">
-        <v>370.0365506618974</v>
+        <v>433.3222262559288</v>
       </c>
     </row>
     <row r="655">
@@ -42146,7 +42146,7 @@
         <v>653</v>
       </c>
       <c r="B655" s="8" t="n">
-        <v>315.9934186762993</v>
+        <v>558.5979322958423</v>
       </c>
     </row>
     <row r="656">
@@ -42154,7 +42154,7 @@
         <v>654</v>
       </c>
       <c r="B656" s="8" t="n">
-        <v>410.0875986501079</v>
+        <v>197.0667466213134</v>
       </c>
     </row>
     <row r="657">
@@ -42162,7 +42162,7 @@
         <v>655</v>
       </c>
       <c r="B657" s="8" t="n">
-        <v>410.4861123752386</v>
+        <v>352.2438899947463</v>
       </c>
     </row>
     <row r="658">
@@ -42170,7 +42170,7 @@
         <v>656</v>
       </c>
       <c r="B658" s="8" t="n">
-        <v>357.7685786043018</v>
+        <v>702.5354897885654</v>
       </c>
     </row>
     <row r="659">
@@ -42178,7 +42178,7 @@
         <v>657</v>
       </c>
       <c r="B659" s="8" t="n">
-        <v>494.4320929982862</v>
+        <v>327.540199050942</v>
       </c>
     </row>
     <row r="660">
@@ -42186,7 +42186,7 @@
         <v>658</v>
       </c>
       <c r="B660" s="8" t="n">
-        <v>156.9188266870424</v>
+        <v>442.1080131402327</v>
       </c>
     </row>
     <row r="661">
@@ -42194,7 +42194,7 @@
         <v>659</v>
       </c>
       <c r="B661" s="8" t="n">
-        <v>458.6605599395385</v>
+        <v>375.0494914515991</v>
       </c>
     </row>
     <row r="662">
@@ -42202,7 +42202,7 @@
         <v>660</v>
       </c>
       <c r="B662" s="8" t="n">
-        <v>340.3183738215979</v>
+        <v>519.8647099280248</v>
       </c>
     </row>
     <row r="663">
@@ -42210,7 +42210,7 @@
         <v>661</v>
       </c>
       <c r="B663" s="8" t="n">
-        <v>567.0859746852168</v>
+        <v>641.64792508501</v>
       </c>
     </row>
     <row r="664">
@@ -42218,7 +42218,7 @@
         <v>662</v>
       </c>
       <c r="B664" s="8" t="n">
-        <v>301.8146559479595</v>
+        <v>345.02204873392</v>
       </c>
     </row>
     <row r="665">
@@ -42226,7 +42226,7 @@
         <v>663</v>
       </c>
       <c r="B665" s="8" t="n">
-        <v>290.7126955152137</v>
+        <v>413.1479648004778</v>
       </c>
     </row>
     <row r="666">
@@ -42234,7 +42234,7 @@
         <v>664</v>
       </c>
       <c r="B666" s="8" t="n">
-        <v>595.4297141595057</v>
+        <v>535.3243867828523</v>
       </c>
     </row>
     <row r="667">
@@ -42242,7 +42242,7 @@
         <v>665</v>
       </c>
       <c r="B667" s="8" t="n">
-        <v>418.3168954271289</v>
+        <v>339.0818275405957</v>
       </c>
     </row>
     <row r="668">
@@ -42250,7 +42250,7 @@
         <v>666</v>
       </c>
       <c r="B668" s="8" t="n">
-        <v>470.6417351669842</v>
+        <v>639.5430380269046</v>
       </c>
     </row>
     <row r="669">
@@ -42258,7 +42258,7 @@
         <v>667</v>
       </c>
       <c r="B669" s="8" t="n">
-        <v>669.2660094996186</v>
+        <v>240.6733110435929</v>
       </c>
     </row>
     <row r="670">
@@ -42266,7 +42266,7 @@
         <v>668</v>
       </c>
       <c r="B670" s="8" t="n">
-        <v>479.9802339551174</v>
+        <v>369.1700571166589</v>
       </c>
     </row>
     <row r="671">
@@ -42274,7 +42274,7 @@
         <v>669</v>
       </c>
       <c r="B671" s="8" t="n">
-        <v>370.7881129978161</v>
+        <v>376.000588989782</v>
       </c>
     </row>
     <row r="672">
@@ -42282,7 +42282,7 @@
         <v>670</v>
       </c>
       <c r="B672" s="8" t="n">
-        <v>427.5911643630024</v>
+        <v>444.7622256045136</v>
       </c>
     </row>
     <row r="673">
@@ -42290,7 +42290,7 @@
         <v>671</v>
       </c>
       <c r="B673" s="8" t="n">
-        <v>632.9436220943434</v>
+        <v>508.505300246198</v>
       </c>
     </row>
     <row r="674">
@@ -42298,7 +42298,7 @@
         <v>672</v>
       </c>
       <c r="B674" s="8" t="n">
-        <v>691.4304619153643</v>
+        <v>390.2968424251401</v>
       </c>
     </row>
     <row r="675">
@@ -42306,7 +42306,7 @@
         <v>673</v>
       </c>
       <c r="B675" s="8" t="n">
-        <v>578.5408901964488</v>
+        <v>634.2209926424347</v>
       </c>
     </row>
     <row r="676">
@@ -42314,7 +42314,7 @@
         <v>674</v>
       </c>
       <c r="B676" s="8" t="n">
-        <v>248.4840191972188</v>
+        <v>240.6182928077083</v>
       </c>
     </row>
     <row r="677">
@@ -42322,7 +42322,7 @@
         <v>675</v>
       </c>
       <c r="B677" s="8" t="n">
-        <v>501.2565157502639</v>
+        <v>233.8545873142339</v>
       </c>
     </row>
     <row r="678">
@@ -42330,7 +42330,7 @@
         <v>676</v>
       </c>
       <c r="B678" s="8" t="n">
-        <v>586.7755878825243</v>
+        <v>256.5024732135305</v>
       </c>
     </row>
     <row r="679">
@@ -42338,7 +42338,7 @@
         <v>677</v>
       </c>
       <c r="B679" s="8" t="n">
-        <v>204.6564930281261</v>
+        <v>733.3026698299548</v>
       </c>
     </row>
     <row r="680">
@@ -42346,7 +42346,7 @@
         <v>678</v>
       </c>
       <c r="B680" s="8" t="n">
-        <v>626.1407326536713</v>
+        <v>606.635220988825</v>
       </c>
     </row>
     <row r="681">
@@ -42354,7 +42354,7 @@
         <v>679</v>
       </c>
       <c r="B681" s="8" t="n">
-        <v>365.3230927474743</v>
+        <v>246.1112371098379</v>
       </c>
     </row>
     <row r="682">
@@ -42362,7 +42362,7 @@
         <v>680</v>
       </c>
       <c r="B682" s="8" t="n">
-        <v>518.063807368384</v>
+        <v>590.0571256932882</v>
       </c>
     </row>
     <row r="683">
@@ -42370,7 +42370,7 @@
         <v>681</v>
       </c>
       <c r="B683" s="8" t="n">
-        <v>681.300332300386</v>
+        <v>545.4830158993102</v>
       </c>
     </row>
     <row r="684">
@@ -42378,7 +42378,7 @@
         <v>682</v>
       </c>
       <c r="B684" s="8" t="n">
-        <v>340.6124412844088</v>
+        <v>319.297760349822</v>
       </c>
     </row>
     <row r="685">
@@ -42386,7 +42386,7 @@
         <v>683</v>
       </c>
       <c r="B685" s="8" t="n">
-        <v>519.949572869431</v>
+        <v>410.6814843873386</v>
       </c>
     </row>
     <row r="686">
@@ -42394,7 +42394,7 @@
         <v>684</v>
       </c>
       <c r="B686" s="8" t="n">
-        <v>195.2619954111226</v>
+        <v>476.7616472274883</v>
       </c>
     </row>
     <row r="687">
@@ -42402,7 +42402,7 @@
         <v>685</v>
       </c>
       <c r="B687" s="8" t="n">
-        <v>641.4253545130492</v>
+        <v>585.8725748674391</v>
       </c>
     </row>
     <row r="688">
@@ -42410,7 +42410,7 @@
         <v>686</v>
       </c>
       <c r="B688" s="8" t="n">
-        <v>592.0242014393734</v>
+        <v>705.4355535471257</v>
       </c>
     </row>
     <row r="689">
@@ -42418,7 +42418,7 @@
         <v>687</v>
       </c>
       <c r="B689" s="8" t="n">
-        <v>435.5745232385452</v>
+        <v>315.2209571668844</v>
       </c>
     </row>
     <row r="690">
@@ -42426,7 +42426,7 @@
         <v>688</v>
       </c>
       <c r="B690" s="8" t="n">
-        <v>678.9600073031074</v>
+        <v>525.3885524640635</v>
       </c>
     </row>
     <row r="691">
@@ -42434,7 +42434,7 @@
         <v>689</v>
       </c>
       <c r="B691" s="8" t="n">
-        <v>425.7903373652097</v>
+        <v>575.5889295437142</v>
       </c>
     </row>
     <row r="692">
@@ -42442,7 +42442,7 @@
         <v>690</v>
       </c>
       <c r="B692" s="8" t="n">
-        <v>627.6029178482153</v>
+        <v>648.8308798566504</v>
       </c>
     </row>
     <row r="693">
@@ -42450,7 +42450,7 @@
         <v>691</v>
       </c>
       <c r="B693" s="8" t="n">
-        <v>413.5824145402257</v>
+        <v>658.0019469076913</v>
       </c>
     </row>
     <row r="694">
@@ -42458,7 +42458,7 @@
         <v>692</v>
       </c>
       <c r="B694" s="8" t="n">
-        <v>460.7696076534683</v>
+        <v>514.3489607775132</v>
       </c>
     </row>
     <row r="695">
@@ -42466,7 +42466,7 @@
         <v>693</v>
       </c>
       <c r="B695" s="8" t="n">
-        <v>565.7145715525926</v>
+        <v>563.3670633842059</v>
       </c>
     </row>
     <row r="696">
@@ -42474,7 +42474,7 @@
         <v>694</v>
       </c>
       <c r="B696" s="8" t="n">
-        <v>242.8640888310054</v>
+        <v>584.8025790082266</v>
       </c>
     </row>
     <row r="697">
@@ -42482,7 +42482,7 @@
         <v>695</v>
       </c>
       <c r="B697" s="8" t="n">
-        <v>311.6011026407533</v>
+        <v>651.3887632167412</v>
       </c>
     </row>
     <row r="698">
@@ -42490,7 +42490,7 @@
         <v>696</v>
       </c>
       <c r="B698" s="8" t="n">
-        <v>593.888648735876</v>
+        <v>461.230771627866</v>
       </c>
     </row>
     <row r="699">
@@ -42498,7 +42498,7 @@
         <v>697</v>
       </c>
       <c r="B699" s="8" t="n">
-        <v>484.7257986884379</v>
+        <v>777.1370834758683</v>
       </c>
     </row>
     <row r="700">
@@ -42506,7 +42506,7 @@
         <v>698</v>
       </c>
       <c r="B700" s="8" t="n">
-        <v>250.8568163179807</v>
+        <v>254.1177183696182</v>
       </c>
     </row>
     <row r="701">
@@ -42514,7 +42514,7 @@
         <v>699</v>
       </c>
       <c r="B701" s="8" t="n">
-        <v>613.5568342069503</v>
+        <v>434.4550111288906</v>
       </c>
     </row>
     <row r="702">
@@ -42522,7 +42522,7 @@
         <v>700</v>
       </c>
       <c r="B702" s="8" t="n">
-        <v>590.8010974770964</v>
+        <v>393.8833108563206</v>
       </c>
     </row>
     <row r="703">
@@ -42530,7 +42530,7 @@
         <v>701</v>
       </c>
       <c r="B703" s="8" t="n">
-        <v>294.9863084418261</v>
+        <v>494.0965798885092</v>
       </c>
     </row>
     <row r="704">
@@ -42538,7 +42538,7 @@
         <v>702</v>
       </c>
       <c r="B704" s="8" t="n">
-        <v>628.6191758607408</v>
+        <v>606.2613417116049</v>
       </c>
     </row>
     <row r="705">
@@ -42546,7 +42546,7 @@
         <v>703</v>
       </c>
       <c r="B705" s="8" t="n">
-        <v>598.7543068631584</v>
+        <v>510.6809707311022</v>
       </c>
     </row>
     <row r="706">
@@ -42554,7 +42554,7 @@
         <v>704</v>
       </c>
       <c r="B706" s="8" t="n">
-        <v>410.2890525843064</v>
+        <v>713.111354647609</v>
       </c>
     </row>
     <row r="707">
@@ -42562,7 +42562,7 @@
         <v>705</v>
       </c>
       <c r="B707" s="8" t="n">
-        <v>415.3696662677976</v>
+        <v>657.4077866839348</v>
       </c>
     </row>
     <row r="708">
@@ -42570,7 +42570,7 @@
         <v>706</v>
       </c>
       <c r="B708" s="8" t="n">
-        <v>571.2415086075933</v>
+        <v>623.6751178910882</v>
       </c>
     </row>
     <row r="709">
@@ -42578,7 +42578,7 @@
         <v>707</v>
       </c>
       <c r="B709" s="8" t="n">
-        <v>491.3109319092218</v>
+        <v>512.2111366854072</v>
       </c>
     </row>
     <row r="710">
@@ -42586,7 +42586,7 @@
         <v>708</v>
       </c>
       <c r="B710" s="8" t="n">
-        <v>700.0859309211644</v>
+        <v>524.3596118354293</v>
       </c>
     </row>
     <row r="711">
@@ -42594,7 +42594,7 @@
         <v>709</v>
       </c>
       <c r="B711" s="8" t="n">
-        <v>402.0757717852514</v>
+        <v>632.4096742474968</v>
       </c>
     </row>
     <row r="712">
@@ -42602,7 +42602,7 @@
         <v>710</v>
       </c>
       <c r="B712" s="8" t="n">
-        <v>709.5334305489174</v>
+        <v>476.2370994237318</v>
       </c>
     </row>
     <row r="713">
@@ -42610,7 +42610,7 @@
         <v>711</v>
       </c>
       <c r="B713" s="8" t="n">
-        <v>405.5893684746568</v>
+        <v>650.7761804630674</v>
       </c>
     </row>
     <row r="714">
@@ -42618,7 +42618,7 @@
         <v>712</v>
       </c>
       <c r="B714" s="8" t="n">
-        <v>581.3221858157516</v>
+        <v>434.0490386991539</v>
       </c>
     </row>
     <row r="715">
@@ -42626,7 +42626,7 @@
         <v>713</v>
       </c>
       <c r="B715" s="8" t="n">
-        <v>426.2567814323081</v>
+        <v>444.5554649437606</v>
       </c>
     </row>
     <row r="716">
@@ -42634,7 +42634,7 @@
         <v>714</v>
       </c>
       <c r="B716" s="8" t="n">
-        <v>290.9273081608071</v>
+        <v>522.9337397492523</v>
       </c>
     </row>
     <row r="717">
@@ -42642,7 +42642,7 @@
         <v>715</v>
       </c>
       <c r="B717" s="8" t="n">
-        <v>274.0054380865412</v>
+        <v>532.0543712173289</v>
       </c>
     </row>
     <row r="718">
@@ -42650,7 +42650,7 @@
         <v>716</v>
       </c>
       <c r="B718" s="8" t="n">
-        <v>612.7054490479726</v>
+        <v>543.8831805708071</v>
       </c>
     </row>
     <row r="719">
@@ -42658,7 +42658,7 @@
         <v>717</v>
       </c>
       <c r="B719" s="8" t="n">
-        <v>552.2665485265683</v>
+        <v>581.3360680868354</v>
       </c>
     </row>
     <row r="720">
@@ -42666,7 +42666,7 @@
         <v>718</v>
       </c>
       <c r="B720" s="8" t="n">
-        <v>596.6331039666214</v>
+        <v>416.496881071543</v>
       </c>
     </row>
     <row r="721">
@@ -42674,7 +42674,7 @@
         <v>719</v>
       </c>
       <c r="B721" s="8" t="n">
-        <v>404.9148145316086</v>
+        <v>296.9990045300468</v>
       </c>
     </row>
     <row r="722">
@@ -42682,7 +42682,7 @@
         <v>720</v>
       </c>
       <c r="B722" s="8" t="n">
-        <v>280.1909378838089</v>
+        <v>385.3247110913391</v>
       </c>
     </row>
     <row r="723">
@@ -42690,7 +42690,7 @@
         <v>721</v>
       </c>
       <c r="B723" s="8" t="n">
-        <v>246.639975956098</v>
+        <v>553.5645426220876</v>
       </c>
     </row>
     <row r="724">
@@ -42698,7 +42698,7 @@
         <v>722</v>
       </c>
       <c r="B724" s="8" t="n">
-        <v>357.0123564589799</v>
+        <v>249.0408901804222</v>
       </c>
     </row>
     <row r="725">
@@ -42706,7 +42706,7 @@
         <v>723</v>
       </c>
       <c r="B725" s="8" t="n">
-        <v>510.7885981235785</v>
+        <v>646.3606826610085</v>
       </c>
     </row>
     <row r="726">
@@ -42714,7 +42714,7 @@
         <v>724</v>
       </c>
       <c r="B726" s="8" t="n">
-        <v>513.8059793020725</v>
+        <v>672.1971232299437</v>
       </c>
     </row>
     <row r="727">
@@ -42722,7 +42722,7 @@
         <v>725</v>
       </c>
       <c r="B727" s="8" t="n">
-        <v>581.9464860894176</v>
+        <v>626.73544516262</v>
       </c>
     </row>
     <row r="728">
@@ -42730,7 +42730,7 @@
         <v>726</v>
       </c>
       <c r="B728" s="8" t="n">
-        <v>657.9928311296517</v>
+        <v>374.2226574388317</v>
       </c>
     </row>
     <row r="729">
@@ -42738,7 +42738,7 @@
         <v>727</v>
       </c>
       <c r="B729" s="8" t="n">
-        <v>366.0990238071472</v>
+        <v>397.9865645758893</v>
       </c>
     </row>
     <row r="730">
@@ -42746,7 +42746,7 @@
         <v>728</v>
       </c>
       <c r="B730" s="8" t="n">
-        <v>336.3091843069488</v>
+        <v>427.6936633672498</v>
       </c>
     </row>
     <row r="731">
@@ -42754,7 +42754,7 @@
         <v>729</v>
       </c>
       <c r="B731" s="8" t="n">
-        <v>510.2007688314631</v>
+        <v>612.7102137953675</v>
       </c>
     </row>
     <row r="732">
@@ -42762,7 +42762,7 @@
         <v>730</v>
       </c>
       <c r="B732" s="8" t="n">
-        <v>454.2400073270822</v>
+        <v>328.4815766740628</v>
       </c>
     </row>
     <row r="733">
@@ -42770,7 +42770,7 @@
         <v>731</v>
       </c>
       <c r="B733" s="8" t="n">
-        <v>430.264836075911</v>
+        <v>605.4586477446232</v>
       </c>
     </row>
     <row r="734">
@@ -42778,7 +42778,7 @@
         <v>732</v>
       </c>
       <c r="B734" s="8" t="n">
-        <v>372.7083634609293</v>
+        <v>306.1392959818911</v>
       </c>
     </row>
     <row r="735">
@@ -42786,7 +42786,7 @@
         <v>733</v>
       </c>
       <c r="B735" s="8" t="n">
-        <v>650.1773306947262</v>
+        <v>234.7267287149435</v>
       </c>
     </row>
     <row r="736">
@@ -42794,7 +42794,7 @@
         <v>734</v>
       </c>
       <c r="B736" s="8" t="n">
-        <v>593.1916481905241</v>
+        <v>629.198475553231</v>
       </c>
     </row>
     <row r="737">
@@ -42802,7 +42802,7 @@
         <v>735</v>
       </c>
       <c r="B737" s="8" t="n">
-        <v>603.9675452190423</v>
+        <v>343.547138740919</v>
       </c>
     </row>
     <row r="738">
@@ -42810,7 +42810,7 @@
         <v>736</v>
       </c>
       <c r="B738" s="8" t="n">
-        <v>366.6566135370932</v>
+        <v>509.3591087385117</v>
       </c>
     </row>
     <row r="739">
@@ -42818,7 +42818,7 @@
         <v>737</v>
       </c>
       <c r="B739" s="8" t="n">
-        <v>612.4367351732973</v>
+        <v>575.0459382064215</v>
       </c>
     </row>
     <row r="740">
@@ -42826,7 +42826,7 @@
         <v>738</v>
       </c>
       <c r="B740" s="8" t="n">
-        <v>488.1430089033459</v>
+        <v>641.0037971922047</v>
       </c>
     </row>
     <row r="741">
@@ -42834,7 +42834,7 @@
         <v>739</v>
       </c>
       <c r="B741" s="8" t="n">
-        <v>693.6156189840998</v>
+        <v>428.3459019267857</v>
       </c>
     </row>
     <row r="742">
@@ -42842,7 +42842,7 @@
         <v>740</v>
       </c>
       <c r="B742" s="8" t="n">
-        <v>147.6658315088825</v>
+        <v>239.3879545108368</v>
       </c>
     </row>
     <row r="743">
@@ -42850,7 +42850,7 @@
         <v>741</v>
       </c>
       <c r="B743" s="8" t="n">
-        <v>512.070374840688</v>
+        <v>249.6152734394732</v>
       </c>
     </row>
     <row r="744">
@@ -42858,7 +42858,7 @@
         <v>742</v>
       </c>
       <c r="B744" s="8" t="n">
-        <v>285.2218172767447</v>
+        <v>363.1448551980725</v>
       </c>
     </row>
     <row r="745">
@@ -42866,7 +42866,7 @@
         <v>743</v>
       </c>
       <c r="B745" s="8" t="n">
-        <v>301.3410530006037</v>
+        <v>453.6478015243173</v>
       </c>
     </row>
     <row r="746">
@@ -42874,7 +42874,7 @@
         <v>744</v>
       </c>
       <c r="B746" s="8" t="n">
-        <v>393.6219040082406</v>
+        <v>518.3845010704451</v>
       </c>
     </row>
     <row r="747">
@@ -42882,7 +42882,7 @@
         <v>745</v>
       </c>
       <c r="B747" s="8" t="n">
-        <v>568.2287199687386</v>
+        <v>615.038850585398</v>
       </c>
     </row>
     <row r="748">
@@ -42890,7 +42890,7 @@
         <v>746</v>
       </c>
       <c r="B748" s="8" t="n">
-        <v>653.7910828099991</v>
+        <v>496.2976547016304</v>
       </c>
     </row>
     <row r="749">
@@ -42898,7 +42898,7 @@
         <v>747</v>
       </c>
       <c r="B749" s="8" t="n">
-        <v>218.9678901825256</v>
+        <v>592.2735282953565</v>
       </c>
     </row>
     <row r="750">
@@ -42906,7 +42906,7 @@
         <v>748</v>
       </c>
       <c r="B750" s="8" t="n">
-        <v>394.0089349184125</v>
+        <v>697.7773980832014</v>
       </c>
     </row>
     <row r="751">
@@ -42914,7 +42914,7 @@
         <v>749</v>
       </c>
       <c r="B751" s="8" t="n">
-        <v>615.836772967324</v>
+        <v>527.0860379408925</v>
       </c>
     </row>
     <row r="752">
@@ -42922,7 +42922,7 @@
         <v>750</v>
       </c>
       <c r="B752" s="8" t="n">
-        <v>459.1245509764939</v>
+        <v>607.430194111239</v>
       </c>
     </row>
     <row r="753">
@@ -42930,7 +42930,7 @@
         <v>751</v>
       </c>
       <c r="B753" s="8" t="n">
-        <v>421.2998503092488</v>
+        <v>735.7775520134618</v>
       </c>
     </row>
     <row r="754">
@@ -42938,7 +42938,7 @@
         <v>752</v>
       </c>
       <c r="B754" s="8" t="n">
-        <v>398.0122568216324</v>
+        <v>323.3089377190942</v>
       </c>
     </row>
     <row r="755">
@@ -42946,7 +42946,7 @@
         <v>753</v>
       </c>
       <c r="B755" s="8" t="n">
-        <v>199.5413137268197</v>
+        <v>485.9673897530242</v>
       </c>
     </row>
     <row r="756">
@@ -42954,7 +42954,7 @@
         <v>754</v>
       </c>
       <c r="B756" s="8" t="n">
-        <v>572.177441639417</v>
+        <v>435.0660023637615</v>
       </c>
     </row>
     <row r="757">
@@ -42962,7 +42962,7 @@
         <v>755</v>
       </c>
       <c r="B757" s="8" t="n">
-        <v>300.1447533707863</v>
+        <v>259.0775079524507</v>
       </c>
     </row>
     <row r="758">
@@ -42970,7 +42970,7 @@
         <v>756</v>
       </c>
       <c r="B758" s="8" t="n">
-        <v>669.6333896616351</v>
+        <v>407.407995129681</v>
       </c>
     </row>
     <row r="759">
@@ -42978,7 +42978,7 @@
         <v>757</v>
       </c>
       <c r="B759" s="8" t="n">
-        <v>518.679195197603</v>
+        <v>528.6737335601746</v>
       </c>
     </row>
     <row r="760">
@@ -42986,7 +42986,7 @@
         <v>758</v>
       </c>
       <c r="B760" s="8" t="n">
-        <v>271.3040063131175</v>
+        <v>305.7125090859753</v>
       </c>
     </row>
     <row r="761">
@@ -42994,7 +42994,7 @@
         <v>759</v>
       </c>
       <c r="B761" s="8" t="n">
-        <v>466.4711448421718</v>
+        <v>406.8296486028702</v>
       </c>
     </row>
     <row r="762">
@@ -43002,7 +43002,7 @@
         <v>760</v>
       </c>
       <c r="B762" s="8" t="n">
-        <v>626.8701870007768</v>
+        <v>715.9713083767175</v>
       </c>
     </row>
     <row r="763">
@@ -43010,7 +43010,7 @@
         <v>761</v>
       </c>
       <c r="B763" s="8" t="n">
-        <v>710.64523752226</v>
+        <v>335.6937690666672</v>
       </c>
     </row>
     <row r="764">
@@ -43018,7 +43018,7 @@
         <v>762</v>
       </c>
       <c r="B764" s="8" t="n">
-        <v>615.6483206425934</v>
+        <v>507.0725115043949</v>
       </c>
     </row>
     <row r="765">
@@ -43026,7 +43026,7 @@
         <v>763</v>
       </c>
       <c r="B765" s="8" t="n">
-        <v>599.924893412482</v>
+        <v>456.6862467197521</v>
       </c>
     </row>
     <row r="766">
@@ -43034,7 +43034,7 @@
         <v>764</v>
       </c>
       <c r="B766" s="8" t="n">
-        <v>297.8489789686857</v>
+        <v>684.8546447739778</v>
       </c>
     </row>
     <row r="767">
@@ -43042,7 +43042,7 @@
         <v>765</v>
       </c>
       <c r="B767" s="8" t="n">
-        <v>246.8408540381629</v>
+        <v>545.0864826432888</v>
       </c>
     </row>
     <row r="768">
@@ -43050,7 +43050,7 @@
         <v>766</v>
       </c>
       <c r="B768" s="8" t="n">
-        <v>623.2047746215748</v>
+        <v>480.4236446811458</v>
       </c>
     </row>
     <row r="769">
@@ -43058,7 +43058,7 @@
         <v>767</v>
       </c>
       <c r="B769" s="8" t="n">
-        <v>566.1609118994154</v>
+        <v>354.4169971729824</v>
       </c>
     </row>
     <row r="770">
@@ -43066,7 +43066,7 @@
         <v>768</v>
       </c>
       <c r="B770" s="8" t="n">
-        <v>473.3989873823731</v>
+        <v>528.3176478433761</v>
       </c>
     </row>
     <row r="771">
@@ -43074,7 +43074,7 @@
         <v>769</v>
       </c>
       <c r="B771" s="8" t="n">
-        <v>529.8316742467323</v>
+        <v>192.5511128612359</v>
       </c>
     </row>
     <row r="772">
@@ -43082,7 +43082,7 @@
         <v>770</v>
       </c>
       <c r="B772" s="8" t="n">
-        <v>565.4398732587736</v>
+        <v>569.4369495274865</v>
       </c>
     </row>
     <row r="773">
@@ -43090,7 +43090,7 @@
         <v>771</v>
       </c>
       <c r="B773" s="8" t="n">
-        <v>304.3473482420356</v>
+        <v>612.985903362267</v>
       </c>
     </row>
     <row r="774">
@@ -43098,7 +43098,7 @@
         <v>772</v>
       </c>
       <c r="B774" s="8" t="n">
-        <v>266.9152353289996</v>
+        <v>553.3188703779214</v>
       </c>
     </row>
     <row r="775">
@@ -43106,7 +43106,7 @@
         <v>773</v>
       </c>
       <c r="B775" s="8" t="n">
-        <v>477.7070627243369</v>
+        <v>256.9420478565286</v>
       </c>
     </row>
     <row r="776">
@@ -43114,7 +43114,7 @@
         <v>774</v>
       </c>
       <c r="B776" s="8" t="n">
-        <v>415.7091238740928</v>
+        <v>513.7647963366577</v>
       </c>
     </row>
     <row r="777">
@@ -43122,7 +43122,7 @@
         <v>775</v>
       </c>
       <c r="B777" s="8" t="n">
-        <v>172.6738664643565</v>
+        <v>389.5653692386519</v>
       </c>
     </row>
     <row r="778">
@@ -43130,7 +43130,7 @@
         <v>776</v>
       </c>
       <c r="B778" s="8" t="n">
-        <v>784.6822618124548</v>
+        <v>519.5695337052592</v>
       </c>
     </row>
     <row r="779">
@@ -43138,7 +43138,7 @@
         <v>777</v>
       </c>
       <c r="B779" s="8" t="n">
-        <v>633.2708034785619</v>
+        <v>295.6924906380673</v>
       </c>
     </row>
     <row r="780">
@@ -43146,7 +43146,7 @@
         <v>778</v>
       </c>
       <c r="B780" s="8" t="n">
-        <v>609.3489333792203</v>
+        <v>651.8436631071969</v>
       </c>
     </row>
     <row r="781">
@@ -43154,7 +43154,7 @@
         <v>779</v>
       </c>
       <c r="B781" s="8" t="n">
-        <v>373.3082465124467</v>
+        <v>607.7735651843911</v>
       </c>
     </row>
     <row r="782">
@@ -43162,7 +43162,7 @@
         <v>780</v>
       </c>
       <c r="B782" s="8" t="n">
-        <v>321.1908374557308</v>
+        <v>167.6420154214547</v>
       </c>
     </row>
     <row r="783">
@@ -43170,7 +43170,7 @@
         <v>781</v>
       </c>
       <c r="B783" s="8" t="n">
-        <v>378.8327989580725</v>
+        <v>519.6067287964144</v>
       </c>
     </row>
     <row r="784">
@@ -43178,7 +43178,7 @@
         <v>782</v>
       </c>
       <c r="B784" s="8" t="n">
-        <v>421.8558590102483</v>
+        <v>548.9037274081395</v>
       </c>
     </row>
     <row r="785">
@@ -43186,7 +43186,7 @@
         <v>783</v>
       </c>
       <c r="B785" s="8" t="n">
-        <v>620.5224480798923</v>
+        <v>344.6431108422106</v>
       </c>
     </row>
     <row r="786">
@@ -43194,7 +43194,7 @@
         <v>784</v>
       </c>
       <c r="B786" s="8" t="n">
-        <v>330.2245421364763</v>
+        <v>240.9295451298131</v>
       </c>
     </row>
     <row r="787">
@@ -43202,7 +43202,7 @@
         <v>785</v>
       </c>
       <c r="B787" s="8" t="n">
-        <v>644.3856573450745</v>
+        <v>594.518294575131</v>
       </c>
     </row>
     <row r="788">
@@ -43210,7 +43210,7 @@
         <v>786</v>
       </c>
       <c r="B788" s="8" t="n">
-        <v>445.1328051453299</v>
+        <v>220.1566776386782</v>
       </c>
     </row>
     <row r="789">
@@ -43218,7 +43218,7 @@
         <v>787</v>
       </c>
       <c r="B789" s="8" t="n">
-        <v>634.7127232753339</v>
+        <v>586.8802520459244</v>
       </c>
     </row>
     <row r="790">
@@ -43226,7 +43226,7 @@
         <v>788</v>
       </c>
       <c r="B790" s="8" t="n">
-        <v>643.7983478563468</v>
+        <v>584.8510376927396</v>
       </c>
     </row>
     <row r="791">
@@ -43234,7 +43234,7 @@
         <v>789</v>
       </c>
       <c r="B791" s="8" t="n">
-        <v>532.940455084687</v>
+        <v>698.4372389246155</v>
       </c>
     </row>
     <row r="792">
@@ -43242,7 +43242,7 @@
         <v>790</v>
       </c>
       <c r="B792" s="8" t="n">
-        <v>513.3720585863018</v>
+        <v>705.724935771019</v>
       </c>
     </row>
     <row r="793">
@@ -43250,7 +43250,7 @@
         <v>791</v>
       </c>
       <c r="B793" s="8" t="n">
-        <v>468.6798921688793</v>
+        <v>218.3387351287666</v>
       </c>
     </row>
     <row r="794">
@@ -43258,7 +43258,7 @@
         <v>792</v>
       </c>
       <c r="B794" s="8" t="n">
-        <v>477.584732916141</v>
+        <v>433.1732763456646</v>
       </c>
     </row>
     <row r="795">
@@ -43266,7 +43266,7 @@
         <v>793</v>
       </c>
       <c r="B795" s="8" t="n">
-        <v>234.7921373743395</v>
+        <v>561.2219259010006</v>
       </c>
     </row>
     <row r="796">
@@ -43274,7 +43274,7 @@
         <v>794</v>
       </c>
       <c r="B796" s="8" t="n">
-        <v>532.8567584015686</v>
+        <v>521.5165473202468</v>
       </c>
     </row>
     <row r="797">
@@ -43282,7 +43282,7 @@
         <v>795</v>
       </c>
       <c r="B797" s="8" t="n">
-        <v>552.9792084993633</v>
+        <v>495.5194674664805</v>
       </c>
     </row>
     <row r="798">
@@ -43290,7 +43290,7 @@
         <v>796</v>
       </c>
       <c r="B798" s="8" t="n">
-        <v>462.4722574134027</v>
+        <v>499.6135316484722</v>
       </c>
     </row>
     <row r="799">
@@ -43298,7 +43298,7 @@
         <v>797</v>
       </c>
       <c r="B799" s="8" t="n">
-        <v>381.8251591767567</v>
+        <v>650.6090389289247</v>
       </c>
     </row>
     <row r="800">
@@ -43306,7 +43306,7 @@
         <v>798</v>
       </c>
       <c r="B800" s="8" t="n">
-        <v>388.9539677119043</v>
+        <v>391.2432498488186</v>
       </c>
     </row>
     <row r="801">
@@ -43314,7 +43314,7 @@
         <v>799</v>
       </c>
       <c r="B801" s="8" t="n">
-        <v>310.2038150553961</v>
+        <v>447.4299688655469</v>
       </c>
     </row>
     <row r="802">
@@ -43322,7 +43322,7 @@
         <v>800</v>
       </c>
       <c r="B802" s="8" t="n">
-        <v>532.3674926367639</v>
+        <v>621.3456021036083</v>
       </c>
     </row>
     <row r="803">
@@ -43330,7 +43330,7 @@
         <v>801</v>
       </c>
       <c r="B803" s="8" t="n">
-        <v>641.6738303692892</v>
+        <v>455.0811976724858</v>
       </c>
     </row>
     <row r="804">
@@ -43338,7 +43338,7 @@
         <v>802</v>
       </c>
       <c r="B804" s="8" t="n">
-        <v>315.9796652904679</v>
+        <v>245.0555678015884</v>
       </c>
     </row>
     <row r="805">
@@ -43346,7 +43346,7 @@
         <v>803</v>
       </c>
       <c r="B805" s="8" t="n">
-        <v>312.1557965247783</v>
+        <v>541.7503320511607</v>
       </c>
     </row>
     <row r="806">
@@ -43354,7 +43354,7 @@
         <v>804</v>
       </c>
       <c r="B806" s="8" t="n">
-        <v>431.0796908684366</v>
+        <v>360.1711509092458</v>
       </c>
     </row>
     <row r="807">
@@ -43362,7 +43362,7 @@
         <v>805</v>
       </c>
       <c r="B807" s="8" t="n">
-        <v>624.5207413162246</v>
+        <v>619.5967909373572</v>
       </c>
     </row>
     <row r="808">
@@ -43370,7 +43370,7 @@
         <v>806</v>
       </c>
       <c r="B808" s="8" t="n">
-        <v>268.4845499099926</v>
+        <v>459.3638036079711</v>
       </c>
     </row>
     <row r="809">
@@ -43378,7 +43378,7 @@
         <v>807</v>
       </c>
       <c r="B809" s="8" t="n">
-        <v>491.0170859032837</v>
+        <v>711.3848444226315</v>
       </c>
     </row>
     <row r="810">
@@ -43386,7 +43386,7 @@
         <v>808</v>
       </c>
       <c r="B810" s="8" t="n">
-        <v>734.8808268781934</v>
+        <v>431.743145374338</v>
       </c>
     </row>
     <row r="811">
@@ -43394,7 +43394,7 @@
         <v>809</v>
       </c>
       <c r="B811" s="8" t="n">
-        <v>378.4307278925623</v>
+        <v>598.9070518515689</v>
       </c>
     </row>
     <row r="812">
@@ -43402,7 +43402,7 @@
         <v>810</v>
       </c>
       <c r="B812" s="8" t="n">
-        <v>589.8484928113265</v>
+        <v>313.104970292553</v>
       </c>
     </row>
     <row r="813">
@@ -43410,7 +43410,7 @@
         <v>811</v>
       </c>
       <c r="B813" s="8" t="n">
-        <v>365.6565446401706</v>
+        <v>590.9254037511731</v>
       </c>
     </row>
     <row r="814">
@@ -43418,7 +43418,7 @@
         <v>812</v>
       </c>
       <c r="B814" s="8" t="n">
-        <v>477.6805327598523</v>
+        <v>291.8316568740671</v>
       </c>
     </row>
     <row r="815">
@@ -43426,7 +43426,7 @@
         <v>813</v>
       </c>
       <c r="B815" s="8" t="n">
-        <v>590.4434147655185</v>
+        <v>333.6406746311266</v>
       </c>
     </row>
     <row r="816">
@@ -43434,7 +43434,7 @@
         <v>814</v>
       </c>
       <c r="B816" s="8" t="n">
-        <v>416.8960729099561</v>
+        <v>283.6959917581162</v>
       </c>
     </row>
     <row r="817">
@@ -43442,7 +43442,7 @@
         <v>815</v>
       </c>
       <c r="B817" s="8" t="n">
-        <v>686.3692778151791</v>
+        <v>459.8487258951042</v>
       </c>
     </row>
     <row r="818">
@@ -43450,7 +43450,7 @@
         <v>816</v>
       </c>
       <c r="B818" s="8" t="n">
-        <v>533.7261782118165</v>
+        <v>457.3799878400615</v>
       </c>
     </row>
     <row r="819">
@@ -43458,7 +43458,7 @@
         <v>817</v>
       </c>
       <c r="B819" s="8" t="n">
-        <v>616.2839495206927</v>
+        <v>378.3725195235077</v>
       </c>
     </row>
     <row r="820">
@@ -43466,7 +43466,7 @@
         <v>818</v>
       </c>
       <c r="B820" s="8" t="n">
-        <v>628.8284553803981</v>
+        <v>627.4178908097372</v>
       </c>
     </row>
     <row r="821">
@@ -43474,7 +43474,7 @@
         <v>819</v>
       </c>
       <c r="B821" s="8" t="n">
-        <v>359.1357916941442</v>
+        <v>432.9943363123392</v>
       </c>
     </row>
     <row r="822">
@@ -43482,7 +43482,7 @@
         <v>820</v>
       </c>
       <c r="B822" s="8" t="n">
-        <v>276.0404120657668</v>
+        <v>255.7169363542205</v>
       </c>
     </row>
     <row r="823">
@@ -43490,7 +43490,7 @@
         <v>821</v>
       </c>
       <c r="B823" s="8" t="n">
-        <v>414.995123217478</v>
+        <v>467.8574160130068</v>
       </c>
     </row>
     <row r="824">
@@ -43498,7 +43498,7 @@
         <v>822</v>
       </c>
       <c r="B824" s="8" t="n">
-        <v>594.1103307404162</v>
+        <v>258.8553816535401</v>
       </c>
     </row>
     <row r="825">
@@ -43506,7 +43506,7 @@
         <v>823</v>
       </c>
       <c r="B825" s="8" t="n">
-        <v>286.8236172175581</v>
+        <v>532.8160619655922</v>
       </c>
     </row>
     <row r="826">
@@ -43514,7 +43514,7 @@
         <v>824</v>
       </c>
       <c r="B826" s="8" t="n">
-        <v>461.8838461344299</v>
+        <v>440.7507985766129</v>
       </c>
     </row>
     <row r="827">
@@ -43522,7 +43522,7 @@
         <v>825</v>
       </c>
       <c r="B827" s="8" t="n">
-        <v>603.2065917406385</v>
+        <v>572.6524450536215</v>
       </c>
     </row>
     <row r="828">
@@ -43530,7 +43530,7 @@
         <v>826</v>
       </c>
       <c r="B828" s="8" t="n">
-        <v>569.5666724839872</v>
+        <v>322.0200780235112</v>
       </c>
     </row>
     <row r="829">
@@ -43538,7 +43538,7 @@
         <v>827</v>
       </c>
       <c r="B829" s="8" t="n">
-        <v>344.8360134448845</v>
+        <v>387.5766706626478</v>
       </c>
     </row>
     <row r="830">
@@ -43546,7 +43546,7 @@
         <v>828</v>
       </c>
       <c r="B830" s="8" t="n">
-        <v>544.6933028787938</v>
+        <v>541.9319579209877</v>
       </c>
     </row>
     <row r="831">
@@ -43554,7 +43554,7 @@
         <v>829</v>
       </c>
       <c r="B831" s="8" t="n">
-        <v>382.4294559529587</v>
+        <v>367.6316795150885</v>
       </c>
     </row>
     <row r="832">
@@ -43562,7 +43562,7 @@
         <v>830</v>
       </c>
       <c r="B832" s="8" t="n">
-        <v>516.3580866584078</v>
+        <v>448.1708964960338</v>
       </c>
     </row>
     <row r="833">
@@ -43570,7 +43570,7 @@
         <v>831</v>
       </c>
       <c r="B833" s="8" t="n">
-        <v>562.4443288791576</v>
+        <v>410.9779314173209</v>
       </c>
     </row>
     <row r="834">
@@ -43578,7 +43578,7 @@
         <v>832</v>
       </c>
       <c r="B834" s="8" t="n">
-        <v>311.3001035162207</v>
+        <v>541.4965626354814</v>
       </c>
     </row>
     <row r="835">
@@ -43586,7 +43586,7 @@
         <v>833</v>
       </c>
       <c r="B835" s="8" t="n">
-        <v>699.7825989684574</v>
+        <v>596.01694822642</v>
       </c>
     </row>
     <row r="836">
@@ -43594,7 +43594,7 @@
         <v>834</v>
       </c>
       <c r="B836" s="8" t="n">
-        <v>745.6012400523639</v>
+        <v>306.8828436922654</v>
       </c>
     </row>
     <row r="837">
@@ -43602,7 +43602,7 @@
         <v>835</v>
       </c>
       <c r="B837" s="8" t="n">
-        <v>503.1745854183273</v>
+        <v>378.7498897240936</v>
       </c>
     </row>
     <row r="838">
@@ -43610,7 +43610,7 @@
         <v>836</v>
       </c>
       <c r="B838" s="8" t="n">
-        <v>669.1709593488331</v>
+        <v>321.60764745151</v>
       </c>
     </row>
     <row r="839">
@@ -43618,7 +43618,7 @@
         <v>837</v>
       </c>
       <c r="B839" s="8" t="n">
-        <v>293.2935522456608</v>
+        <v>322.7575778684579</v>
       </c>
     </row>
     <row r="840">
@@ -43626,7 +43626,7 @@
         <v>838</v>
       </c>
       <c r="B840" s="8" t="n">
-        <v>558.1474246275902</v>
+        <v>562.9950562176393</v>
       </c>
     </row>
     <row r="841">
@@ -43634,7 +43634,7 @@
         <v>839</v>
       </c>
       <c r="B841" s="8" t="n">
-        <v>325.9804929575365</v>
+        <v>501.9553976951673</v>
       </c>
     </row>
     <row r="842">
@@ -43642,7 +43642,7 @@
         <v>840</v>
       </c>
       <c r="B842" s="8" t="n">
-        <v>256.3886800617918</v>
+        <v>570.8693026360502</v>
       </c>
     </row>
     <row r="843">
@@ -43650,7 +43650,7 @@
         <v>841</v>
       </c>
       <c r="B843" s="8" t="n">
-        <v>613.9015920469794</v>
+        <v>213.586474967399</v>
       </c>
     </row>
     <row r="844">
@@ -43658,7 +43658,7 @@
         <v>842</v>
       </c>
       <c r="B844" s="8" t="n">
-        <v>337.9976833981228</v>
+        <v>464.3102631666896</v>
       </c>
     </row>
     <row r="845">
@@ -43666,7 +43666,7 @@
         <v>843</v>
       </c>
       <c r="B845" s="8" t="n">
-        <v>414.8516429119925</v>
+        <v>469.0359248410374</v>
       </c>
     </row>
     <row r="846">
@@ -43674,7 +43674,7 @@
         <v>844</v>
       </c>
       <c r="B846" s="8" t="n">
-        <v>503.5309703272981</v>
+        <v>546.2187993354518</v>
       </c>
     </row>
     <row r="847">
@@ -43682,7 +43682,7 @@
         <v>845</v>
       </c>
       <c r="B847" s="8" t="n">
-        <v>396.5662703667302</v>
+        <v>315.743515451004</v>
       </c>
     </row>
     <row r="848">
@@ -43690,7 +43690,7 @@
         <v>846</v>
       </c>
       <c r="B848" s="8" t="n">
-        <v>293.3894685615778</v>
+        <v>422.7125920533797</v>
       </c>
     </row>
     <row r="849">
@@ -43698,7 +43698,7 @@
         <v>847</v>
       </c>
       <c r="B849" s="8" t="n">
-        <v>522.0223029326448</v>
+        <v>288.0461314184847</v>
       </c>
     </row>
     <row r="850">
@@ -43706,7 +43706,7 @@
         <v>848</v>
       </c>
       <c r="B850" s="8" t="n">
-        <v>227.7824163762316</v>
+        <v>293.2343807973912</v>
       </c>
     </row>
     <row r="851">
@@ -43714,7 +43714,7 @@
         <v>849</v>
       </c>
       <c r="B851" s="8" t="n">
-        <v>756.65427702231</v>
+        <v>467.1830268063476</v>
       </c>
     </row>
     <row r="852">
@@ -43722,7 +43722,7 @@
         <v>850</v>
       </c>
       <c r="B852" s="8" t="n">
-        <v>407.2111049459973</v>
+        <v>529.4006736127177</v>
       </c>
     </row>
     <row r="853">
@@ -43730,7 +43730,7 @@
         <v>851</v>
       </c>
       <c r="B853" s="8" t="n">
-        <v>262.8809221768017</v>
+        <v>588.090463445943</v>
       </c>
     </row>
     <row r="854">
@@ -43738,7 +43738,7 @@
         <v>852</v>
       </c>
       <c r="B854" s="8" t="n">
-        <v>303.4237349238229</v>
+        <v>485.6170938205369</v>
       </c>
     </row>
     <row r="855">
@@ -43746,7 +43746,7 @@
         <v>853</v>
       </c>
       <c r="B855" s="8" t="n">
-        <v>388.6881975242143</v>
+        <v>514.1001674245729</v>
       </c>
     </row>
     <row r="856">
@@ -43754,7 +43754,7 @@
         <v>854</v>
       </c>
       <c r="B856" s="8" t="n">
-        <v>268.0404715550219</v>
+        <v>460.7307226024868</v>
       </c>
     </row>
     <row r="857">
@@ -43762,7 +43762,7 @@
         <v>855</v>
       </c>
       <c r="B857" s="8" t="n">
-        <v>511.9233952675165</v>
+        <v>563.9366124062958</v>
       </c>
     </row>
     <row r="858">
@@ -43770,7 +43770,7 @@
         <v>856</v>
       </c>
       <c r="B858" s="8" t="n">
-        <v>529.5729220933246</v>
+        <v>554.4563822726734</v>
       </c>
     </row>
     <row r="859">
@@ -43778,7 +43778,7 @@
         <v>857</v>
       </c>
       <c r="B859" s="8" t="n">
-        <v>707.3043022902315</v>
+        <v>524.8827392624481</v>
       </c>
     </row>
     <row r="860">
@@ -43786,7 +43786,7 @@
         <v>858</v>
       </c>
       <c r="B860" s="8" t="n">
-        <v>410.7098904339047</v>
+        <v>601.4120729948751</v>
       </c>
     </row>
     <row r="861">
@@ -43794,7 +43794,7 @@
         <v>859</v>
       </c>
       <c r="B861" s="8" t="n">
-        <v>346.0238309342754</v>
+        <v>357.7010318100941</v>
       </c>
     </row>
     <row r="862">
@@ -43802,7 +43802,7 @@
         <v>860</v>
       </c>
       <c r="B862" s="8" t="n">
-        <v>456.4980023746925</v>
+        <v>598.0046245971722</v>
       </c>
     </row>
     <row r="863">
@@ -43810,7 +43810,7 @@
         <v>861</v>
       </c>
       <c r="B863" s="8" t="n">
-        <v>621.5516614846455</v>
+        <v>688.4300241824013</v>
       </c>
     </row>
     <row r="864">
@@ -43818,7 +43818,7 @@
         <v>862</v>
       </c>
       <c r="B864" s="8" t="n">
-        <v>480.839479439288</v>
+        <v>691.805472681851</v>
       </c>
     </row>
     <row r="865">
@@ -43826,7 +43826,7 @@
         <v>863</v>
       </c>
       <c r="B865" s="8" t="n">
-        <v>590.2076852280701</v>
+        <v>409.6587600629462</v>
       </c>
     </row>
     <row r="866">
@@ -43834,7 +43834,7 @@
         <v>864</v>
       </c>
       <c r="B866" s="8" t="n">
-        <v>616.4163633910592</v>
+        <v>640.2316173745539</v>
       </c>
     </row>
     <row r="867">
@@ -43842,7 +43842,7 @@
         <v>865</v>
       </c>
       <c r="B867" s="8" t="n">
-        <v>654.5237229143797</v>
+        <v>286.5398560366547</v>
       </c>
     </row>
     <row r="868">
@@ -43850,7 +43850,7 @@
         <v>866</v>
       </c>
       <c r="B868" s="8" t="n">
-        <v>392.8781931766138</v>
+        <v>653.6878376263674</v>
       </c>
     </row>
     <row r="869">
@@ -43858,7 +43858,7 @@
         <v>867</v>
       </c>
       <c r="B869" s="8" t="n">
-        <v>279.4900857512894</v>
+        <v>329.8575520941058</v>
       </c>
     </row>
     <row r="870">
@@ -43866,7 +43866,7 @@
         <v>868</v>
       </c>
       <c r="B870" s="8" t="n">
-        <v>691.9391896021617</v>
+        <v>572.5257229991204</v>
       </c>
     </row>
     <row r="871">
@@ -43874,7 +43874,7 @@
         <v>869</v>
       </c>
       <c r="B871" s="8" t="n">
-        <v>376.7523568104454</v>
+        <v>623.4690625650254</v>
       </c>
     </row>
     <row r="872">
@@ -43882,7 +43882,7 @@
         <v>870</v>
       </c>
       <c r="B872" s="8" t="n">
-        <v>808.5017716282264</v>
+        <v>401.209731909586</v>
       </c>
     </row>
     <row r="873">
@@ -43890,7 +43890,7 @@
         <v>871</v>
       </c>
       <c r="B873" s="8" t="n">
-        <v>741.0878293202012</v>
+        <v>461.4745230720522</v>
       </c>
     </row>
     <row r="874">
@@ -43898,7 +43898,7 @@
         <v>872</v>
       </c>
       <c r="B874" s="8" t="n">
-        <v>210.6912420620934</v>
+        <v>582.5776003950275</v>
       </c>
     </row>
     <row r="875">
@@ -43906,7 +43906,7 @@
         <v>873</v>
       </c>
       <c r="B875" s="8" t="n">
-        <v>410.6241567021818</v>
+        <v>615.4487762245608</v>
       </c>
     </row>
     <row r="876">
@@ -43914,7 +43914,7 @@
         <v>874</v>
       </c>
       <c r="B876" s="8" t="n">
-        <v>253.889879188651</v>
+        <v>438.287736677879</v>
       </c>
     </row>
     <row r="877">
@@ -43922,7 +43922,7 @@
         <v>875</v>
       </c>
       <c r="B877" s="8" t="n">
-        <v>422.9507628134116</v>
+        <v>592.8206781197329</v>
       </c>
     </row>
     <row r="878">
@@ -43930,7 +43930,7 @@
         <v>876</v>
       </c>
       <c r="B878" s="8" t="n">
-        <v>593.0814888249585</v>
+        <v>583.942528111217</v>
       </c>
     </row>
     <row r="879">
@@ -43938,7 +43938,7 @@
         <v>877</v>
       </c>
       <c r="B879" s="8" t="n">
-        <v>206.5842250916608</v>
+        <v>266.2542649016374</v>
       </c>
     </row>
     <row r="880">
@@ -43946,7 +43946,7 @@
         <v>878</v>
       </c>
       <c r="B880" s="8" t="n">
-        <v>400.2879571471778</v>
+        <v>683.5592211062719</v>
       </c>
     </row>
     <row r="881">
@@ -43954,7 +43954,7 @@
         <v>879</v>
       </c>
       <c r="B881" s="8" t="n">
-        <v>390.4083757326324</v>
+        <v>418.9220761454548</v>
       </c>
     </row>
     <row r="882">
@@ -43962,7 +43962,7 @@
         <v>880</v>
       </c>
       <c r="B882" s="8" t="n">
-        <v>465.0857724681481</v>
+        <v>368.7687003641969</v>
       </c>
     </row>
     <row r="883">
@@ -43970,7 +43970,7 @@
         <v>881</v>
       </c>
       <c r="B883" s="8" t="n">
-        <v>422.1636226979144</v>
+        <v>706.3401943671228</v>
       </c>
     </row>
     <row r="884">
@@ -43978,7 +43978,7 @@
         <v>882</v>
       </c>
       <c r="B884" s="8" t="n">
-        <v>198.4881404485865</v>
+        <v>208.5222968859609</v>
       </c>
     </row>
     <row r="885">
@@ -43986,7 +43986,7 @@
         <v>883</v>
       </c>
       <c r="B885" s="8" t="n">
-        <v>517.5310558640413</v>
+        <v>452.3031462287728</v>
       </c>
     </row>
     <row r="886">
@@ -43994,7 +43994,7 @@
         <v>884</v>
       </c>
       <c r="B886" s="8" t="n">
-        <v>618.948935615218</v>
+        <v>331.4545367678249</v>
       </c>
     </row>
     <row r="887">
@@ -44002,7 +44002,7 @@
         <v>885</v>
       </c>
       <c r="B887" s="8" t="n">
-        <v>359.6155327270988</v>
+        <v>691.9682530670162</v>
       </c>
     </row>
     <row r="888">
@@ -44010,7 +44010,7 @@
         <v>886</v>
       </c>
       <c r="B888" s="8" t="n">
-        <v>582.2076821670562</v>
+        <v>303.1281931227163</v>
       </c>
     </row>
     <row r="889">
@@ -44018,7 +44018,7 @@
         <v>887</v>
       </c>
       <c r="B889" s="8" t="n">
-        <v>479.0889368726765</v>
+        <v>208.0120435948248</v>
       </c>
     </row>
     <row r="890">
@@ -44026,7 +44026,7 @@
         <v>888</v>
       </c>
       <c r="B890" s="8" t="n">
-        <v>630.510717343483</v>
+        <v>533.3743996654525</v>
       </c>
     </row>
     <row r="891">
@@ -44034,7 +44034,7 @@
         <v>889</v>
       </c>
       <c r="B891" s="8" t="n">
-        <v>360.9112080243524</v>
+        <v>650.5192998417245</v>
       </c>
     </row>
     <row r="892">
@@ -44042,7 +44042,7 @@
         <v>890</v>
       </c>
       <c r="B892" s="8" t="n">
-        <v>453.9849658217501</v>
+        <v>570.6587211883215</v>
       </c>
     </row>
     <row r="893">
@@ -44050,7 +44050,7 @@
         <v>891</v>
       </c>
       <c r="B893" s="8" t="n">
-        <v>446.1923378802642</v>
+        <v>295.1272525818458</v>
       </c>
     </row>
     <row r="894">
@@ -44058,7 +44058,7 @@
         <v>892</v>
       </c>
       <c r="B894" s="8" t="n">
-        <v>282.889541850355</v>
+        <v>198.61774410383</v>
       </c>
     </row>
     <row r="895">
@@ -44066,7 +44066,7 @@
         <v>893</v>
       </c>
       <c r="B895" s="8" t="n">
-        <v>457.5988172529698</v>
+        <v>200.8051018897964</v>
       </c>
     </row>
     <row r="896">
@@ -44074,7 +44074,7 @@
         <v>894</v>
       </c>
       <c r="B896" s="8" t="n">
-        <v>469.4574811364438</v>
+        <v>404.7613965561664</v>
       </c>
     </row>
     <row r="897">
@@ -44082,7 +44082,7 @@
         <v>895</v>
       </c>
       <c r="B897" s="8" t="n">
-        <v>743.2782597158219</v>
+        <v>503.9624578505561</v>
       </c>
     </row>
     <row r="898">
@@ -44090,7 +44090,7 @@
         <v>896</v>
       </c>
       <c r="B898" s="8" t="n">
-        <v>474.3090147844651</v>
+        <v>432.6785675384475</v>
       </c>
     </row>
     <row r="899">
@@ -44098,7 +44098,7 @@
         <v>897</v>
       </c>
       <c r="B899" s="8" t="n">
-        <v>245.1041488193843</v>
+        <v>610.7760143747151</v>
       </c>
     </row>
     <row r="900">
@@ -44106,7 +44106,7 @@
         <v>898</v>
       </c>
       <c r="B900" s="8" t="n">
-        <v>228.6712551291909</v>
+        <v>433.9438238875719</v>
       </c>
     </row>
     <row r="901">
@@ -44114,7 +44114,7 @@
         <v>899</v>
       </c>
       <c r="B901" s="8" t="n">
-        <v>250.5833267110066</v>
+        <v>679.588495825939</v>
       </c>
     </row>
     <row r="902">
@@ -44122,7 +44122,7 @@
         <v>900</v>
       </c>
       <c r="B902" s="8" t="n">
-        <v>336.9001402423424</v>
+        <v>668.7611403293979</v>
       </c>
     </row>
     <row r="903">
@@ -44130,7 +44130,7 @@
         <v>901</v>
       </c>
       <c r="B903" s="8" t="n">
-        <v>399.3655306440157</v>
+        <v>475.7756276886194</v>
       </c>
     </row>
     <row r="904">
@@ -44138,7 +44138,7 @@
         <v>902</v>
       </c>
       <c r="B904" s="8" t="n">
-        <v>646.295842872385</v>
+        <v>540.6229371958894</v>
       </c>
     </row>
     <row r="905">
@@ -44146,7 +44146,7 @@
         <v>903</v>
       </c>
       <c r="B905" s="8" t="n">
-        <v>606.0665362519097</v>
+        <v>290.9229507155396</v>
       </c>
     </row>
     <row r="906">
@@ -44154,7 +44154,7 @@
         <v>904</v>
       </c>
       <c r="B906" s="8" t="n">
-        <v>526.0736470896959</v>
+        <v>634.0897173294629</v>
       </c>
     </row>
     <row r="907">
@@ -44162,7 +44162,7 @@
         <v>905</v>
       </c>
       <c r="B907" s="8" t="n">
-        <v>553.3135696142393</v>
+        <v>496.7470358478917</v>
       </c>
     </row>
     <row r="908">
@@ -44170,7 +44170,7 @@
         <v>906</v>
       </c>
       <c r="B908" s="8" t="n">
-        <v>549.2621637686461</v>
+        <v>661.4477315003509</v>
       </c>
     </row>
     <row r="909">
@@ -44178,7 +44178,7 @@
         <v>907</v>
       </c>
       <c r="B909" s="8" t="n">
-        <v>278.0410997306801</v>
+        <v>419.6779206831387</v>
       </c>
     </row>
     <row r="910">
@@ -44186,7 +44186,7 @@
         <v>908</v>
       </c>
       <c r="B910" s="8" t="n">
-        <v>432.3038868204642</v>
+        <v>542.3693697084647</v>
       </c>
     </row>
     <row r="911">
@@ -44194,7 +44194,7 @@
         <v>909</v>
       </c>
       <c r="B911" s="8" t="n">
-        <v>267.6781785529436</v>
+        <v>255.7802422715464</v>
       </c>
     </row>
     <row r="912">
@@ -44202,7 +44202,7 @@
         <v>910</v>
       </c>
       <c r="B912" s="8" t="n">
-        <v>513.1973715687085</v>
+        <v>456.5301229718775</v>
       </c>
     </row>
     <row r="913">
@@ -44210,7 +44210,7 @@
         <v>911</v>
       </c>
       <c r="B913" s="8" t="n">
-        <v>222.433480232208</v>
+        <v>450.9388803924305</v>
       </c>
     </row>
     <row r="914">
@@ -44218,7 +44218,7 @@
         <v>912</v>
       </c>
       <c r="B914" s="8" t="n">
-        <v>602.2099850653217</v>
+        <v>565.7727692071171</v>
       </c>
     </row>
     <row r="915">
@@ -44226,7 +44226,7 @@
         <v>913</v>
       </c>
       <c r="B915" s="8" t="n">
-        <v>578.4433539955331</v>
+        <v>221.4132480607472</v>
       </c>
     </row>
     <row r="916">
@@ -44234,7 +44234,7 @@
         <v>914</v>
       </c>
       <c r="B916" s="8" t="n">
-        <v>653.4359547735918</v>
+        <v>577.1356051505049</v>
       </c>
     </row>
     <row r="917">
@@ -44242,7 +44242,7 @@
         <v>915</v>
       </c>
       <c r="B917" s="8" t="n">
-        <v>602.2782781254288</v>
+        <v>354.5357075257398</v>
       </c>
     </row>
     <row r="918">
@@ -44250,7 +44250,7 @@
         <v>916</v>
       </c>
       <c r="B918" s="8" t="n">
-        <v>298.6487757936331</v>
+        <v>417.1530595047026</v>
       </c>
     </row>
     <row r="919">
@@ -44258,7 +44258,7 @@
         <v>917</v>
       </c>
       <c r="B919" s="8" t="n">
-        <v>306.8088521890243</v>
+        <v>282.8235504056215</v>
       </c>
     </row>
     <row r="920">
@@ -44266,7 +44266,7 @@
         <v>918</v>
       </c>
       <c r="B920" s="8" t="n">
-        <v>194.188727564522</v>
+        <v>647.6705969844855</v>
       </c>
     </row>
     <row r="921">
@@ -44274,7 +44274,7 @@
         <v>919</v>
       </c>
       <c r="B921" s="8" t="n">
-        <v>457.991077229932</v>
+        <v>417.9773657879845</v>
       </c>
     </row>
     <row r="922">
@@ -44282,7 +44282,7 @@
         <v>920</v>
       </c>
       <c r="B922" s="8" t="n">
-        <v>638.4475559083394</v>
+        <v>251.6901097165214</v>
       </c>
     </row>
     <row r="923">
@@ -44290,7 +44290,7 @@
         <v>921</v>
       </c>
       <c r="B923" s="8" t="n">
-        <v>479.6327290536855</v>
+        <v>808.527718637759</v>
       </c>
     </row>
     <row r="924">
@@ -44298,7 +44298,7 @@
         <v>922</v>
       </c>
       <c r="B924" s="8" t="n">
-        <v>552.2441919722354</v>
+        <v>211.1758340125682</v>
       </c>
     </row>
     <row r="925">
@@ -44306,7 +44306,7 @@
         <v>923</v>
       </c>
       <c r="B925" s="8" t="n">
-        <v>575.8000460009589</v>
+        <v>399.4822863895012</v>
       </c>
     </row>
     <row r="926">
@@ -44314,7 +44314,7 @@
         <v>924</v>
       </c>
       <c r="B926" s="8" t="n">
-        <v>387.0469748842314</v>
+        <v>483.3439245871968</v>
       </c>
     </row>
     <row r="927">
@@ -44322,7 +44322,7 @@
         <v>925</v>
       </c>
       <c r="B927" s="8" t="n">
-        <v>704.0263598261542</v>
+        <v>457.6024884702184</v>
       </c>
     </row>
     <row r="928">
@@ -44330,7 +44330,7 @@
         <v>926</v>
       </c>
       <c r="B928" s="8" t="n">
-        <v>501.3136831289478</v>
+        <v>364.7709068598957</v>
       </c>
     </row>
     <row r="929">
@@ -44338,7 +44338,7 @@
         <v>927</v>
       </c>
       <c r="B929" s="8" t="n">
-        <v>358.4863479186773</v>
+        <v>259.9654539515529</v>
       </c>
     </row>
     <row r="930">
@@ -44346,7 +44346,7 @@
         <v>928</v>
       </c>
       <c r="B930" s="8" t="n">
-        <v>565.09579321517</v>
+        <v>234.744971017088</v>
       </c>
     </row>
     <row r="931">
@@ -44354,7 +44354,7 @@
         <v>929</v>
       </c>
       <c r="B931" s="8" t="n">
-        <v>580.2759550027396</v>
+        <v>577.571839608343</v>
       </c>
     </row>
     <row r="932">
@@ -44362,7 +44362,7 @@
         <v>930</v>
       </c>
       <c r="B932" s="8" t="n">
-        <v>618.3752892019303</v>
+        <v>570.2613878052736</v>
       </c>
     </row>
     <row r="933">
@@ -44370,7 +44370,7 @@
         <v>931</v>
       </c>
       <c r="B933" s="8" t="n">
-        <v>330.6764849166935</v>
+        <v>388.0365987317103</v>
       </c>
     </row>
     <row r="934">
@@ -44378,7 +44378,7 @@
         <v>932</v>
       </c>
       <c r="B934" s="8" t="n">
-        <v>449.361853634577</v>
+        <v>594.4730741101806</v>
       </c>
     </row>
     <row r="935">
@@ -44386,7 +44386,7 @@
         <v>933</v>
       </c>
       <c r="B935" s="8" t="n">
-        <v>566.5695864771411</v>
+        <v>313.3630585607877</v>
       </c>
     </row>
     <row r="936">
@@ -44394,7 +44394,7 @@
         <v>934</v>
       </c>
       <c r="B936" s="8" t="n">
-        <v>388.7152558256016</v>
+        <v>331.1990513932171</v>
       </c>
     </row>
     <row r="937">
@@ -44402,7 +44402,7 @@
         <v>935</v>
       </c>
       <c r="B937" s="8" t="n">
-        <v>524.7449736663652</v>
+        <v>405.2946245495882</v>
       </c>
     </row>
     <row r="938">
@@ -44410,7 +44410,7 @@
         <v>936</v>
       </c>
       <c r="B938" s="8" t="n">
-        <v>233.8379233336256</v>
+        <v>588.2073655716357</v>
       </c>
     </row>
     <row r="939">
@@ -44418,7 +44418,7 @@
         <v>937</v>
       </c>
       <c r="B939" s="8" t="n">
-        <v>241.9743438235848</v>
+        <v>538.8148166646035</v>
       </c>
     </row>
     <row r="940">
@@ -44426,7 +44426,7 @@
         <v>938</v>
       </c>
       <c r="B940" s="8" t="n">
-        <v>389.9816829316377</v>
+        <v>494.3003391435213</v>
       </c>
     </row>
     <row r="941">
@@ -44434,7 +44434,7 @@
         <v>939</v>
       </c>
       <c r="B941" s="8" t="n">
-        <v>444.6969385945665</v>
+        <v>469.1091385458294</v>
       </c>
     </row>
     <row r="942">
@@ -44442,7 +44442,7 @@
         <v>940</v>
       </c>
       <c r="B942" s="8" t="n">
-        <v>480.4473557141384</v>
+        <v>396.3678154433639</v>
       </c>
     </row>
     <row r="943">
@@ -44450,7 +44450,7 @@
         <v>941</v>
       </c>
       <c r="B943" s="8" t="n">
-        <v>580.6508885460131</v>
+        <v>583.4005390110383</v>
       </c>
     </row>
     <row r="944">
@@ -44458,7 +44458,7 @@
         <v>942</v>
       </c>
       <c r="B944" s="8" t="n">
-        <v>325.4668423512116</v>
+        <v>479.1767619407401</v>
       </c>
     </row>
     <row r="945">
@@ -44466,7 +44466,7 @@
         <v>943</v>
       </c>
       <c r="B945" s="8" t="n">
-        <v>462.047286483871</v>
+        <v>700.9113864113235</v>
       </c>
     </row>
     <row r="946">
@@ -44474,7 +44474,7 @@
         <v>944</v>
       </c>
       <c r="B946" s="8" t="n">
-        <v>495.5280407944242</v>
+        <v>506.8854496398688</v>
       </c>
     </row>
     <row r="947">
@@ -44482,7 +44482,7 @@
         <v>945</v>
       </c>
       <c r="B947" s="8" t="n">
-        <v>427.3851764128102</v>
+        <v>271.6456501989045</v>
       </c>
     </row>
     <row r="948">
@@ -44490,7 +44490,7 @@
         <v>946</v>
       </c>
       <c r="B948" s="8" t="n">
-        <v>520.794644609732</v>
+        <v>365.7237092399774</v>
       </c>
     </row>
     <row r="949">
@@ -44498,7 +44498,7 @@
         <v>947</v>
       </c>
       <c r="B949" s="8" t="n">
-        <v>330.0151620468782</v>
+        <v>493.1322212466094</v>
       </c>
     </row>
     <row r="950">
@@ -44506,7 +44506,7 @@
         <v>948</v>
       </c>
       <c r="B950" s="8" t="n">
-        <v>459.6377257280228</v>
+        <v>507.3730793611883</v>
       </c>
     </row>
     <row r="951">
@@ -44514,7 +44514,7 @@
         <v>949</v>
       </c>
       <c r="B951" s="8" t="n">
-        <v>275.8660316841327</v>
+        <v>285.2060429074808</v>
       </c>
     </row>
     <row r="952">
@@ -44522,7 +44522,7 @@
         <v>950</v>
       </c>
       <c r="B952" s="8" t="n">
-        <v>463.0229733972836</v>
+        <v>561.7713915175011</v>
       </c>
     </row>
     <row r="953">
@@ -44530,7 +44530,7 @@
         <v>951</v>
       </c>
       <c r="B953" s="8" t="n">
-        <v>635.9875425253618</v>
+        <v>383.972348722941</v>
       </c>
     </row>
     <row r="954">
@@ -44538,7 +44538,7 @@
         <v>952</v>
       </c>
       <c r="B954" s="8" t="n">
-        <v>713.5956152032078</v>
+        <v>616.6074921937744</v>
       </c>
     </row>
     <row r="955">
@@ -44546,7 +44546,7 @@
         <v>953</v>
       </c>
       <c r="B955" s="8" t="n">
-        <v>599.1093128485019</v>
+        <v>697.1005643288611</v>
       </c>
     </row>
     <row r="956">
@@ -44554,7 +44554,7 @@
         <v>954</v>
       </c>
       <c r="B956" s="8" t="n">
-        <v>356.0389511527761</v>
+        <v>361.1698061750319</v>
       </c>
     </row>
     <row r="957">
@@ -44562,7 +44562,7 @@
         <v>955</v>
       </c>
       <c r="B957" s="8" t="n">
-        <v>328.6656448266509</v>
+        <v>219.8425074110885</v>
       </c>
     </row>
     <row r="958">
@@ -44570,7 +44570,7 @@
         <v>956</v>
       </c>
       <c r="B958" s="8" t="n">
-        <v>452.3786751883547</v>
+        <v>490.7142206792888</v>
       </c>
     </row>
     <row r="959">
@@ -44578,7 +44578,7 @@
         <v>957</v>
       </c>
       <c r="B959" s="8" t="n">
-        <v>380.3476342469226</v>
+        <v>188.8998390972693</v>
       </c>
     </row>
     <row r="960">
@@ -44586,7 +44586,7 @@
         <v>958</v>
       </c>
       <c r="B960" s="8" t="n">
-        <v>389.9239081210429</v>
+        <v>245.2940022576898</v>
       </c>
     </row>
     <row r="961">
@@ -44594,7 +44594,7 @@
         <v>959</v>
       </c>
       <c r="B961" s="8" t="n">
-        <v>356.9429115937662</v>
+        <v>464.8513368169186</v>
       </c>
     </row>
     <row r="962">
@@ -44602,7 +44602,7 @@
         <v>960</v>
       </c>
       <c r="B962" s="8" t="n">
-        <v>566.3494811557114</v>
+        <v>501.2306046295046</v>
       </c>
     </row>
     <row r="963">
@@ -44610,7 +44610,7 @@
         <v>961</v>
       </c>
       <c r="B963" s="8" t="n">
-        <v>565.9504194241064</v>
+        <v>432.7678812863172</v>
       </c>
     </row>
     <row r="964">
@@ -44618,7 +44618,7 @@
         <v>962</v>
       </c>
       <c r="B964" s="8" t="n">
-        <v>450.04873701241</v>
+        <v>512.4015096024583</v>
       </c>
     </row>
     <row r="965">
@@ -44626,7 +44626,7 @@
         <v>963</v>
       </c>
       <c r="B965" s="8" t="n">
-        <v>583.9006208379898</v>
+        <v>636.9846990397496</v>
       </c>
     </row>
     <row r="966">
@@ -44634,7 +44634,7 @@
         <v>964</v>
       </c>
       <c r="B966" s="8" t="n">
-        <v>596.9689836607964</v>
+        <v>499.5440741808218</v>
       </c>
     </row>
     <row r="967">
@@ -44642,7 +44642,7 @@
         <v>965</v>
       </c>
       <c r="B967" s="8" t="n">
-        <v>361.9687906805858</v>
+        <v>333.5683045668831</v>
       </c>
     </row>
     <row r="968">
@@ -44650,7 +44650,7 @@
         <v>966</v>
       </c>
       <c r="B968" s="8" t="n">
-        <v>614.401960231531</v>
+        <v>606.3715850699637</v>
       </c>
     </row>
     <row r="969">
@@ -44658,7 +44658,7 @@
         <v>967</v>
       </c>
       <c r="B969" s="8" t="n">
-        <v>301.2873708387596</v>
+        <v>500.6906693864815</v>
       </c>
     </row>
     <row r="970">
@@ -44666,7 +44666,7 @@
         <v>968</v>
       </c>
       <c r="B970" s="8" t="n">
-        <v>458.1174937276307</v>
+        <v>495.5553855108637</v>
       </c>
     </row>
     <row r="971">
@@ -44674,7 +44674,7 @@
         <v>969</v>
       </c>
       <c r="B971" s="8" t="n">
-        <v>190.391067300474</v>
+        <v>714.2412078946055</v>
       </c>
     </row>
     <row r="972">
@@ -44682,7 +44682,7 @@
         <v>970</v>
       </c>
       <c r="B972" s="8" t="n">
-        <v>462.3400590252814</v>
+        <v>341.3056968469829</v>
       </c>
     </row>
     <row r="973">
@@ -44690,7 +44690,7 @@
         <v>971</v>
       </c>
       <c r="B973" s="8" t="n">
-        <v>551.0112241540423</v>
+        <v>308.2154660406198</v>
       </c>
     </row>
     <row r="974">
@@ -44698,7 +44698,7 @@
         <v>972</v>
       </c>
       <c r="B974" s="8" t="n">
-        <v>528.5022173772581</v>
+        <v>601.8259866128088</v>
       </c>
     </row>
     <row r="975">
@@ -44706,7 +44706,7 @@
         <v>973</v>
       </c>
       <c r="B975" s="8" t="n">
-        <v>423.503538991689</v>
+        <v>360.4209019962525</v>
       </c>
     </row>
     <row r="976">
@@ -44714,7 +44714,7 @@
         <v>974</v>
       </c>
       <c r="B976" s="8" t="n">
-        <v>376.3027574162853</v>
+        <v>280.2957142314406</v>
       </c>
     </row>
     <row r="977">
@@ -44722,7 +44722,7 @@
         <v>975</v>
       </c>
       <c r="B977" s="8" t="n">
-        <v>710.1249033243347</v>
+        <v>185.2426813605993</v>
       </c>
     </row>
     <row r="978">
@@ -44730,7 +44730,7 @@
         <v>976</v>
       </c>
       <c r="B978" s="8" t="n">
-        <v>242.4600396151159</v>
+        <v>506.1161691788427</v>
       </c>
     </row>
     <row r="979">
@@ -44738,7 +44738,7 @@
         <v>977</v>
       </c>
       <c r="B979" s="8" t="n">
-        <v>268.840459538043</v>
+        <v>673.1871482764211</v>
       </c>
     </row>
     <row r="980">
@@ -44746,7 +44746,7 @@
         <v>978</v>
       </c>
       <c r="B980" s="8" t="n">
-        <v>643.5638467751183</v>
+        <v>323.0397652604617</v>
       </c>
     </row>
     <row r="981">
@@ -44754,7 +44754,7 @@
         <v>979</v>
       </c>
       <c r="B981" s="8" t="n">
-        <v>251.3012233204849</v>
+        <v>559.1235635265343</v>
       </c>
     </row>
     <row r="982">
@@ -44762,7 +44762,7 @@
         <v>980</v>
       </c>
       <c r="B982" s="8" t="n">
-        <v>382.7195377818942</v>
+        <v>407.5556408971516</v>
       </c>
     </row>
     <row r="983">
@@ -44770,7 +44770,7 @@
         <v>981</v>
       </c>
       <c r="B983" s="8" t="n">
-        <v>521.5701885072754</v>
+        <v>642.6598129393088</v>
       </c>
     </row>
     <row r="984">
@@ -44778,7 +44778,7 @@
         <v>982</v>
       </c>
       <c r="B984" s="8" t="n">
-        <v>619.5492652266182</v>
+        <v>463.5779363362698</v>
       </c>
     </row>
     <row r="985">
@@ -44786,7 +44786,7 @@
         <v>983</v>
       </c>
       <c r="B985" s="8" t="n">
-        <v>394.7798929945745</v>
+        <v>341.071793413473</v>
       </c>
     </row>
     <row r="986">
@@ -44794,7 +44794,7 @@
         <v>984</v>
       </c>
       <c r="B986" s="8" t="n">
-        <v>391.5700778257025</v>
+        <v>438.6574278057569</v>
       </c>
     </row>
     <row r="987">
@@ -44802,7 +44802,7 @@
         <v>985</v>
       </c>
       <c r="B987" s="8" t="n">
-        <v>313.8053046878446</v>
+        <v>292.3152094443402</v>
       </c>
     </row>
     <row r="988">
@@ -44810,7 +44810,7 @@
         <v>986</v>
       </c>
       <c r="B988" s="8" t="n">
-        <v>309.6898450055089</v>
+        <v>733.0840773261106</v>
       </c>
     </row>
     <row r="989">
@@ -44818,7 +44818,7 @@
         <v>987</v>
       </c>
       <c r="B989" s="8" t="n">
-        <v>444.7869763168461</v>
+        <v>394.7689877908941</v>
       </c>
     </row>
     <row r="990">
@@ -44826,7 +44826,7 @@
         <v>988</v>
       </c>
       <c r="B990" s="8" t="n">
-        <v>633.5739952604387</v>
+        <v>553.2237425650125</v>
       </c>
     </row>
     <row r="991">
@@ -44834,7 +44834,7 @@
         <v>989</v>
       </c>
       <c r="B991" s="8" t="n">
-        <v>789.9283348805202</v>
+        <v>246.5187676645647</v>
       </c>
     </row>
     <row r="992">
@@ -44842,7 +44842,7 @@
         <v>990</v>
       </c>
       <c r="B992" s="8" t="n">
-        <v>632.327828327529</v>
+        <v>601.3537141471204</v>
       </c>
     </row>
     <row r="993">
@@ -44850,7 +44850,7 @@
         <v>991</v>
       </c>
       <c r="B993" s="8" t="n">
-        <v>399.1715572449768</v>
+        <v>330.5431995104591</v>
       </c>
     </row>
     <row r="994">
@@ -44858,7 +44858,7 @@
         <v>992</v>
       </c>
       <c r="B994" s="8" t="n">
-        <v>578.494968196077</v>
+        <v>395.7730897647337</v>
       </c>
     </row>
     <row r="995">
@@ -44866,7 +44866,7 @@
         <v>993</v>
       </c>
       <c r="B995" s="8" t="n">
-        <v>225.7241962413903</v>
+        <v>417.254532658863</v>
       </c>
     </row>
     <row r="996">
@@ -44874,7 +44874,7 @@
         <v>994</v>
       </c>
       <c r="B996" s="8" t="n">
-        <v>407.8109869674673</v>
+        <v>672.9518199608883</v>
       </c>
     </row>
     <row r="997">
@@ -44882,7 +44882,7 @@
         <v>995</v>
       </c>
       <c r="B997" s="8" t="n">
-        <v>616.0906860678988</v>
+        <v>520.2972647258212</v>
       </c>
     </row>
     <row r="998">
@@ -44890,7 +44890,7 @@
         <v>996</v>
       </c>
       <c r="B998" s="8" t="n">
-        <v>391.1709773046713</v>
+        <v>472.0228487169911</v>
       </c>
     </row>
     <row r="999">
@@ -44898,7 +44898,7 @@
         <v>997</v>
       </c>
       <c r="B999" s="8" t="n">
-        <v>702.656487090418</v>
+        <v>349.3109503843701</v>
       </c>
     </row>
     <row r="1000">
@@ -44906,7 +44906,7 @@
         <v>998</v>
       </c>
       <c r="B1000" s="8" t="n">
-        <v>333.2717818896306</v>
+        <v>596.7646347834674</v>
       </c>
     </row>
     <row r="1001">
@@ -44914,7 +44914,7 @@
         <v>999</v>
       </c>
       <c r="B1001" s="8" t="n">
-        <v>290.130161949374</v>
+        <v>761.1452439760282</v>
       </c>
     </row>
   </sheetData>
